--- a/BackTest/2019-10-19 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-19 BackTest ZRX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>10</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>353.3</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>11</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>353.5</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>11</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L14" t="n">
         <v>353.5</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>11</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L15" t="n">
         <v>353.6</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>12</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>353.6</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>13</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-25</v>
+      </c>
       <c r="L17" t="n">
         <v>353.5</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>13</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-66.66666666666666</v>
+      </c>
       <c r="L18" t="n">
         <v>353.3</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>15</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-25</v>
+      </c>
       <c r="L19" t="n">
         <v>353.1</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>15</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-42.85714285714285</v>
+      </c>
       <c r="L20" t="n">
         <v>352.9</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>16</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>352.7</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>16</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
       <c r="L22" t="n">
         <v>352.7</v>
       </c>
@@ -1515,7 +1537,7 @@
         <v>19</v>
       </c>
       <c r="K25" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L25" t="n">
         <v>353</v>
@@ -1564,7 +1586,7 @@
         <v>19</v>
       </c>
       <c r="K26" t="n">
-        <v>20</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L26" t="n">
         <v>353.3</v>
@@ -1613,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="K27" t="n">
-        <v>12.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L27" t="n">
         <v>353.6</v>
@@ -1662,7 +1684,7 @@
         <v>21</v>
       </c>
       <c r="K28" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L28" t="n">
         <v>354</v>
@@ -1711,7 +1733,7 @@
         <v>21</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L29" t="n">
         <v>354.2</v>
@@ -1760,7 +1782,7 @@
         <v>23</v>
       </c>
       <c r="K30" t="n">
-        <v>12.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L30" t="n">
         <v>354.6</v>
@@ -1809,7 +1831,7 @@
         <v>24</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L31" t="n">
         <v>354.8</v>
@@ -1860,7 +1882,7 @@
         <v>24</v>
       </c>
       <c r="K32" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L32" t="n">
         <v>355</v>
@@ -1911,7 +1933,7 @@
         <v>25</v>
       </c>
       <c r="K33" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L33" t="n">
         <v>355.3</v>
@@ -1962,7 +1984,7 @@
         <v>25</v>
       </c>
       <c r="K34" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L34" t="n">
         <v>355.7</v>
@@ -2013,7 +2035,7 @@
         <v>25</v>
       </c>
       <c r="K35" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L35" t="n">
         <v>355.9</v>
@@ -2064,7 +2086,7 @@
         <v>28</v>
       </c>
       <c r="K36" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L36" t="n">
         <v>356.4</v>
@@ -2115,7 +2137,7 @@
         <v>31</v>
       </c>
       <c r="K37" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L37" t="n">
         <v>356.7</v>
@@ -2166,7 +2188,7 @@
         <v>31</v>
       </c>
       <c r="K38" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L38" t="n">
         <v>356.9</v>
@@ -2217,7 +2239,7 @@
         <v>31</v>
       </c>
       <c r="K39" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>357.1</v>
@@ -2268,7 +2290,7 @@
         <v>32</v>
       </c>
       <c r="K40" t="n">
-        <v>29.41176470588236</v>
+        <v>25</v>
       </c>
       <c r="L40" t="n">
         <v>357.2</v>
@@ -2370,7 +2392,7 @@
         <v>32</v>
       </c>
       <c r="K42" t="n">
-        <v>25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L42" t="n">
         <v>357.6</v>
@@ -2421,7 +2443,7 @@
         <v>33</v>
       </c>
       <c r="K43" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>357.6</v>
@@ -2472,7 +2494,7 @@
         <v>35</v>
       </c>
       <c r="K44" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L44" t="n">
         <v>357.8</v>
@@ -2523,7 +2545,7 @@
         <v>37</v>
       </c>
       <c r="K45" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>357.8</v>
@@ -2574,7 +2596,7 @@
         <v>38</v>
       </c>
       <c r="K46" t="n">
-        <v>15.78947368421053</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L46" t="n">
         <v>357.6</v>
@@ -2625,7 +2647,7 @@
         <v>38</v>
       </c>
       <c r="K47" t="n">
-        <v>22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L47" t="n">
         <v>357.7</v>
@@ -2676,7 +2698,7 @@
         <v>41</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L48" t="n">
         <v>357.5</v>
@@ -2727,7 +2749,7 @@
         <v>41</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L49" t="n">
         <v>357.3</v>
@@ -2778,7 +2800,7 @@
         <v>41</v>
       </c>
       <c r="K50" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L50" t="n">
         <v>357</v>
@@ -2829,7 +2851,7 @@
         <v>41</v>
       </c>
       <c r="K51" t="n">
-        <v>-5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>356.7</v>
@@ -2880,7 +2902,7 @@
         <v>41</v>
       </c>
       <c r="K52" t="n">
-        <v>-5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L52" t="n">
         <v>356.4</v>
@@ -2931,7 +2953,7 @@
         <v>41</v>
       </c>
       <c r="K53" t="n">
-        <v>-12.5</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L53" t="n">
         <v>356.2</v>
@@ -2982,7 +3004,7 @@
         <v>44</v>
       </c>
       <c r="K54" t="n">
-        <v>5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L54" t="n">
         <v>356.1</v>
@@ -3033,7 +3055,7 @@
         <v>46</v>
       </c>
       <c r="K55" t="n">
-        <v>-4.761904761904762</v>
+        <v>-25</v>
       </c>
       <c r="L55" t="n">
         <v>356</v>
@@ -3084,7 +3106,7 @@
         <v>47</v>
       </c>
       <c r="K56" t="n">
-        <v>-15.78947368421053</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L56" t="n">
         <v>355.9</v>
@@ -3135,7 +3157,7 @@
         <v>49</v>
       </c>
       <c r="K57" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L57" t="n">
         <v>356</v>
@@ -3186,7 +3208,7 @@
         <v>49</v>
       </c>
       <c r="K58" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L58" t="n">
         <v>356.4</v>
@@ -3237,7 +3259,7 @@
         <v>49</v>
       </c>
       <c r="K59" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L59" t="n">
         <v>356.8</v>
@@ -3288,7 +3310,7 @@
         <v>50</v>
       </c>
       <c r="K60" t="n">
-        <v>11.11111111111111</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L60" t="n">
         <v>357.3</v>
@@ -3339,7 +3361,7 @@
         <v>50</v>
       </c>
       <c r="K61" t="n">
-        <v>11.11111111111111</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L61" t="n">
         <v>357.8</v>
@@ -3390,7 +3412,7 @@
         <v>52</v>
       </c>
       <c r="K62" t="n">
-        <v>20</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L62" t="n">
         <v>358.5</v>
@@ -3441,7 +3463,7 @@
         <v>52</v>
       </c>
       <c r="K63" t="n">
-        <v>26.31578947368421</v>
+        <v>50</v>
       </c>
       <c r="L63" t="n">
         <v>359.2</v>
@@ -3492,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="K64" t="n">
-        <v>17.64705882352941</v>
+        <v>100</v>
       </c>
       <c r="L64" t="n">
         <v>359.6</v>
@@ -3543,7 +3565,7 @@
         <v>53</v>
       </c>
       <c r="K65" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L65" t="n">
         <v>360.3</v>
@@ -3594,7 +3616,7 @@
         <v>54</v>
       </c>
       <c r="K66" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L66" t="n">
         <v>361</v>
@@ -3645,7 +3667,7 @@
         <v>54</v>
       </c>
       <c r="K67" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L67" t="n">
         <v>361.5</v>
@@ -3696,7 +3718,7 @@
         <v>54</v>
       </c>
       <c r="K68" t="n">
-        <v>69.23076923076923</v>
+        <v>100</v>
       </c>
       <c r="L68" t="n">
         <v>362</v>
@@ -3747,7 +3769,7 @@
         <v>55</v>
       </c>
       <c r="K69" t="n">
-        <v>71.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L69" t="n">
         <v>362.6</v>
@@ -3798,7 +3820,7 @@
         <v>55</v>
       </c>
       <c r="K70" t="n">
-        <v>71.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L70" t="n">
         <v>363.1</v>
@@ -3849,7 +3871,7 @@
         <v>56</v>
       </c>
       <c r="K71" t="n">
-        <v>73.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
         <v>363.7</v>
@@ -3900,7 +3922,7 @@
         <v>56</v>
       </c>
       <c r="K72" t="n">
-        <v>73.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L72" t="n">
         <v>364.1</v>
@@ -3951,7 +3973,7 @@
         <v>57</v>
       </c>
       <c r="K73" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L73" t="n">
         <v>364.6</v>
@@ -4002,7 +4024,7 @@
         <v>58</v>
       </c>
       <c r="K74" t="n">
-        <v>71.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L74" t="n">
         <v>365.2</v>
@@ -4104,7 +4126,7 @@
         <v>59</v>
       </c>
       <c r="K76" t="n">
-        <v>83.33333333333334</v>
+        <v>60</v>
       </c>
       <c r="L76" t="n">
         <v>366</v>
@@ -4155,7 +4177,7 @@
         <v>59</v>
       </c>
       <c r="K77" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L77" t="n">
         <v>366.3</v>
@@ -4206,7 +4228,7 @@
         <v>60</v>
       </c>
       <c r="K78" t="n">
-        <v>63.63636363636363</v>
+        <v>20</v>
       </c>
       <c r="L78" t="n">
         <v>366.5</v>
@@ -4257,7 +4279,7 @@
         <v>61</v>
       </c>
       <c r="K79" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>366.5</v>
@@ -4308,7 +4330,7 @@
         <v>62</v>
       </c>
       <c r="K80" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>366.4</v>
@@ -4359,7 +4381,7 @@
         <v>62</v>
       </c>
       <c r="K81" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L81" t="n">
         <v>366.2</v>
@@ -4410,7 +4432,7 @@
         <v>62</v>
       </c>
       <c r="K82" t="n">
-        <v>20</v>
+        <v>-60</v>
       </c>
       <c r="L82" t="n">
         <v>366</v>
@@ -4461,7 +4483,7 @@
         <v>62</v>
       </c>
       <c r="K83" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L83" t="n">
         <v>365.7</v>
@@ -4512,7 +4534,7 @@
         <v>62</v>
       </c>
       <c r="K84" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L84" t="n">
         <v>365.3</v>
@@ -4563,7 +4585,7 @@
         <v>63</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L85" t="n">
         <v>364.8</v>
@@ -4614,7 +4636,7 @@
         <v>64</v>
       </c>
       <c r="K86" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L86" t="n">
         <v>364.3</v>
@@ -4665,7 +4687,7 @@
         <v>64</v>
       </c>
       <c r="K87" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L87" t="n">
         <v>363.8</v>
@@ -4716,7 +4738,7 @@
         <v>66</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L88" t="n">
         <v>363.6</v>
@@ -4767,7 +4789,7 @@
         <v>66</v>
       </c>
       <c r="K89" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>363.5</v>
@@ -4818,7 +4840,7 @@
         <v>67</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L90" t="n">
         <v>363.6</v>
@@ -4869,7 +4891,7 @@
         <v>67</v>
       </c>
       <c r="K91" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L91" t="n">
         <v>363.7</v>
@@ -4920,7 +4942,7 @@
         <v>67</v>
       </c>
       <c r="K92" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L92" t="n">
         <v>363.8</v>
@@ -4971,7 +4993,7 @@
         <v>68</v>
       </c>
       <c r="K93" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>363.8</v>
@@ -5022,7 +5044,7 @@
         <v>69</v>
       </c>
       <c r="K94" t="n">
-        <v>-45.45454545454545</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>363.7</v>
@@ -5073,7 +5095,7 @@
         <v>72</v>
       </c>
       <c r="K95" t="n">
-        <v>-14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L95" t="n">
         <v>364</v>
@@ -5124,7 +5146,7 @@
         <v>72</v>
       </c>
       <c r="K96" t="n">
-        <v>-7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L96" t="n">
         <v>364.4</v>
@@ -5175,7 +5197,7 @@
         <v>73</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L97" t="n">
         <v>364.9</v>
@@ -5226,7 +5248,7 @@
         <v>73</v>
       </c>
       <c r="K98" t="n">
-        <v>7.692307692307693</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L98" t="n">
         <v>365.2</v>
@@ -5277,7 +5299,7 @@
         <v>74</v>
       </c>
       <c r="K99" t="n">
-        <v>23.07692307692308</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L99" t="n">
         <v>365.6</v>
@@ -5328,7 +5350,7 @@
         <v>75</v>
       </c>
       <c r="K100" t="n">
-        <v>38.46153846153847</v>
+        <v>50</v>
       </c>
       <c r="L100" t="n">
         <v>366</v>
@@ -5430,7 +5452,7 @@
         <v>78</v>
       </c>
       <c r="K102" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L102" t="n">
         <v>366.5</v>
@@ -5481,7 +5503,7 @@
         <v>78</v>
       </c>
       <c r="K103" t="n">
-        <v>25</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L103" t="n">
         <v>366.9</v>
@@ -5532,7 +5554,7 @@
         <v>78</v>
       </c>
       <c r="K104" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L104" t="n">
         <v>367.4</v>
@@ -5583,7 +5605,7 @@
         <v>80</v>
       </c>
       <c r="K105" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>367.4</v>
@@ -5634,7 +5656,7 @@
         <v>80</v>
       </c>
       <c r="K106" t="n">
-        <v>25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L106" t="n">
         <v>367.4</v>
@@ -5685,7 +5707,7 @@
         <v>80</v>
       </c>
       <c r="K107" t="n">
-        <v>25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L107" t="n">
         <v>367.3</v>
@@ -5736,7 +5758,7 @@
         <v>80</v>
       </c>
       <c r="K108" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L108" t="n">
         <v>367.2</v>
@@ -5787,7 +5809,7 @@
         <v>80</v>
       </c>
       <c r="K109" t="n">
-        <v>14.28571428571428</v>
+        <v>-60</v>
       </c>
       <c r="L109" t="n">
         <v>367</v>
@@ -5889,7 +5911,7 @@
         <v>86</v>
       </c>
       <c r="K111" t="n">
-        <v>-5.263157894736842</v>
+        <v>-50</v>
       </c>
       <c r="L111" t="n">
         <v>366.6</v>
@@ -5940,7 +5962,7 @@
         <v>86</v>
       </c>
       <c r="K112" t="n">
-        <v>-5.263157894736842</v>
+        <v>-50</v>
       </c>
       <c r="L112" t="n">
         <v>366.2</v>
@@ -5991,7 +6013,7 @@
         <v>87</v>
       </c>
       <c r="K113" t="n">
-        <v>-5.263157894736842</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L113" t="n">
         <v>365.7</v>
@@ -6042,7 +6064,7 @@
         <v>87</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L114" t="n">
         <v>365.2</v>
@@ -6093,7 +6115,7 @@
         <v>87</v>
       </c>
       <c r="K115" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L115" t="n">
         <v>364.9</v>
@@ -6144,7 +6166,7 @@
         <v>88</v>
       </c>
       <c r="K116" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L116" t="n">
         <v>364.5</v>
@@ -6195,7 +6217,7 @@
         <v>90</v>
       </c>
       <c r="K117" t="n">
-        <v>-17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L117" t="n">
         <v>364.3</v>
@@ -6246,7 +6268,7 @@
         <v>91</v>
       </c>
       <c r="K118" t="n">
-        <v>-22.22222222222222</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L118" t="n">
         <v>364</v>
@@ -6297,7 +6319,7 @@
         <v>91</v>
       </c>
       <c r="K119" t="n">
-        <v>-29.41176470588236</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L119" t="n">
         <v>363.7</v>
@@ -6348,7 +6370,7 @@
         <v>91</v>
       </c>
       <c r="K120" t="n">
-        <v>-37.5</v>
+        <v>-20</v>
       </c>
       <c r="L120" t="n">
         <v>363.2</v>
@@ -6399,7 +6421,7 @@
         <v>92</v>
       </c>
       <c r="K121" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>363.2</v>
@@ -6450,7 +6472,7 @@
         <v>93</v>
       </c>
       <c r="K122" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>363.3</v>
@@ -6501,7 +6523,7 @@
         <v>93</v>
       </c>
       <c r="K123" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L123" t="n">
         <v>363.5</v>
@@ -6552,7 +6574,7 @@
         <v>93</v>
       </c>
       <c r="K124" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L124" t="n">
         <v>363.7</v>
@@ -6603,7 +6625,7 @@
         <v>93</v>
       </c>
       <c r="K125" t="n">
-        <v>-7.692307692307693</v>
+        <v>60</v>
       </c>
       <c r="L125" t="n">
         <v>363.9</v>
@@ -6654,7 +6676,7 @@
         <v>97</v>
       </c>
       <c r="K126" t="n">
-        <v>-29.41176470588236</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L126" t="n">
         <v>363.8</v>
@@ -6705,7 +6727,7 @@
         <v>99</v>
       </c>
       <c r="K127" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>363.7</v>
@@ -6756,7 +6778,7 @@
         <v>100</v>
       </c>
       <c r="K128" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L128" t="n">
         <v>363.6</v>
@@ -6858,7 +6880,7 @@
         <v>103</v>
       </c>
       <c r="K130" t="n">
-        <v>-42.85714285714285</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L130" t="n">
         <v>362.9</v>
@@ -6909,7 +6931,7 @@
         <v>103</v>
       </c>
       <c r="K131" t="n">
-        <v>-29.41176470588236</v>
+        <v>-60</v>
       </c>
       <c r="L131" t="n">
         <v>362.4</v>
@@ -6960,7 +6982,7 @@
         <v>105</v>
       </c>
       <c r="K132" t="n">
-        <v>-36.84210526315789</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L132" t="n">
         <v>361.6</v>
@@ -7011,7 +7033,7 @@
         <v>107</v>
       </c>
       <c r="K133" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L133" t="n">
         <v>361</v>
@@ -7062,7 +7084,7 @@
         <v>107</v>
       </c>
       <c r="K134" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L134" t="n">
         <v>360.4</v>
@@ -7113,7 +7135,7 @@
         <v>111</v>
       </c>
       <c r="K135" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L135" t="n">
         <v>359.4</v>
@@ -7164,7 +7186,7 @@
         <v>114</v>
       </c>
       <c r="K136" t="n">
-        <v>-15.38461538461539</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L136" t="n">
         <v>359.1</v>
@@ -7215,7 +7237,7 @@
         <v>116</v>
       </c>
       <c r="K137" t="n">
-        <v>-15.38461538461539</v>
+        <v>-12.5</v>
       </c>
       <c r="L137" t="n">
         <v>358.8</v>
@@ -7266,7 +7288,7 @@
         <v>118</v>
       </c>
       <c r="K138" t="n">
-        <v>-3.703703703703703</v>
+        <v>12.5</v>
       </c>
       <c r="L138" t="n">
         <v>358.8</v>
@@ -7317,7 +7339,7 @@
         <v>119</v>
       </c>
       <c r="K139" t="n">
-        <v>-7.142857142857142</v>
+        <v>12.5</v>
       </c>
       <c r="L139" t="n">
         <v>358.9</v>
@@ -7368,7 +7390,7 @@
         <v>121</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L140" t="n">
         <v>359.3</v>
@@ -7419,7 +7441,7 @@
         <v>121</v>
       </c>
       <c r="K141" t="n">
-        <v>-3.448275862068965</v>
+        <v>37.5</v>
       </c>
       <c r="L141" t="n">
         <v>359.7</v>
@@ -7470,7 +7492,7 @@
         <v>121</v>
       </c>
       <c r="K142" t="n">
-        <v>-7.142857142857142</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L142" t="n">
         <v>360.3</v>
@@ -7521,7 +7543,7 @@
         <v>123</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L143" t="n">
         <v>360.9</v>

--- a/BackTest/2019-10-19 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-19 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S143"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,21 @@
         <v>351.3333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>353</v>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +492,21 @@
         <v>351.2666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>351</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,23 +533,21 @@
         <v>351.2666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>353</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,23 +574,21 @@
         <v>351.2666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>353</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +615,21 @@
         <v>351.2666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>352</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,23 +656,21 @@
         <v>351.2666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>352</v>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,23 +697,21 @@
         <v>351.3166666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>353</v>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,23 +738,21 @@
         <v>351.45</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>355</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,23 +779,21 @@
         <v>351.5666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>355</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -864,25 +820,21 @@
         <v>351.7</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>356</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>353.1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,27 +861,21 @@
         <v>351.8</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
-      </c>
-      <c r="K12" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L12" t="n">
-        <v>353.3</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>354</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +905,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>11</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>353.5</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +944,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11</v>
-      </c>
-      <c r="K14" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L14" t="n">
-        <v>353.5</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1050,27 +980,21 @@
         <v>351.95</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>11</v>
-      </c>
-      <c r="K15" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L15" t="n">
-        <v>353.6</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>353</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1097,27 +1021,21 @@
         <v>351.9833333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>353.6</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>353</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,27 +1062,21 @@
         <v>352</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>13</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L17" t="n">
-        <v>353.5</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>352</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,27 +1103,21 @@
         <v>351.9833333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>13</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L18" t="n">
-        <v>353.3</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>351</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,27 +1144,21 @@
         <v>351.9833333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>15</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L19" t="n">
-        <v>353.1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>353</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,27 +1185,21 @@
         <v>352.0166666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>15</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L20" t="n">
-        <v>352.9</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>353</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,29 +1226,21 @@
         <v>352.0333333333334</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>16</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>352.7</v>
+        <v>354</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>352.9</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,29 +1267,21 @@
         <v>352.0666666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>16</v>
-      </c>
-      <c r="K22" t="n">
-        <v>20</v>
-      </c>
-      <c r="L22" t="n">
-        <v>352.7</v>
+        <v>354</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>353</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1430,29 +1308,21 @@
         <v>352.1166666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>16</v>
-      </c>
-      <c r="K23" t="n">
-        <v>20</v>
-      </c>
-      <c r="L23" t="n">
-        <v>352.8</v>
+        <v>354</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>353.15</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1349,21 @@
         <v>352.1666666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>17</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>352.8</v>
+        <v>353</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>353.15</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,29 +1390,21 @@
         <v>352.25</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19</v>
-      </c>
-      <c r="K25" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L25" t="n">
-        <v>353</v>
+        <v>355</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>353.3</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,29 +1431,21 @@
         <v>352.3333333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>19</v>
-      </c>
-      <c r="K26" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L26" t="n">
-        <v>353.3</v>
+        <v>355</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>353.45</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,29 +1472,21 @@
         <v>352.4</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20</v>
-      </c>
-      <c r="K27" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L27" t="n">
-        <v>353.6</v>
+        <v>354</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>353.55</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1516,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>21</v>
-      </c>
-      <c r="K28" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L28" t="n">
-        <v>354</v>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>353.65</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1555,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>21</v>
-      </c>
-      <c r="K29" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L29" t="n">
-        <v>354.2</v>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>353.65</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1594,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>23</v>
-      </c>
-      <c r="K30" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L30" t="n">
-        <v>354.6</v>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>353.75</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1633,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>24</v>
-      </c>
-      <c r="K31" t="n">
-        <v>25</v>
-      </c>
-      <c r="L31" t="n">
-        <v>354.8</v>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>353.75</v>
-      </c>
-      <c r="N31" t="n">
-        <v>353.5333333333334</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1672,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>24</v>
-      </c>
-      <c r="K32" t="n">
-        <v>25</v>
-      </c>
-      <c r="L32" t="n">
-        <v>355</v>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>353.85</v>
-      </c>
-      <c r="N32" t="n">
-        <v>353.6666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1711,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>25</v>
-      </c>
-      <c r="K33" t="n">
-        <v>50</v>
-      </c>
-      <c r="L33" t="n">
-        <v>355.3</v>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>354.05</v>
-      </c>
-      <c r="N33" t="n">
-        <v>353.8666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1750,16 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>25</v>
-      </c>
-      <c r="K34" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L34" t="n">
-        <v>355.7</v>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>354.25</v>
-      </c>
-      <c r="N34" t="n">
-        <v>354</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1789,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>25</v>
-      </c>
-      <c r="K35" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L35" t="n">
-        <v>355.9</v>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>354.45</v>
-      </c>
-      <c r="N35" t="n">
-        <v>354.1666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1828,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>28</v>
-      </c>
-      <c r="K36" t="n">
-        <v>75</v>
-      </c>
-      <c r="L36" t="n">
-        <v>356.4</v>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>354.85</v>
-      </c>
-      <c r="N36" t="n">
-        <v>354.4333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1867,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>31</v>
-      </c>
-      <c r="K37" t="n">
-        <v>20</v>
-      </c>
-      <c r="L37" t="n">
-        <v>356.7</v>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>355.15</v>
-      </c>
-      <c r="N37" t="n">
-        <v>354.6</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1906,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>31</v>
-      </c>
-      <c r="K38" t="n">
-        <v>20</v>
-      </c>
-      <c r="L38" t="n">
-        <v>356.9</v>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>355.45</v>
-      </c>
-      <c r="N38" t="n">
-        <v>354.7333333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1945,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>31</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>357.1</v>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>355.65</v>
-      </c>
-      <c r="N39" t="n">
-        <v>354.8</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1984,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>32</v>
-      </c>
-      <c r="K40" t="n">
-        <v>25</v>
-      </c>
-      <c r="L40" t="n">
-        <v>357.2</v>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>355.9</v>
-      </c>
-      <c r="N40" t="n">
-        <v>354.9</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +2023,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>32</v>
-      </c>
-      <c r="K41" t="n">
-        <v>25</v>
-      </c>
-      <c r="L41" t="n">
-        <v>357.4</v>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>356.1</v>
-      </c>
-      <c r="N41" t="n">
-        <v>354.9666666666666</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +2062,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>32</v>
-      </c>
-      <c r="K42" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L42" t="n">
-        <v>357.6</v>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>356.3</v>
-      </c>
-      <c r="N42" t="n">
-        <v>355.1</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +2101,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>33</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>357.6</v>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>356.45</v>
-      </c>
-      <c r="N43" t="n">
-        <v>355.2333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2140,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>35</v>
-      </c>
-      <c r="K44" t="n">
-        <v>20</v>
-      </c>
-      <c r="L44" t="n">
-        <v>357.8</v>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>356.75</v>
-      </c>
-      <c r="N44" t="n">
-        <v>355.4333333333333</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2179,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
-      </c>
-      <c r="J45" t="n">
-        <v>37</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L45" t="n">
-        <v>357.8</v>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>356.85</v>
-      </c>
-      <c r="N45" t="n">
-        <v>355.5666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2218,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
-      </c>
-      <c r="J46" t="n">
-        <v>38</v>
-      </c>
-      <c r="K46" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L46" t="n">
-        <v>357.6</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>357</v>
-      </c>
-      <c r="N46" t="n">
-        <v>355.7666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2257,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>38</v>
-      </c>
-      <c r="K47" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L47" t="n">
-        <v>357.7</v>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>357.2</v>
-      </c>
-      <c r="N47" t="n">
-        <v>356</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2296,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
-      </c>
-      <c r="J48" t="n">
-        <v>41</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L48" t="n">
-        <v>357.5</v>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>357.2</v>
-      </c>
-      <c r="N48" t="n">
-        <v>356.1333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2335,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
-      </c>
-      <c r="J49" t="n">
-        <v>41</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L49" t="n">
-        <v>357.3</v>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>357.2</v>
-      </c>
-      <c r="N49" t="n">
-        <v>356.2</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2374,16 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>41</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L50" t="n">
-        <v>357</v>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>357.1</v>
-      </c>
-      <c r="N50" t="n">
-        <v>356.2666666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2413,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
-      </c>
-      <c r="J51" t="n">
-        <v>41</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L51" t="n">
-        <v>356.7</v>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>357.05</v>
-      </c>
-      <c r="N51" t="n">
-        <v>356.3</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2452,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
-      </c>
-      <c r="J52" t="n">
-        <v>41</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L52" t="n">
-        <v>356.4</v>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>357</v>
-      </c>
-      <c r="N52" t="n">
-        <v>356.3333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2491,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>41</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L53" t="n">
-        <v>356.2</v>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>356.9</v>
-      </c>
-      <c r="N53" t="n">
-        <v>356.3666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2530,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>6</v>
-      </c>
-      <c r="J54" t="n">
-        <v>44</v>
-      </c>
-      <c r="K54" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L54" t="n">
-        <v>356.1</v>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>356.95</v>
-      </c>
-      <c r="N54" t="n">
-        <v>356.5333333333334</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2569,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>4</v>
-      </c>
-      <c r="J55" t="n">
-        <v>46</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L55" t="n">
-        <v>356</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>356.9</v>
-      </c>
-      <c r="N55" t="n">
-        <v>356.5666666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2608,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
-      </c>
-      <c r="J56" t="n">
-        <v>47</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L56" t="n">
-        <v>355.9</v>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>356.75</v>
-      </c>
-      <c r="N56" t="n">
-        <v>356.6333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2647,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>7</v>
-      </c>
-      <c r="J57" t="n">
-        <v>49</v>
-      </c>
-      <c r="K57" t="n">
-        <v>50</v>
-      </c>
-      <c r="L57" t="n">
-        <v>356</v>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>356.85</v>
-      </c>
-      <c r="N57" t="n">
-        <v>356.8</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2686,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>49</v>
-      </c>
-      <c r="K58" t="n">
-        <v>50</v>
-      </c>
-      <c r="L58" t="n">
-        <v>356.4</v>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>356.95</v>
-      </c>
-      <c r="N58" t="n">
-        <v>356.9333333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2725,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
-      </c>
-      <c r="J59" t="n">
-        <v>49</v>
-      </c>
-      <c r="K59" t="n">
-        <v>50</v>
-      </c>
-      <c r="L59" t="n">
-        <v>356.8</v>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>357.05</v>
-      </c>
-      <c r="N59" t="n">
-        <v>357.0666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2764,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>50</v>
-      </c>
-      <c r="K60" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L60" t="n">
-        <v>357.3</v>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>357.15</v>
-      </c>
-      <c r="N60" t="n">
-        <v>357.1666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2803,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>8</v>
-      </c>
-      <c r="J61" t="n">
-        <v>50</v>
-      </c>
-      <c r="K61" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L61" t="n">
-        <v>357.8</v>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>357.25</v>
-      </c>
-      <c r="N61" t="n">
-        <v>357.3</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2842,16 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>10</v>
-      </c>
-      <c r="J62" t="n">
-        <v>52</v>
-      </c>
-      <c r="K62" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L62" t="n">
-        <v>358.5</v>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>357.45</v>
-      </c>
-      <c r="N62" t="n">
-        <v>357.5</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2881,16 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>10</v>
-      </c>
-      <c r="J63" t="n">
-        <v>52</v>
-      </c>
-      <c r="K63" t="n">
-        <v>50</v>
-      </c>
-      <c r="L63" t="n">
-        <v>359.2</v>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>357.7</v>
-      </c>
-      <c r="N63" t="n">
-        <v>357.6666666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2920,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>10</v>
-      </c>
-      <c r="J64" t="n">
-        <v>52</v>
-      </c>
-      <c r="K64" t="n">
-        <v>100</v>
-      </c>
-      <c r="L64" t="n">
-        <v>359.6</v>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>357.85</v>
-      </c>
-      <c r="N64" t="n">
-        <v>357.8333333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2959,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>11</v>
-      </c>
-      <c r="J65" t="n">
-        <v>53</v>
-      </c>
-      <c r="K65" t="n">
-        <v>100</v>
-      </c>
-      <c r="L65" t="n">
-        <v>360.3</v>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>358.15</v>
-      </c>
-      <c r="N65" t="n">
-        <v>358.0333333333334</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2998,16 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>12</v>
-      </c>
-      <c r="J66" t="n">
-        <v>54</v>
-      </c>
-      <c r="K66" t="n">
-        <v>100</v>
-      </c>
-      <c r="L66" t="n">
-        <v>361</v>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>358.45</v>
-      </c>
-      <c r="N66" t="n">
-        <v>358.1666666666667</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +3037,16 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>12</v>
-      </c>
-      <c r="J67" t="n">
-        <v>54</v>
-      </c>
-      <c r="K67" t="n">
-        <v>100</v>
-      </c>
-      <c r="L67" t="n">
-        <v>361.5</v>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>358.75</v>
-      </c>
-      <c r="N67" t="n">
-        <v>358.4</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3076,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>12</v>
-      </c>
-      <c r="J68" t="n">
-        <v>54</v>
-      </c>
-      <c r="K68" t="n">
-        <v>100</v>
-      </c>
-      <c r="L68" t="n">
-        <v>362</v>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>359.2</v>
-      </c>
-      <c r="N68" t="n">
-        <v>358.6333333333333</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3115,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>13</v>
-      </c>
-      <c r="J69" t="n">
-        <v>55</v>
-      </c>
-      <c r="K69" t="n">
-        <v>100</v>
-      </c>
-      <c r="L69" t="n">
-        <v>362.6</v>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>359.7</v>
-      </c>
-      <c r="N69" t="n">
-        <v>358.9</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +3154,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>13</v>
-      </c>
-      <c r="J70" t="n">
-        <v>55</v>
-      </c>
-      <c r="K70" t="n">
-        <v>100</v>
-      </c>
-      <c r="L70" t="n">
-        <v>363.1</v>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>360.2</v>
-      </c>
-      <c r="N70" t="n">
-        <v>359.1333333333333</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3193,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>14</v>
-      </c>
-      <c r="J71" t="n">
-        <v>56</v>
-      </c>
-      <c r="K71" t="n">
-        <v>100</v>
-      </c>
-      <c r="L71" t="n">
-        <v>363.7</v>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>360.75</v>
-      </c>
-      <c r="N71" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,30 +3232,16 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>14</v>
-      </c>
-      <c r="J72" t="n">
-        <v>56</v>
-      </c>
-      <c r="K72" t="n">
-        <v>100</v>
-      </c>
-      <c r="L72" t="n">
-        <v>364.1</v>
-      </c>
-      <c r="M72" t="n">
-        <v>361.3</v>
-      </c>
-      <c r="N72" t="n">
-        <v>359.6666666666667</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3967,28 +3269,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>15</v>
-      </c>
-      <c r="J73" t="n">
-        <v>57</v>
-      </c>
-      <c r="K73" t="n">
-        <v>100</v>
-      </c>
-      <c r="L73" t="n">
-        <v>364.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>361.9</v>
-      </c>
-      <c r="N73" t="n">
-        <v>360</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3304,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>16</v>
-      </c>
-      <c r="J74" t="n">
-        <v>58</v>
-      </c>
-      <c r="K74" t="n">
-        <v>100</v>
-      </c>
-      <c r="L74" t="n">
-        <v>365.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>362.4</v>
-      </c>
-      <c r="N74" t="n">
-        <v>360.3</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3339,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>16</v>
-      </c>
-      <c r="J75" t="n">
-        <v>58</v>
-      </c>
-      <c r="K75" t="n">
-        <v>100</v>
-      </c>
-      <c r="L75" t="n">
-        <v>365.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>363</v>
-      </c>
-      <c r="N75" t="n">
-        <v>360.6666666666667</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3374,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>59</v>
-      </c>
-      <c r="K76" t="n">
-        <v>60</v>
-      </c>
-      <c r="L76" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>363.5</v>
-      </c>
-      <c r="N76" t="n">
-        <v>360.9666666666666</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3409,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>15</v>
-      </c>
-      <c r="J77" t="n">
-        <v>59</v>
-      </c>
-      <c r="K77" t="n">
-        <v>60</v>
-      </c>
-      <c r="L77" t="n">
-        <v>366.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>363.9</v>
-      </c>
-      <c r="N77" t="n">
-        <v>361.2666666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3444,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>14</v>
-      </c>
-      <c r="J78" t="n">
-        <v>60</v>
-      </c>
-      <c r="K78" t="n">
-        <v>20</v>
-      </c>
-      <c r="L78" t="n">
-        <v>366.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>364.25</v>
-      </c>
-      <c r="N78" t="n">
-        <v>361.6333333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3479,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>13</v>
-      </c>
-      <c r="J79" t="n">
-        <v>61</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>366.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>364.55</v>
-      </c>
-      <c r="N79" t="n">
-        <v>361.9666666666666</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3514,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>12</v>
-      </c>
-      <c r="J80" t="n">
-        <v>62</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L80" t="n">
-        <v>366.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>364.75</v>
-      </c>
-      <c r="N80" t="n">
-        <v>362.2666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3549,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>12</v>
-      </c>
-      <c r="J81" t="n">
-        <v>62</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L81" t="n">
-        <v>366.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>364.95</v>
-      </c>
-      <c r="N81" t="n">
-        <v>362.5666666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3584,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>12</v>
-      </c>
-      <c r="J82" t="n">
-        <v>62</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L82" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>365.05</v>
-      </c>
-      <c r="N82" t="n">
-        <v>362.8666666666667</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3619,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>12</v>
-      </c>
-      <c r="J83" t="n">
-        <v>62</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L83" t="n">
-        <v>365.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>365.15</v>
-      </c>
-      <c r="N83" t="n">
-        <v>363.1666666666667</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3654,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>12</v>
-      </c>
-      <c r="J84" t="n">
-        <v>62</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L84" t="n">
-        <v>365.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>365.25</v>
-      </c>
-      <c r="N84" t="n">
-        <v>363.3666666666667</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3689,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>11</v>
-      </c>
-      <c r="J85" t="n">
-        <v>63</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L85" t="n">
-        <v>364.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>365.25</v>
-      </c>
-      <c r="N85" t="n">
-        <v>363.6</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3724,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>10</v>
-      </c>
-      <c r="J86" t="n">
-        <v>64</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L86" t="n">
-        <v>364.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>365.15</v>
-      </c>
-      <c r="N86" t="n">
-        <v>363.7666666666667</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3759,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>10</v>
-      </c>
-      <c r="J87" t="n">
-        <v>64</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L87" t="n">
-        <v>363.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>365.05</v>
-      </c>
-      <c r="N87" t="n">
-        <v>363.8666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3794,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>12</v>
-      </c>
-      <c r="J88" t="n">
-        <v>66</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L88" t="n">
-        <v>363.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>365.05</v>
-      </c>
-      <c r="N88" t="n">
-        <v>364.0333333333334</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3829,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>66</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>363.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>365</v>
-      </c>
-      <c r="N89" t="n">
-        <v>364.2</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3864,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>13</v>
-      </c>
-      <c r="J90" t="n">
-        <v>67</v>
-      </c>
-      <c r="K90" t="n">
-        <v>20</v>
-      </c>
-      <c r="L90" t="n">
-        <v>363.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>365</v>
-      </c>
-      <c r="N90" t="n">
-        <v>364.3666666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3899,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>13</v>
-      </c>
-      <c r="J91" t="n">
-        <v>67</v>
-      </c>
-      <c r="K91" t="n">
-        <v>20</v>
-      </c>
-      <c r="L91" t="n">
-        <v>363.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>364.95</v>
-      </c>
-      <c r="N91" t="n">
-        <v>364.5333333333334</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3934,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>67</v>
-      </c>
-      <c r="K92" t="n">
-        <v>20</v>
-      </c>
-      <c r="L92" t="n">
-        <v>363.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>364.9</v>
-      </c>
-      <c r="N92" t="n">
-        <v>364.6333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3969,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>12</v>
-      </c>
-      <c r="J93" t="n">
-        <v>68</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>363.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>364.75</v>
-      </c>
-      <c r="N93" t="n">
-        <v>364.7</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +4004,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>11</v>
-      </c>
-      <c r="J94" t="n">
-        <v>69</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>363.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>364.5</v>
-      </c>
-      <c r="N94" t="n">
-        <v>364.7333333333333</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +4039,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>72</v>
-      </c>
-      <c r="K95" t="n">
-        <v>50</v>
-      </c>
-      <c r="L95" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>364.4</v>
-      </c>
-      <c r="N95" t="n">
-        <v>364.8333333333333</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4074,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>14</v>
-      </c>
-      <c r="J96" t="n">
-        <v>72</v>
-      </c>
-      <c r="K96" t="n">
-        <v>50</v>
-      </c>
-      <c r="L96" t="n">
-        <v>364.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>364.35</v>
-      </c>
-      <c r="N96" t="n">
-        <v>364.9</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4109,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>15</v>
-      </c>
-      <c r="J97" t="n">
-        <v>73</v>
-      </c>
-      <c r="K97" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L97" t="n">
-        <v>364.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>364.35</v>
-      </c>
-      <c r="N97" t="n">
-        <v>365</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4144,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>15</v>
-      </c>
-      <c r="J98" t="n">
-        <v>73</v>
-      </c>
-      <c r="K98" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L98" t="n">
-        <v>365.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>364.4</v>
-      </c>
-      <c r="N98" t="n">
-        <v>365.1</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4179,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>16</v>
-      </c>
-      <c r="J99" t="n">
-        <v>74</v>
-      </c>
-      <c r="K99" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L99" t="n">
-        <v>365.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>364.55</v>
-      </c>
-      <c r="N99" t="n">
-        <v>365.2</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4214,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>17</v>
-      </c>
-      <c r="J100" t="n">
-        <v>75</v>
-      </c>
-      <c r="K100" t="n">
-        <v>50</v>
-      </c>
-      <c r="L100" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>364.8</v>
-      </c>
-      <c r="N100" t="n">
-        <v>365.3333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4249,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>15</v>
-      </c>
-      <c r="J101" t="n">
-        <v>77</v>
-      </c>
-      <c r="K101" t="n">
-        <v>20</v>
-      </c>
-      <c r="L101" t="n">
-        <v>366.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>364.95</v>
-      </c>
-      <c r="N101" t="n">
-        <v>365.3666666666667</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4284,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>16</v>
-      </c>
-      <c r="J102" t="n">
-        <v>78</v>
-      </c>
-      <c r="K102" t="n">
-        <v>40</v>
-      </c>
-      <c r="L102" t="n">
-        <v>366.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>365.15</v>
-      </c>
-      <c r="N102" t="n">
-        <v>365.4333333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4319,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>16</v>
-      </c>
-      <c r="J103" t="n">
-        <v>78</v>
-      </c>
-      <c r="K103" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L103" t="n">
-        <v>366.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>365.35</v>
-      </c>
-      <c r="N103" t="n">
-        <v>365.4666666666666</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4354,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>16</v>
-      </c>
-      <c r="J104" t="n">
-        <v>78</v>
-      </c>
-      <c r="K104" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L104" t="n">
-        <v>367.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>365.55</v>
-      </c>
-      <c r="N104" t="n">
-        <v>365.4666666666666</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4389,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>14</v>
-      </c>
-      <c r="J105" t="n">
-        <v>80</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>367.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>365.7</v>
-      </c>
-      <c r="N105" t="n">
-        <v>365.4</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4424,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>14</v>
-      </c>
-      <c r="J106" t="n">
-        <v>80</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L106" t="n">
-        <v>367.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>365.9</v>
-      </c>
-      <c r="N106" t="n">
-        <v>365.3666666666667</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4459,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>14</v>
-      </c>
-      <c r="J107" t="n">
-        <v>80</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L107" t="n">
-        <v>367.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>366.1</v>
-      </c>
-      <c r="N107" t="n">
-        <v>365.3333333333333</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4494,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>14</v>
-      </c>
-      <c r="J108" t="n">
-        <v>80</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L108" t="n">
-        <v>367.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>366.2</v>
-      </c>
-      <c r="N108" t="n">
-        <v>365.3333333333333</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4529,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>14</v>
-      </c>
-      <c r="J109" t="n">
-        <v>80</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L109" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>366.3</v>
-      </c>
-      <c r="N109" t="n">
-        <v>365.3666666666667</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4564,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>16</v>
-      </c>
-      <c r="J110" t="n">
-        <v>82</v>
-      </c>
-      <c r="K110" t="n">
-        <v>20</v>
-      </c>
-      <c r="L110" t="n">
-        <v>366.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>366.45</v>
-      </c>
-      <c r="N110" t="n">
-        <v>365.5</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4599,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>12</v>
-      </c>
-      <c r="J111" t="n">
-        <v>86</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L111" t="n">
-        <v>366.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>366.4</v>
-      </c>
-      <c r="N111" t="n">
-        <v>365.5</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4634,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>12</v>
-      </c>
-      <c r="J112" t="n">
-        <v>86</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L112" t="n">
-        <v>366.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>366.35</v>
-      </c>
-      <c r="N112" t="n">
-        <v>365.5</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4669,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>11</v>
-      </c>
-      <c r="J113" t="n">
-        <v>87</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L113" t="n">
-        <v>365.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>366.3</v>
-      </c>
-      <c r="N113" t="n">
-        <v>365.4666666666666</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4704,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>11</v>
-      </c>
-      <c r="J114" t="n">
-        <v>87</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L114" t="n">
-        <v>365.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>366.3</v>
-      </c>
-      <c r="N114" t="n">
-        <v>365.4333333333333</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4739,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>11</v>
-      </c>
-      <c r="J115" t="n">
-        <v>87</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L115" t="n">
-        <v>364.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>366.15</v>
-      </c>
-      <c r="N115" t="n">
-        <v>365.4333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4774,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>10</v>
-      </c>
-      <c r="J116" t="n">
-        <v>88</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L116" t="n">
-        <v>364.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>365.95</v>
-      </c>
-      <c r="N116" t="n">
-        <v>365.4333333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4809,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>12</v>
-      </c>
-      <c r="J117" t="n">
-        <v>90</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L117" t="n">
-        <v>364.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>365.8</v>
-      </c>
-      <c r="N117" t="n">
-        <v>365.5</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4844,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>11</v>
-      </c>
-      <c r="J118" t="n">
-        <v>91</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L118" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>365.6</v>
-      </c>
-      <c r="N118" t="n">
-        <v>365.4666666666666</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4879,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>11</v>
-      </c>
-      <c r="J119" t="n">
-        <v>91</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L119" t="n">
-        <v>363.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>365.35</v>
-      </c>
-      <c r="N119" t="n">
-        <v>365.4333333333333</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4914,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>11</v>
-      </c>
-      <c r="J120" t="n">
-        <v>91</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L120" t="n">
-        <v>363.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>365.05</v>
-      </c>
-      <c r="N120" t="n">
-        <v>365.3666666666667</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4949,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>12</v>
-      </c>
-      <c r="J121" t="n">
-        <v>92</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>363.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>364.9</v>
-      </c>
-      <c r="N121" t="n">
-        <v>365.3333333333333</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,1099 +4984,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>13</v>
-      </c>
-      <c r="J122" t="n">
-        <v>93</v>
-      </c>
-      <c r="K122" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L122" t="n">
-        <v>363.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>364.75</v>
-      </c>
-      <c r="N122" t="n">
-        <v>365.3333333333333</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>365</v>
-      </c>
-      <c r="C123" t="n">
-        <v>365</v>
-      </c>
-      <c r="D123" t="n">
-        <v>365</v>
-      </c>
-      <c r="E123" t="n">
-        <v>365</v>
-      </c>
-      <c r="F123" t="n">
-        <v>855.9997</v>
-      </c>
-      <c r="G123" t="n">
-        <v>365.0333333333334</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>13</v>
-      </c>
-      <c r="J123" t="n">
-        <v>93</v>
-      </c>
-      <c r="K123" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L123" t="n">
-        <v>363.5</v>
-      </c>
-      <c r="M123" t="n">
-        <v>364.6</v>
-      </c>
-      <c r="N123" t="n">
-        <v>365.3666666666667</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>365</v>
-      </c>
-      <c r="C124" t="n">
-        <v>365</v>
-      </c>
-      <c r="D124" t="n">
-        <v>365</v>
-      </c>
-      <c r="E124" t="n">
-        <v>365</v>
-      </c>
-      <c r="F124" t="n">
-        <v>733.1019</v>
-      </c>
-      <c r="G124" t="n">
-        <v>365.0833333333333</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>13</v>
-      </c>
-      <c r="J124" t="n">
-        <v>93</v>
-      </c>
-      <c r="K124" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L124" t="n">
-        <v>363.7</v>
-      </c>
-      <c r="M124" t="n">
-        <v>364.45</v>
-      </c>
-      <c r="N124" t="n">
-        <v>365.4333333333333</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>365</v>
-      </c>
-      <c r="C125" t="n">
-        <v>365</v>
-      </c>
-      <c r="D125" t="n">
-        <v>365</v>
-      </c>
-      <c r="E125" t="n">
-        <v>365</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1385.8826</v>
-      </c>
-      <c r="G125" t="n">
-        <v>365.1166666666667</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>13</v>
-      </c>
-      <c r="J125" t="n">
-        <v>93</v>
-      </c>
-      <c r="K125" t="n">
-        <v>60</v>
-      </c>
-      <c r="L125" t="n">
-        <v>363.9</v>
-      </c>
-      <c r="M125" t="n">
-        <v>364.4</v>
-      </c>
-      <c r="N125" t="n">
-        <v>365.4</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>364</v>
-      </c>
-      <c r="C126" t="n">
-        <v>361</v>
-      </c>
-      <c r="D126" t="n">
-        <v>364</v>
-      </c>
-      <c r="E126" t="n">
-        <v>361</v>
-      </c>
-      <c r="F126" t="n">
-        <v>4747.348</v>
-      </c>
-      <c r="G126" t="n">
-        <v>365.0666666666667</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>9</v>
-      </c>
-      <c r="J126" t="n">
-        <v>97</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L126" t="n">
-        <v>363.8</v>
-      </c>
-      <c r="M126" t="n">
-        <v>364.15</v>
-      </c>
-      <c r="N126" t="n">
-        <v>365.2333333333333</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>363</v>
-      </c>
-      <c r="C127" t="n">
-        <v>363</v>
-      </c>
-      <c r="D127" t="n">
-        <v>363</v>
-      </c>
-      <c r="E127" t="n">
-        <v>363</v>
-      </c>
-      <c r="F127" t="n">
-        <v>119</v>
-      </c>
-      <c r="G127" t="n">
-        <v>365.05</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>11</v>
-      </c>
-      <c r="J127" t="n">
-        <v>99</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>363.7</v>
-      </c>
-      <c r="M127" t="n">
-        <v>364</v>
-      </c>
-      <c r="N127" t="n">
-        <v>365.1</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>362</v>
-      </c>
-      <c r="C128" t="n">
-        <v>362</v>
-      </c>
-      <c r="D128" t="n">
-        <v>362</v>
-      </c>
-      <c r="E128" t="n">
-        <v>362</v>
-      </c>
-      <c r="F128" t="n">
-        <v>159.4304</v>
-      </c>
-      <c r="G128" t="n">
-        <v>365.0166666666667</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>10</v>
-      </c>
-      <c r="J128" t="n">
-        <v>100</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L128" t="n">
-        <v>363.6</v>
-      </c>
-      <c r="M128" t="n">
-        <v>363.8</v>
-      </c>
-      <c r="N128" t="n">
-        <v>364.9333333333333</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>360</v>
-      </c>
-      <c r="C129" t="n">
-        <v>360</v>
-      </c>
-      <c r="D129" t="n">
-        <v>360</v>
-      </c>
-      <c r="E129" t="n">
-        <v>360</v>
-      </c>
-      <c r="F129" t="n">
-        <v>128.2634</v>
-      </c>
-      <c r="G129" t="n">
-        <v>364.9333333333333</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>8</v>
-      </c>
-      <c r="J129" t="n">
-        <v>102</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L129" t="n">
-        <v>363.3</v>
-      </c>
-      <c r="M129" t="n">
-        <v>363.5</v>
-      </c>
-      <c r="N129" t="n">
-        <v>364.6666666666667</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>360</v>
-      </c>
-      <c r="C130" t="n">
-        <v>359</v>
-      </c>
-      <c r="D130" t="n">
-        <v>360</v>
-      </c>
-      <c r="E130" t="n">
-        <v>358</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1074.9984</v>
-      </c>
-      <c r="G130" t="n">
-        <v>364.8333333333333</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>7</v>
-      </c>
-      <c r="J130" t="n">
-        <v>103</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L130" t="n">
-        <v>362.9</v>
-      </c>
-      <c r="M130" t="n">
-        <v>363.05</v>
-      </c>
-      <c r="N130" t="n">
-        <v>364.3333333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>359</v>
-      </c>
-      <c r="C131" t="n">
-        <v>359</v>
-      </c>
-      <c r="D131" t="n">
-        <v>359</v>
-      </c>
-      <c r="E131" t="n">
-        <v>359</v>
-      </c>
-      <c r="F131" t="n">
-        <v>180.9877</v>
-      </c>
-      <c r="G131" t="n">
-        <v>364.7166666666666</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>7</v>
-      </c>
-      <c r="J131" t="n">
-        <v>103</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L131" t="n">
-        <v>362.4</v>
-      </c>
-      <c r="M131" t="n">
-        <v>362.8</v>
-      </c>
-      <c r="N131" t="n">
-        <v>364.0666666666667</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>357</v>
-      </c>
-      <c r="C132" t="n">
-        <v>357</v>
-      </c>
-      <c r="D132" t="n">
-        <v>357</v>
-      </c>
-      <c r="E132" t="n">
-        <v>357</v>
-      </c>
-      <c r="F132" t="n">
-        <v>349.2256</v>
-      </c>
-      <c r="G132" t="n">
-        <v>364.5666666666667</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>5</v>
-      </c>
-      <c r="J132" t="n">
-        <v>105</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L132" t="n">
-        <v>361.6</v>
-      </c>
-      <c r="M132" t="n">
-        <v>362.45</v>
-      </c>
-      <c r="N132" t="n">
-        <v>363.7</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>359</v>
-      </c>
-      <c r="C133" t="n">
-        <v>359</v>
-      </c>
-      <c r="D133" t="n">
-        <v>359</v>
-      </c>
-      <c r="E133" t="n">
-        <v>359</v>
-      </c>
-      <c r="F133" t="n">
-        <v>9011.633599999999</v>
-      </c>
-      <c r="G133" t="n">
-        <v>364.4333333333333</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>7</v>
-      </c>
-      <c r="J133" t="n">
-        <v>107</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L133" t="n">
-        <v>361</v>
-      </c>
-      <c r="M133" t="n">
-        <v>362.25</v>
-      </c>
-      <c r="N133" t="n">
-        <v>363.4</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>359</v>
-      </c>
-      <c r="C134" t="n">
-        <v>359</v>
-      </c>
-      <c r="D134" t="n">
-        <v>359</v>
-      </c>
-      <c r="E134" t="n">
-        <v>359</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2893.8462</v>
-      </c>
-      <c r="G134" t="n">
-        <v>364.2833333333334</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>7</v>
-      </c>
-      <c r="J134" t="n">
-        <v>107</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L134" t="n">
-        <v>360.4</v>
-      </c>
-      <c r="M134" t="n">
-        <v>362.05</v>
-      </c>
-      <c r="N134" t="n">
-        <v>363.1</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>356</v>
-      </c>
-      <c r="C135" t="n">
-        <v>355</v>
-      </c>
-      <c r="D135" t="n">
-        <v>356</v>
-      </c>
-      <c r="E135" t="n">
-        <v>355</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2676.1974</v>
-      </c>
-      <c r="G135" t="n">
-        <v>364.0666666666667</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>3</v>
-      </c>
-      <c r="J135" t="n">
-        <v>111</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L135" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="M135" t="n">
-        <v>361.65</v>
-      </c>
-      <c r="N135" t="n">
-        <v>362.7333333333333</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>358</v>
-      </c>
-      <c r="C136" t="n">
-        <v>358</v>
-      </c>
-      <c r="D136" t="n">
-        <v>358</v>
-      </c>
-      <c r="E136" t="n">
-        <v>358</v>
-      </c>
-      <c r="F136" t="n">
-        <v>72.38249999999999</v>
-      </c>
-      <c r="G136" t="n">
-        <v>363.9166666666667</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>6</v>
-      </c>
-      <c r="J136" t="n">
-        <v>114</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L136" t="n">
-        <v>359.1</v>
-      </c>
-      <c r="M136" t="n">
-        <v>361.45</v>
-      </c>
-      <c r="N136" t="n">
-        <v>362.4666666666666</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>359</v>
-      </c>
-      <c r="C137" t="n">
-        <v>360</v>
-      </c>
-      <c r="D137" t="n">
-        <v>360</v>
-      </c>
-      <c r="E137" t="n">
-        <v>359</v>
-      </c>
-      <c r="F137" t="n">
-        <v>57.5473</v>
-      </c>
-      <c r="G137" t="n">
-        <v>363.8</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>8</v>
-      </c>
-      <c r="J137" t="n">
-        <v>116</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L137" t="n">
-        <v>358.8</v>
-      </c>
-      <c r="M137" t="n">
-        <v>361.25</v>
-      </c>
-      <c r="N137" t="n">
-        <v>362.2666666666667</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>361</v>
-      </c>
-      <c r="C138" t="n">
-        <v>362</v>
-      </c>
-      <c r="D138" t="n">
-        <v>362</v>
-      </c>
-      <c r="E138" t="n">
-        <v>361</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1786.443</v>
-      </c>
-      <c r="G138" t="n">
-        <v>363.7333333333333</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>10</v>
-      </c>
-      <c r="J138" t="n">
-        <v>118</v>
-      </c>
-      <c r="K138" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L138" t="n">
-        <v>358.8</v>
-      </c>
-      <c r="M138" t="n">
-        <v>361.2</v>
-      </c>
-      <c r="N138" t="n">
-        <v>362.1333333333333</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>361</v>
-      </c>
-      <c r="C139" t="n">
-        <v>361</v>
-      </c>
-      <c r="D139" t="n">
-        <v>361</v>
-      </c>
-      <c r="E139" t="n">
-        <v>361</v>
-      </c>
-      <c r="F139" t="n">
-        <v>596</v>
-      </c>
-      <c r="G139" t="n">
-        <v>363.6666666666667</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>9</v>
-      </c>
-      <c r="J139" t="n">
-        <v>119</v>
-      </c>
-      <c r="K139" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L139" t="n">
-        <v>358.9</v>
-      </c>
-      <c r="M139" t="n">
-        <v>361.1</v>
-      </c>
-      <c r="N139" t="n">
-        <v>361.9666666666666</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>361</v>
-      </c>
-      <c r="C140" t="n">
-        <v>363</v>
-      </c>
-      <c r="D140" t="n">
-        <v>363</v>
-      </c>
-      <c r="E140" t="n">
-        <v>361</v>
-      </c>
-      <c r="F140" t="n">
-        <v>8597.812099999999</v>
-      </c>
-      <c r="G140" t="n">
-        <v>363.65</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>11</v>
-      </c>
-      <c r="J140" t="n">
-        <v>121</v>
-      </c>
-      <c r="K140" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="L140" t="n">
-        <v>359.3</v>
-      </c>
-      <c r="M140" t="n">
-        <v>361.1</v>
-      </c>
-      <c r="N140" t="n">
-        <v>361.8</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>363</v>
-      </c>
-      <c r="C141" t="n">
-        <v>363</v>
-      </c>
-      <c r="D141" t="n">
-        <v>363</v>
-      </c>
-      <c r="E141" t="n">
-        <v>363</v>
-      </c>
-      <c r="F141" t="n">
-        <v>47.2121</v>
-      </c>
-      <c r="G141" t="n">
-        <v>363.6333333333333</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>11</v>
-      </c>
-      <c r="J141" t="n">
-        <v>121</v>
-      </c>
-      <c r="K141" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="L141" t="n">
-        <v>359.7</v>
-      </c>
-      <c r="M141" t="n">
-        <v>361.05</v>
-      </c>
-      <c r="N141" t="n">
-        <v>361.7666666666667</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>363</v>
-      </c>
-      <c r="C142" t="n">
-        <v>363</v>
-      </c>
-      <c r="D142" t="n">
-        <v>363</v>
-      </c>
-      <c r="E142" t="n">
-        <v>363</v>
-      </c>
-      <c r="F142" t="n">
-        <v>4793.8953</v>
-      </c>
-      <c r="G142" t="n">
-        <v>363.6166666666667</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>11</v>
-      </c>
-      <c r="J142" t="n">
-        <v>121</v>
-      </c>
-      <c r="K142" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L142" t="n">
-        <v>360.3</v>
-      </c>
-      <c r="M142" t="n">
-        <v>360.95</v>
-      </c>
-      <c r="N142" t="n">
-        <v>361.7333333333333</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>365</v>
-      </c>
-      <c r="C143" t="n">
-        <v>365</v>
-      </c>
-      <c r="D143" t="n">
-        <v>365</v>
-      </c>
-      <c r="E143" t="n">
-        <v>365</v>
-      </c>
-      <c r="F143" t="n">
-        <v>305.4894</v>
-      </c>
-      <c r="G143" t="n">
-        <v>363.6333333333333</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>13</v>
-      </c>
-      <c r="J143" t="n">
-        <v>123</v>
-      </c>
-      <c r="K143" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="L143" t="n">
-        <v>360.9</v>
-      </c>
-      <c r="M143" t="n">
-        <v>360.95</v>
-      </c>
-      <c r="N143" t="n">
-        <v>361.8</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-19 BackTest ZRX.xlsx
@@ -451,20 +451,14 @@
         <v>351.3333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>353</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>351.2666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>351</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>351.2666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>353</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>351.2666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>353</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>351.2666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>352</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>351.2666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>352</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>351.3166666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>353</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>351.45</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>355</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>351.5666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>355</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>351.7</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>356</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>351.8</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>354</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -909,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -948,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -980,20 +906,14 @@
         <v>351.95</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>353</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1021,20 +941,14 @@
         <v>351.9833333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>353</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1062,20 +976,14 @@
         <v>352</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>352</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1103,20 +1011,14 @@
         <v>351.9833333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>351</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1144,20 +1046,14 @@
         <v>351.9833333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>353</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1185,20 +1081,14 @@
         <v>352.0166666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>353</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1226,20 +1116,14 @@
         <v>352.0333333333334</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>354</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1267,20 +1151,14 @@
         <v>352.0666666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>354</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1308,20 +1186,14 @@
         <v>352.1166666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>354</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1349,20 +1221,14 @@
         <v>352.1666666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>353</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1396,14 +1262,12 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>355</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="K25" t="n">
+        <v>353</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1439,10 +1303,12 @@
       <c r="J26" t="n">
         <v>355</v>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>353</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1478,12 +1344,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>354</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>355</v>
+      </c>
+      <c r="K27" t="n">
+        <v>353</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1513,18 +1381,18 @@
         <v>352.4833333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="n">
+        <v>354</v>
+      </c>
+      <c r="K28" t="n">
+        <v>354</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1558,10 +1426,12 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>354</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -1597,10 +1467,12 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>354</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -1637,11 +1509,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1676,11 +1544,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1715,11 +1579,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +1614,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1793,11 +1649,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1832,11 +1684,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1871,11 +1719,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1910,11 +1754,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1949,11 +1789,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1988,11 +1824,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2027,11 +1859,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2066,11 +1894,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2105,11 +1929,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2144,11 +1964,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2183,11 +1999,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2222,11 +2034,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2261,11 +2069,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2300,11 +2104,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2339,11 +2139,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2378,11 +2174,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2417,11 +2209,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2456,11 +2244,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2495,11 +2279,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2534,11 +2314,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2573,11 +2349,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2612,11 +2384,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2651,11 +2419,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2690,11 +2454,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2729,11 +2489,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2768,11 +2524,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2807,11 +2559,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2846,11 +2594,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2885,11 +2629,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2924,11 +2664,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2963,11 +2699,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3002,11 +2734,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3041,11 +2769,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3080,11 +2804,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3119,11 +2839,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3158,11 +2874,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3197,11 +2909,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3236,12 +2944,10 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3304,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-19 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C2" t="n">
         <v>352</v>
       </c>
       <c r="D2" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E2" t="n">
         <v>352</v>
       </c>
       <c r="F2" t="n">
-        <v>863.5133</v>
+        <v>66.59220000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>351.3333333333333</v>
+        <v>351.3666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C3" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D3" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E3" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F3" t="n">
-        <v>139.3104</v>
+        <v>863.5133</v>
       </c>
       <c r="G3" t="n">
-        <v>351.2666666666667</v>
+        <v>351.3333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C4" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D4" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E4" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F4" t="n">
-        <v>28.328611898017</v>
+        <v>139.3104</v>
       </c>
       <c r="G4" t="n">
         <v>351.2666666666667</v>
@@ -541,16 +541,16 @@
         <v>353</v>
       </c>
       <c r="C5" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D5" t="n">
         <v>353</v>
       </c>
       <c r="E5" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F5" t="n">
-        <v>92.1449266031419</v>
+        <v>28.328611898017</v>
       </c>
       <c r="G5" t="n">
         <v>351.2666666666667</v>
@@ -573,19 +573,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C6" t="n">
         <v>352</v>
       </c>
       <c r="D6" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E6" t="n">
         <v>352</v>
       </c>
       <c r="F6" t="n">
-        <v>103.9863</v>
+        <v>92.1449266031419</v>
       </c>
       <c r="G6" t="n">
         <v>351.2666666666667</v>
@@ -620,7 +620,7 @@
         <v>352</v>
       </c>
       <c r="F7" t="n">
-        <v>36</v>
+        <v>103.9863</v>
       </c>
       <c r="G7" t="n">
         <v>351.2666666666667</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C8" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D8" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E8" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F8" t="n">
-        <v>716.6706</v>
+        <v>36</v>
       </c>
       <c r="G8" t="n">
-        <v>351.3166666666667</v>
+        <v>351.2666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C9" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D9" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E9" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>716.6706</v>
       </c>
       <c r="G9" t="n">
-        <v>351.45</v>
+        <v>351.3166666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>355</v>
       </c>
       <c r="F10" t="n">
-        <v>1043</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>351.5666666666667</v>
+        <v>351.45</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C11" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D11" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E11" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F11" t="n">
-        <v>59.6</v>
+        <v>1043</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7</v>
+        <v>351.5666666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C12" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D12" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E12" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F12" t="n">
-        <v>63.8212</v>
+        <v>59.6</v>
       </c>
       <c r="G12" t="n">
-        <v>351.8</v>
+        <v>351.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,28 +818,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C13" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D13" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E13" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F13" t="n">
-        <v>839.0749</v>
+        <v>63.8212</v>
       </c>
       <c r="G13" t="n">
-        <v>351.85</v>
+        <v>351.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -865,16 +865,16 @@
         <v>353</v>
       </c>
       <c r="F14" t="n">
-        <v>3.9288</v>
+        <v>839.0749</v>
       </c>
       <c r="G14" t="n">
-        <v>351.9</v>
+        <v>351.85</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -900,10 +900,10 @@
         <v>353</v>
       </c>
       <c r="F15" t="n">
-        <v>418.4847</v>
+        <v>3.9288</v>
       </c>
       <c r="G15" t="n">
-        <v>351.95</v>
+        <v>351.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>353</v>
       </c>
       <c r="C16" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D16" t="n">
         <v>353</v>
       </c>
       <c r="E16" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F16" t="n">
-        <v>565.5746</v>
+        <v>418.4847</v>
       </c>
       <c r="G16" t="n">
-        <v>351.9833333333333</v>
+        <v>351.95</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>353</v>
+      </c>
+      <c r="C17" t="n">
         <v>352</v>
       </c>
-      <c r="C17" t="n">
-        <v>351</v>
-      </c>
       <c r="D17" t="n">
+        <v>353</v>
+      </c>
+      <c r="E17" t="n">
         <v>352</v>
       </c>
-      <c r="E17" t="n">
-        <v>351</v>
-      </c>
       <c r="F17" t="n">
-        <v>274.4457</v>
+        <v>565.5746</v>
       </c>
       <c r="G17" t="n">
-        <v>352</v>
+        <v>351.9833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C18" t="n">
         <v>351</v>
       </c>
       <c r="D18" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E18" t="n">
         <v>351</v>
       </c>
       <c r="F18" t="n">
-        <v>300</v>
+        <v>274.4457</v>
       </c>
       <c r="G18" t="n">
-        <v>351.9833333333333</v>
+        <v>352</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C19" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D19" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E19" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F19" t="n">
-        <v>437.4643</v>
+        <v>300</v>
       </c>
       <c r="G19" t="n">
         <v>351.9833333333333</v>
@@ -1075,10 +1075,10 @@
         <v>353</v>
       </c>
       <c r="F20" t="n">
-        <v>480.8463</v>
+        <v>437.4643</v>
       </c>
       <c r="G20" t="n">
-        <v>352.0166666666667</v>
+        <v>351.9833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C21" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D21" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E21" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F21" t="n">
-        <v>8.3248</v>
+        <v>480.8463</v>
       </c>
       <c r="G21" t="n">
-        <v>352.0333333333334</v>
+        <v>352.0166666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>354</v>
       </c>
       <c r="F22" t="n">
-        <v>8.477399999999999</v>
+        <v>8.3248</v>
       </c>
       <c r="G22" t="n">
-        <v>352.0666666666667</v>
+        <v>352.0333333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>354</v>
       </c>
       <c r="F23" t="n">
-        <v>46.0839</v>
+        <v>8.477399999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>352.1166666666667</v>
+        <v>352.0666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C24" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D24" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E24" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F24" t="n">
-        <v>603.5869</v>
+        <v>46.0839</v>
       </c>
       <c r="G24" t="n">
-        <v>352.1666666666667</v>
+        <v>352.1166666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,35 +1238,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C25" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D25" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E25" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F25" t="n">
-        <v>157.6168</v>
+        <v>603.5869</v>
       </c>
       <c r="G25" t="n">
-        <v>352.25</v>
+        <v>352.1666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>353</v>
-      </c>
-      <c r="K25" t="n">
-        <v>353</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
@@ -1289,28 +1285,20 @@
         <v>355</v>
       </c>
       <c r="F26" t="n">
-        <v>1232.6637</v>
+        <v>157.6168</v>
       </c>
       <c r="G26" t="n">
-        <v>352.3333333333333</v>
+        <v>352.25</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>355</v>
-      </c>
-      <c r="K26" t="n">
-        <v>353</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1320,40 +1308,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C27" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D27" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E27" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F27" t="n">
-        <v>106.8406</v>
+        <v>1232.6637</v>
       </c>
       <c r="G27" t="n">
-        <v>352.4</v>
+        <v>352.3333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>355</v>
-      </c>
-      <c r="K27" t="n">
-        <v>353</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1363,35 +1343,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C28" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D28" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E28" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F28" t="n">
-        <v>602.0685</v>
+        <v>106.8406</v>
       </c>
       <c r="G28" t="n">
-        <v>352.4833333333333</v>
+        <v>352.4</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>354</v>
-      </c>
-      <c r="K28" t="n">
-        <v>354</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
@@ -1414,10 +1390,10 @@
         <v>355</v>
       </c>
       <c r="F29" t="n">
-        <v>390</v>
+        <v>602.0685</v>
       </c>
       <c r="G29" t="n">
-        <v>352.55</v>
+        <v>352.4833333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1426,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>354</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1443,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C30" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D30" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E30" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F30" t="n">
-        <v>57.0046</v>
+        <v>390</v>
       </c>
       <c r="G30" t="n">
-        <v>352.7166666666666</v>
+        <v>352.55</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1467,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>354</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1484,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C31" t="n">
+        <v>357</v>
+      </c>
+      <c r="D31" t="n">
+        <v>357</v>
+      </c>
+      <c r="E31" t="n">
         <v>356</v>
       </c>
-      <c r="D31" t="n">
-        <v>356</v>
-      </c>
-      <c r="E31" t="n">
-        <v>355</v>
-      </c>
       <c r="F31" t="n">
-        <v>68.95959999999999</v>
+        <v>57.0046</v>
       </c>
       <c r="G31" t="n">
-        <v>352.85</v>
+        <v>352.7166666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1519,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C32" t="n">
         <v>356</v>
@@ -1528,13 +1492,13 @@
         <v>356</v>
       </c>
       <c r="E32" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F32" t="n">
-        <v>257</v>
+        <v>68.95959999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>353</v>
+        <v>352.85</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C33" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D33" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E33" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F33" t="n">
-        <v>2414.344</v>
+        <v>257</v>
       </c>
       <c r="G33" t="n">
-        <v>353.1666666666667</v>
+        <v>353</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1601,10 +1565,10 @@
         <v>357</v>
       </c>
       <c r="F34" t="n">
-        <v>1704.1263</v>
+        <v>2414.344</v>
       </c>
       <c r="G34" t="n">
-        <v>353.3333333333333</v>
+        <v>353.1666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1636,10 +1600,10 @@
         <v>357</v>
       </c>
       <c r="F35" t="n">
-        <v>237.0366</v>
+        <v>1704.1263</v>
       </c>
       <c r="G35" t="n">
-        <v>353.5</v>
+        <v>353.3333333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,19 +1626,19 @@
         <v>357</v>
       </c>
       <c r="C36" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D36" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E36" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F36" t="n">
-        <v>5406.864154444444</v>
+        <v>237.0366</v>
       </c>
       <c r="G36" t="n">
-        <v>353.7</v>
+        <v>353.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1694,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C37" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D37" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E37" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F37" t="n">
-        <v>608.7151</v>
+        <v>5406.864154444444</v>
       </c>
       <c r="G37" t="n">
-        <v>353.8333333333333</v>
+        <v>353.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1729,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C38" t="n">
         <v>357</v>
       </c>
       <c r="D38" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E38" t="n">
         <v>357</v>
       </c>
       <c r="F38" t="n">
-        <v>23.2667</v>
+        <v>608.7151</v>
       </c>
       <c r="G38" t="n">
-        <v>353.9166666666667</v>
+        <v>353.8333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1764,28 +1728,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C39" t="n">
         <v>357</v>
       </c>
       <c r="D39" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E39" t="n">
         <v>357</v>
       </c>
       <c r="F39" t="n">
-        <v>6179.5175</v>
+        <v>23.2667</v>
       </c>
       <c r="G39" t="n">
-        <v>353.9833333333333</v>
+        <v>353.9166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1802,19 +1766,19 @@
         <v>358</v>
       </c>
       <c r="C40" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D40" t="n">
         <v>358</v>
       </c>
       <c r="E40" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F40" t="n">
-        <v>422.6136</v>
+        <v>6179.5175</v>
       </c>
       <c r="G40" t="n">
-        <v>354.0666666666667</v>
+        <v>353.9833333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1846,10 +1810,10 @@
         <v>358</v>
       </c>
       <c r="F41" t="n">
-        <v>2989.4929</v>
+        <v>422.6136</v>
       </c>
       <c r="G41" t="n">
-        <v>354.15</v>
+        <v>354.0666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1869,7 +1833,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C42" t="n">
         <v>358</v>
@@ -1878,13 +1842,13 @@
         <v>358</v>
       </c>
       <c r="E42" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F42" t="n">
-        <v>3485</v>
+        <v>2989.4929</v>
       </c>
       <c r="G42" t="n">
-        <v>354.2166666666666</v>
+        <v>354.15</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1907,19 +1871,19 @@
         <v>357</v>
       </c>
       <c r="C43" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D43" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E43" t="n">
         <v>357</v>
       </c>
       <c r="F43" t="n">
-        <v>3204.2866</v>
+        <v>3485</v>
       </c>
       <c r="G43" t="n">
-        <v>354.2333333333333</v>
+        <v>354.2166666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1942,19 +1906,19 @@
         <v>357</v>
       </c>
       <c r="C44" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D44" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E44" t="n">
         <v>357</v>
       </c>
       <c r="F44" t="n">
-        <v>202</v>
+        <v>3204.2866</v>
       </c>
       <c r="G44" t="n">
-        <v>354.2833333333334</v>
+        <v>354.2333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1974,10 +1938,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>357</v>
+      </c>
+      <c r="C45" t="n">
         <v>359</v>
-      </c>
-      <c r="C45" t="n">
-        <v>357</v>
       </c>
       <c r="D45" t="n">
         <v>359</v>
@@ -1986,10 +1950,10 @@
         <v>357</v>
       </c>
       <c r="F45" t="n">
-        <v>6425.7502</v>
+        <v>202</v>
       </c>
       <c r="G45" t="n">
-        <v>354.3166666666667</v>
+        <v>354.2833333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2009,10 +1973,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>359</v>
+      </c>
+      <c r="C46" t="n">
         <v>357</v>
-      </c>
-      <c r="C46" t="n">
-        <v>358</v>
       </c>
       <c r="D46" t="n">
         <v>359</v>
@@ -2021,10 +1985,10 @@
         <v>357</v>
       </c>
       <c r="F46" t="n">
-        <v>2085.4433</v>
+        <v>6425.7502</v>
       </c>
       <c r="G46" t="n">
-        <v>354.3333333333333</v>
+        <v>354.3166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2044,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C47" t="n">
         <v>358</v>
       </c>
       <c r="D47" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E47" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F47" t="n">
-        <v>97.5223</v>
+        <v>2085.4433</v>
       </c>
       <c r="G47" t="n">
-        <v>354.35</v>
+        <v>354.3333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2079,19 +2043,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C48" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D48" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E48" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F48" t="n">
-        <v>7982.185</v>
+        <v>97.5223</v>
       </c>
       <c r="G48" t="n">
         <v>354.35</v>
@@ -2126,10 +2090,10 @@
         <v>355</v>
       </c>
       <c r="F49" t="n">
-        <v>1108.1044</v>
+        <v>7982.185</v>
       </c>
       <c r="G49" t="n">
-        <v>354.3833333333333</v>
+        <v>354.35</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2149,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C50" t="n">
         <v>355</v>
       </c>
       <c r="D50" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E50" t="n">
         <v>355</v>
       </c>
       <c r="F50" t="n">
-        <v>8379.9213</v>
+        <v>1108.1044</v>
       </c>
       <c r="G50" t="n">
-        <v>354.4333333333333</v>
+        <v>354.3833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2196,10 +2160,10 @@
         <v>355</v>
       </c>
       <c r="F51" t="n">
-        <v>25.2879</v>
+        <v>8379.9213</v>
       </c>
       <c r="G51" t="n">
-        <v>354.4833333333333</v>
+        <v>354.4333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2231,10 +2195,10 @@
         <v>355</v>
       </c>
       <c r="F52" t="n">
-        <v>2012.9554</v>
+        <v>25.2879</v>
       </c>
       <c r="G52" t="n">
-        <v>354.5333333333334</v>
+        <v>354.4833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2266,10 +2230,10 @@
         <v>355</v>
       </c>
       <c r="F53" t="n">
-        <v>75.39960000000001</v>
+        <v>2012.9554</v>
       </c>
       <c r="G53" t="n">
-        <v>354.5833333333333</v>
+        <v>354.5333333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2289,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C54" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D54" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E54" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F54" t="n">
-        <v>317.258</v>
+        <v>75.39960000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>354.6833333333333</v>
+        <v>354.5833333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2324,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C55" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D55" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E55" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F55" t="n">
-        <v>263</v>
+        <v>317.258</v>
       </c>
       <c r="G55" t="n">
-        <v>354.7333333333333</v>
+        <v>354.6833333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2359,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C56" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D56" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E56" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F56" t="n">
-        <v>678</v>
+        <v>263</v>
       </c>
       <c r="G56" t="n">
-        <v>354.7666666666667</v>
+        <v>354.7333333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2397,19 +2361,19 @@
         <v>357</v>
       </c>
       <c r="C57" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D57" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E57" t="n">
         <v>357</v>
       </c>
       <c r="F57" t="n">
-        <v>22959.3832</v>
+        <v>678</v>
       </c>
       <c r="G57" t="n">
-        <v>354.8833333333333</v>
+        <v>354.7666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2429,7 +2393,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C58" t="n">
         <v>359</v>
@@ -2438,13 +2402,13 @@
         <v>359</v>
       </c>
       <c r="E58" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F58" t="n">
-        <v>4.5682</v>
+        <v>22959.3832</v>
       </c>
       <c r="G58" t="n">
-        <v>355</v>
+        <v>354.8833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2476,10 +2440,10 @@
         <v>359</v>
       </c>
       <c r="F59" t="n">
-        <v>1408.1431</v>
+        <v>4.5682</v>
       </c>
       <c r="G59" t="n">
-        <v>355.1333333333333</v>
+        <v>355</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2499,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C60" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D60" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E60" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F60" t="n">
-        <v>69.44444444444444</v>
+        <v>1408.1431</v>
       </c>
       <c r="G60" t="n">
-        <v>355.2833333333334</v>
+        <v>355.1333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2546,10 +2510,10 @@
         <v>360</v>
       </c>
       <c r="F61" t="n">
-        <v>1432</v>
+        <v>69.44444444444444</v>
       </c>
       <c r="G61" t="n">
-        <v>355.4166666666667</v>
+        <v>355.2833333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2572,19 +2536,19 @@
         <v>360</v>
       </c>
       <c r="C62" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D62" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E62" t="n">
         <v>360</v>
       </c>
       <c r="F62" t="n">
-        <v>8642.747501111111</v>
+        <v>1432</v>
       </c>
       <c r="G62" t="n">
-        <v>355.5833333333333</v>
+        <v>355.4166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2604,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C63" t="n">
         <v>362</v>
@@ -2613,13 +2577,13 @@
         <v>362</v>
       </c>
       <c r="E63" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F63" t="n">
-        <v>21027.303</v>
+        <v>8642.747501111111</v>
       </c>
       <c r="G63" t="n">
-        <v>355.7666666666667</v>
+        <v>355.5833333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2639,7 +2603,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C64" t="n">
         <v>362</v>
@@ -2648,13 +2612,13 @@
         <v>362</v>
       </c>
       <c r="E64" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F64" t="n">
-        <v>30</v>
+        <v>21027.303</v>
       </c>
       <c r="G64" t="n">
-        <v>355.9166666666667</v>
+        <v>355.7666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2674,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C65" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D65" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E65" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F65" t="n">
-        <v>2125.4146</v>
+        <v>30</v>
       </c>
       <c r="G65" t="n">
-        <v>356.1</v>
+        <v>355.9166666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2709,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C66" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D66" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E66" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F66" t="n">
-        <v>1000</v>
+        <v>2125.4146</v>
       </c>
       <c r="G66" t="n">
-        <v>356.3</v>
+        <v>356.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2744,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C67" t="n">
         <v>364</v>
       </c>
       <c r="D67" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E67" t="n">
         <v>364</v>
       </c>
       <c r="F67" t="n">
-        <v>1403.1725</v>
+        <v>1000</v>
       </c>
       <c r="G67" t="n">
-        <v>356.5</v>
+        <v>356.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2779,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C68" t="n">
         <v>364</v>
       </c>
       <c r="D68" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E68" t="n">
         <v>364</v>
       </c>
       <c r="F68" t="n">
-        <v>145.4989</v>
+        <v>1403.1725</v>
       </c>
       <c r="G68" t="n">
-        <v>356.6833333333333</v>
+        <v>356.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2814,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C69" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D69" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E69" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F69" t="n">
-        <v>935.9999</v>
+        <v>145.4989</v>
       </c>
       <c r="G69" t="n">
-        <v>356.85</v>
+        <v>356.6833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2861,10 +2825,10 @@
         <v>365</v>
       </c>
       <c r="F70" t="n">
-        <v>13410.1472</v>
+        <v>935.9999</v>
       </c>
       <c r="G70" t="n">
-        <v>357.0166666666667</v>
+        <v>356.85</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2887,19 +2851,19 @@
         <v>365</v>
       </c>
       <c r="C71" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D71" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E71" t="n">
         <v>365</v>
       </c>
       <c r="F71" t="n">
-        <v>605.4626</v>
+        <v>13410.1472</v>
       </c>
       <c r="G71" t="n">
-        <v>357.1833333333333</v>
+        <v>357.0166666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2919,7 +2883,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C72" t="n">
         <v>366</v>
@@ -2928,19 +2892,19 @@
         <v>366</v>
       </c>
       <c r="E72" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F72" t="n">
-        <v>5869.2547</v>
+        <v>605.4626</v>
       </c>
       <c r="G72" t="n">
-        <v>357.3833333333333</v>
+        <v>357.1833333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2954,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C73" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D73" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E73" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F73" t="n">
-        <v>143.4934</v>
+        <v>5869.2547</v>
       </c>
       <c r="G73" t="n">
-        <v>357.6166666666667</v>
+        <v>357.3833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2989,28 +2953,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C74" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D74" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E74" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>143.4934</v>
       </c>
       <c r="G74" t="n">
-        <v>357.8666666666667</v>
+        <v>357.6166666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3036,10 +3000,10 @@
         <v>368</v>
       </c>
       <c r="F75" t="n">
-        <v>634.4592</v>
+        <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>358.1166666666667</v>
+        <v>357.8666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3062,19 +3026,19 @@
         <v>368</v>
       </c>
       <c r="C76" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D76" t="n">
         <v>368</v>
       </c>
       <c r="E76" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F76" t="n">
-        <v>846.0377</v>
+        <v>634.4592</v>
       </c>
       <c r="G76" t="n">
-        <v>358.3666666666667</v>
+        <v>358.1166666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3094,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C77" t="n">
         <v>367</v>
       </c>
       <c r="D77" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E77" t="n">
         <v>367</v>
       </c>
       <c r="F77" t="n">
-        <v>483.11</v>
+        <v>846.0377</v>
       </c>
       <c r="G77" t="n">
-        <v>358.6333333333333</v>
+        <v>358.3666666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3129,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C78" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D78" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E78" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F78" t="n">
-        <v>1644.6244</v>
+        <v>483.11</v>
       </c>
       <c r="G78" t="n">
-        <v>358.8833333333333</v>
+        <v>358.6333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3164,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C79" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D79" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E79" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F79" t="n">
-        <v>28056.0698</v>
+        <v>1644.6244</v>
       </c>
       <c r="G79" t="n">
-        <v>359.0833333333333</v>
+        <v>358.8833333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3199,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C80" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D80" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E80" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F80" t="n">
-        <v>8214</v>
+        <v>28056.0698</v>
       </c>
       <c r="G80" t="n">
-        <v>359.2666666666667</v>
+        <v>359.0833333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3246,10 +3210,10 @@
         <v>364</v>
       </c>
       <c r="F81" t="n">
-        <v>10000.0249</v>
+        <v>8214</v>
       </c>
       <c r="G81" t="n">
-        <v>359.4333333333333</v>
+        <v>359.2666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3281,10 +3245,10 @@
         <v>364</v>
       </c>
       <c r="F82" t="n">
-        <v>231.5873</v>
+        <v>10000.0249</v>
       </c>
       <c r="G82" t="n">
-        <v>359.6</v>
+        <v>359.4333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3316,10 +3280,10 @@
         <v>364</v>
       </c>
       <c r="F83" t="n">
-        <v>763.4924999999999</v>
+        <v>231.5873</v>
       </c>
       <c r="G83" t="n">
-        <v>359.7666666666667</v>
+        <v>359.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3339,7 +3303,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C84" t="n">
         <v>364</v>
@@ -3348,13 +3312,13 @@
         <v>364</v>
       </c>
       <c r="E84" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F84" t="n">
-        <v>2904.6862</v>
+        <v>763.4924999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>359.95</v>
+        <v>359.7666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3377,19 +3341,19 @@
         <v>363</v>
       </c>
       <c r="C85" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D85" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E85" t="n">
         <v>363</v>
       </c>
       <c r="F85" t="n">
-        <v>205.4143</v>
+        <v>2904.6862</v>
       </c>
       <c r="G85" t="n">
-        <v>360.0833333333333</v>
+        <v>359.95</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3409,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C86" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D86" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E86" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F86" t="n">
-        <v>16381.7055</v>
+        <v>205.4143</v>
       </c>
       <c r="G86" t="n">
-        <v>360.2</v>
+        <v>360.0833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3456,10 +3420,10 @@
         <v>362</v>
       </c>
       <c r="F87" t="n">
-        <v>6550.9083</v>
+        <v>16381.7055</v>
       </c>
       <c r="G87" t="n">
-        <v>360.3333333333333</v>
+        <v>360.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3479,31 +3443,35 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C88" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D88" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E88" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F88" t="n">
-        <v>139.6497</v>
+        <v>6550.9083</v>
       </c>
       <c r="G88" t="n">
-        <v>360.4833333333333</v>
+        <v>360.3333333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>362</v>
+      </c>
+      <c r="K88" t="n">
+        <v>362</v>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
@@ -3526,20 +3494,28 @@
         <v>364</v>
       </c>
       <c r="F89" t="n">
-        <v>24.0818</v>
+        <v>139.6497</v>
       </c>
       <c r="G89" t="n">
-        <v>360.6333333333333</v>
+        <v>360.4833333333333</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>362</v>
+      </c>
+      <c r="K89" t="n">
+        <v>362</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3552,19 +3528,19 @@
         <v>364</v>
       </c>
       <c r="C90" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D90" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E90" t="n">
         <v>364</v>
       </c>
       <c r="F90" t="n">
-        <v>518.2195</v>
+        <v>24.0818</v>
       </c>
       <c r="G90" t="n">
-        <v>360.7666666666667</v>
+        <v>360.6333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3573,8 +3549,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>362</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3584,7 +3566,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C91" t="n">
         <v>365</v>
@@ -3593,23 +3575,31 @@
         <v>365</v>
       </c>
       <c r="E91" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F91" t="n">
-        <v>13.965</v>
+        <v>518.2195</v>
       </c>
       <c r="G91" t="n">
-        <v>360.9166666666667</v>
+        <v>360.7666666666667</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>364</v>
+      </c>
+      <c r="K91" t="n">
+        <v>362</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3631,10 +3621,10 @@
         <v>365</v>
       </c>
       <c r="F92" t="n">
-        <v>508.3249</v>
+        <v>13.965</v>
       </c>
       <c r="G92" t="n">
-        <v>361.0666666666667</v>
+        <v>360.9166666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3643,8 +3633,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>362</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3654,22 +3650,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C93" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D93" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E93" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F93" t="n">
-        <v>599.5411</v>
+        <v>508.3249</v>
       </c>
       <c r="G93" t="n">
-        <v>361.1833333333333</v>
+        <v>361.0666666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3678,8 +3674,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>362</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3689,22 +3691,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C94" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D94" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E94" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F94" t="n">
-        <v>442.2043</v>
+        <v>599.5411</v>
       </c>
       <c r="G94" t="n">
-        <v>361.2833333333334</v>
+        <v>361.1833333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3713,8 +3715,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>362</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3724,22 +3732,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C95" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D95" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E95" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F95" t="n">
-        <v>26921.8655</v>
+        <v>442.2043</v>
       </c>
       <c r="G95" t="n">
-        <v>361.4333333333333</v>
+        <v>361.2833333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3748,8 +3756,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>362</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3759,7 +3773,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C96" t="n">
         <v>366</v>
@@ -3768,13 +3782,13 @@
         <v>366</v>
       </c>
       <c r="E96" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F96" t="n">
-        <v>2709.9879</v>
+        <v>26921.8655</v>
       </c>
       <c r="G96" t="n">
-        <v>361.5333333333334</v>
+        <v>361.4333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3783,8 +3797,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>362</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3794,22 +3814,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C97" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D97" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E97" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F97" t="n">
-        <v>294.2327</v>
+        <v>2709.9879</v>
       </c>
       <c r="G97" t="n">
-        <v>361.7</v>
+        <v>361.5333333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3818,8 +3838,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>362</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3841,10 +3867,10 @@
         <v>367</v>
       </c>
       <c r="F98" t="n">
-        <v>2108.8154</v>
+        <v>294.2327</v>
       </c>
       <c r="G98" t="n">
-        <v>361.8666666666667</v>
+        <v>361.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3853,8 +3879,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>362</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3864,22 +3896,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C99" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D99" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E99" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F99" t="n">
-        <v>3922.355</v>
+        <v>2108.8154</v>
       </c>
       <c r="G99" t="n">
-        <v>362.05</v>
+        <v>361.8666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3888,8 +3920,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>362</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3899,22 +3937,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C100" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D100" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E100" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F100" t="n">
-        <v>82.5989</v>
+        <v>3922.355</v>
       </c>
       <c r="G100" t="n">
-        <v>362.2333333333333</v>
+        <v>362.05</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3923,8 +3961,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>362</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3934,22 +3978,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C101" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D101" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E101" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F101" t="n">
-        <v>3730.7182</v>
+        <v>82.5989</v>
       </c>
       <c r="G101" t="n">
-        <v>362.3833333333333</v>
+        <v>362.2333333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3958,8 +4002,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>362</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3972,19 +4022,19 @@
         <v>368</v>
       </c>
       <c r="C102" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D102" t="n">
         <v>368</v>
       </c>
       <c r="E102" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F102" t="n">
-        <v>690</v>
+        <v>3730.7182</v>
       </c>
       <c r="G102" t="n">
-        <v>362.55</v>
+        <v>362.3833333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3993,8 +4043,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>362</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4016,10 +4072,10 @@
         <v>368</v>
       </c>
       <c r="F103" t="n">
-        <v>310</v>
+        <v>690</v>
       </c>
       <c r="G103" t="n">
-        <v>362.7333333333333</v>
+        <v>362.55</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4028,8 +4084,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>362</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4051,10 +4113,10 @@
         <v>368</v>
       </c>
       <c r="F104" t="n">
-        <v>4174.1956</v>
+        <v>310</v>
       </c>
       <c r="G104" t="n">
-        <v>362.8833333333333</v>
+        <v>362.7333333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4063,8 +4125,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>362</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4074,22 +4142,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C105" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D105" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E105" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F105" t="n">
-        <v>1926.0328</v>
+        <v>4174.1956</v>
       </c>
       <c r="G105" t="n">
-        <v>363.0333333333334</v>
+        <v>362.8833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4098,8 +4166,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>362</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4109,22 +4183,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C106" t="n">
         <v>366</v>
       </c>
       <c r="D106" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E106" t="n">
         <v>366</v>
       </c>
       <c r="F106" t="n">
-        <v>9011.633599999999</v>
+        <v>1926.0328</v>
       </c>
       <c r="G106" t="n">
-        <v>363.1666666666667</v>
+        <v>363.0333333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4133,8 +4207,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>362</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4156,10 +4236,10 @@
         <v>366</v>
       </c>
       <c r="F107" t="n">
-        <v>1382.4493</v>
+        <v>9011.633599999999</v>
       </c>
       <c r="G107" t="n">
-        <v>363.3</v>
+        <v>363.1666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4168,8 +4248,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>362</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4179,22 +4265,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C108" t="n">
         <v>366</v>
       </c>
       <c r="D108" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E108" t="n">
         <v>366</v>
       </c>
       <c r="F108" t="n">
-        <v>1891.8263</v>
+        <v>1382.4493</v>
       </c>
       <c r="G108" t="n">
-        <v>363.4833333333333</v>
+        <v>363.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4203,8 +4289,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>362</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4214,22 +4306,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C109" t="n">
         <v>366</v>
       </c>
       <c r="D109" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E109" t="n">
         <v>366</v>
       </c>
       <c r="F109" t="n">
-        <v>1328.9426</v>
+        <v>1891.8263</v>
       </c>
       <c r="G109" t="n">
-        <v>363.6666666666667</v>
+        <v>363.4833333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4238,8 +4330,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>362</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4249,22 +4347,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C110" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D110" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E110" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F110" t="n">
-        <v>150</v>
+        <v>1328.9426</v>
       </c>
       <c r="G110" t="n">
-        <v>363.8833333333333</v>
+        <v>363.6666666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4273,8 +4371,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>362</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4284,22 +4388,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C111" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D111" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E111" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F111" t="n">
-        <v>1543.8369</v>
+        <v>150</v>
       </c>
       <c r="G111" t="n">
-        <v>364.0333333333334</v>
+        <v>363.8833333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4308,8 +4412,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>362</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4328,13 +4438,13 @@
         <v>364</v>
       </c>
       <c r="E112" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F112" t="n">
-        <v>1913.2962</v>
+        <v>1543.8369</v>
       </c>
       <c r="G112" t="n">
-        <v>364.1833333333333</v>
+        <v>364.0333333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4343,8 +4453,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>362</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4354,22 +4470,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C113" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D113" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E113" t="n">
         <v>363</v>
       </c>
       <c r="F113" t="n">
-        <v>127.4139</v>
+        <v>1913.2962</v>
       </c>
       <c r="G113" t="n">
-        <v>364.3166666666667</v>
+        <v>364.1833333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4378,8 +4494,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>362</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4398,13 +4520,13 @@
         <v>363</v>
       </c>
       <c r="E114" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F114" t="n">
-        <v>4502.225</v>
+        <v>127.4139</v>
       </c>
       <c r="G114" t="n">
-        <v>364.4</v>
+        <v>364.3166666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4413,8 +4535,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>362</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4433,13 +4561,13 @@
         <v>363</v>
       </c>
       <c r="E115" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F115" t="n">
-        <v>158.5905</v>
+        <v>4502.225</v>
       </c>
       <c r="G115" t="n">
-        <v>364.5166666666667</v>
+        <v>364.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4448,8 +4576,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>362</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4459,22 +4593,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C116" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D116" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E116" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F116" t="n">
-        <v>79.9225</v>
+        <v>158.5905</v>
       </c>
       <c r="G116" t="n">
-        <v>364.6</v>
+        <v>364.5166666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4483,8 +4617,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>362</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4494,32 +4634,40 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C117" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D117" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E117" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F117" t="n">
-        <v>131.3653</v>
+        <v>79.9225</v>
       </c>
       <c r="G117" t="n">
-        <v>364.6833333333333</v>
+        <v>364.6</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>363</v>
+      </c>
+      <c r="K117" t="n">
+        <v>362</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4529,22 +4677,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C118" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D118" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E118" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F118" t="n">
-        <v>552</v>
+        <v>131.3653</v>
       </c>
       <c r="G118" t="n">
-        <v>364.75</v>
+        <v>364.6833333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4553,8 +4701,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>362</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4576,10 +4730,10 @@
         <v>363</v>
       </c>
       <c r="F119" t="n">
-        <v>198.5051</v>
+        <v>552</v>
       </c>
       <c r="G119" t="n">
-        <v>364.8166666666667</v>
+        <v>364.75</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4588,8 +4742,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>362</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4611,10 +4771,10 @@
         <v>363</v>
       </c>
       <c r="F120" t="n">
-        <v>4.6077</v>
+        <v>198.5051</v>
       </c>
       <c r="G120" t="n">
-        <v>364.8666666666667</v>
+        <v>364.8166666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4623,8 +4783,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>362</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4634,22 +4800,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C121" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D121" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E121" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F121" t="n">
-        <v>91.42529999999999</v>
+        <v>4.6077</v>
       </c>
       <c r="G121" t="n">
-        <v>364.9333333333333</v>
+        <v>364.8666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4658,8 +4824,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>362</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4669,33 +4841,80 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>364</v>
+      </c>
+      <c r="C122" t="n">
+        <v>364</v>
+      </c>
+      <c r="D122" t="n">
+        <v>364</v>
+      </c>
+      <c r="E122" t="n">
+        <v>364</v>
+      </c>
+      <c r="F122" t="n">
+        <v>91.42529999999999</v>
+      </c>
+      <c r="G122" t="n">
+        <v>364.9333333333333</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>362</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
         <v>365</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C123" t="n">
         <v>365</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D123" t="n">
         <v>365</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E123" t="n">
         <v>365</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F123" t="n">
         <v>1.063</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G123" t="n">
         <v>364.9833333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>362</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-19 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>66.59220000000001</v>
       </c>
       <c r="G2" t="n">
+        <v>352.7333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>351.3666666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>863.5133</v>
       </c>
       <c r="G3" t="n">
+        <v>352.4</v>
+      </c>
+      <c r="H3" t="n">
         <v>351.3333333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>352</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +535,27 @@
         <v>139.3104</v>
       </c>
       <c r="G4" t="n">
+        <v>352.1333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>351.2666666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>352</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>28.328611898017</v>
       </c>
       <c r="G5" t="n">
+        <v>352.1333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>351.2666666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>351</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,25 @@
         <v>92.1449266031419</v>
       </c>
       <c r="G6" t="n">
+        <v>352.1333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>351.2666666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +665,25 @@
         <v>103.9863</v>
       </c>
       <c r="G7" t="n">
+        <v>352.1333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>351.2666666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +707,25 @@
         <v>36</v>
       </c>
       <c r="G8" t="n">
+        <v>352.1333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>351.2666666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +749,25 @@
         <v>716.6706</v>
       </c>
       <c r="G9" t="n">
+        <v>352.2</v>
+      </c>
+      <c r="H9" t="n">
         <v>351.3166666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +791,25 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
+        <v>352.4</v>
+      </c>
+      <c r="H10" t="n">
         <v>351.45</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +833,25 @@
         <v>1043</v>
       </c>
       <c r="G11" t="n">
+        <v>352.5333333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>351.5666666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +875,25 @@
         <v>59.6</v>
       </c>
       <c r="G12" t="n">
+        <v>352.6</v>
+      </c>
+      <c r="H12" t="n">
         <v>351.7</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +917,25 @@
         <v>63.8212</v>
       </c>
       <c r="G13" t="n">
+        <v>352.7333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>351.8</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +959,25 @@
         <v>839.0749</v>
       </c>
       <c r="G14" t="n">
+        <v>352.8</v>
+      </c>
+      <c r="H14" t="n">
         <v>351.85</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1001,25 @@
         <v>3.9288</v>
       </c>
       <c r="G15" t="n">
+        <v>352.9333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>351.9</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1043,25 @@
         <v>418.4847</v>
       </c>
       <c r="G16" t="n">
+        <v>353.0666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>351.95</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1085,25 @@
         <v>565.5746</v>
       </c>
       <c r="G17" t="n">
+        <v>353.0666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>351.9833333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1127,25 @@
         <v>274.4457</v>
       </c>
       <c r="G18" t="n">
+        <v>353</v>
+      </c>
+      <c r="H18" t="n">
         <v>352</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1169,27 @@
         <v>300</v>
       </c>
       <c r="G19" t="n">
+        <v>353</v>
+      </c>
+      <c r="H19" t="n">
         <v>351.9833333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>351</v>
+      </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1213,27 @@
         <v>437.4643</v>
       </c>
       <c r="G20" t="n">
+        <v>353</v>
+      </c>
+      <c r="H20" t="n">
         <v>351.9833333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>351</v>
+      </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1257,27 @@
         <v>480.8463</v>
       </c>
       <c r="G21" t="n">
+        <v>353.0666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>352.0166666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>353</v>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1301,27 @@
         <v>8.3248</v>
       </c>
       <c r="G22" t="n">
+        <v>353.2</v>
+      </c>
+      <c r="H22" t="n">
         <v>352.0333333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>353</v>
+      </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1345,27 @@
         <v>8.477399999999999</v>
       </c>
       <c r="G23" t="n">
+        <v>353.3333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>352.0666666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>354</v>
+      </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1389,27 @@
         <v>46.0839</v>
       </c>
       <c r="G24" t="n">
+        <v>353.4</v>
+      </c>
+      <c r="H24" t="n">
         <v>352.1166666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>354</v>
+      </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1433,27 @@
         <v>603.5869</v>
       </c>
       <c r="G25" t="n">
+        <v>353.2666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>352.1666666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>354</v>
+      </c>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1477,27 @@
         <v>157.6168</v>
       </c>
       <c r="G26" t="n">
+        <v>353.2666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>352.25</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>353</v>
+      </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1521,25 @@
         <v>1232.6637</v>
       </c>
       <c r="G27" t="n">
+        <v>353.2</v>
+      </c>
+      <c r="H27" t="n">
         <v>352.3333333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1563,25 @@
         <v>106.8406</v>
       </c>
       <c r="G28" t="n">
+        <v>353.2</v>
+      </c>
+      <c r="H28" t="n">
         <v>352.4</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1605,25 @@
         <v>602.0685</v>
       </c>
       <c r="G29" t="n">
+        <v>353.3333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>352.4833333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1647,25 @@
         <v>390</v>
       </c>
       <c r="G30" t="n">
+        <v>353.4666666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>352.55</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1689,25 @@
         <v>57.0046</v>
       </c>
       <c r="G31" t="n">
+        <v>353.7333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>352.7166666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1731,25 @@
         <v>68.95959999999999</v>
       </c>
       <c r="G32" t="n">
+        <v>354</v>
+      </c>
+      <c r="H32" t="n">
         <v>352.85</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1773,25 @@
         <v>257</v>
       </c>
       <c r="G33" t="n">
+        <v>354.3333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>353</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1815,25 @@
         <v>2414.344</v>
       </c>
       <c r="G34" t="n">
+        <v>354.7333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>353.1666666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1857,25 @@
         <v>1704.1263</v>
       </c>
       <c r="G35" t="n">
+        <v>355</v>
+      </c>
+      <c r="H35" t="n">
         <v>353.3333333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1899,25 @@
         <v>237.0366</v>
       </c>
       <c r="G36" t="n">
+        <v>355.2666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>353.5</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1941,25 @@
         <v>5406.864154444444</v>
       </c>
       <c r="G37" t="n">
+        <v>355.6666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>353.7</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1983,25 @@
         <v>608.7151</v>
       </c>
       <c r="G38" t="n">
+        <v>355.8666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>353.8333333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2025,25 @@
         <v>23.2667</v>
       </c>
       <c r="G39" t="n">
+        <v>356.0666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>353.9166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2067,25 @@
         <v>6179.5175</v>
       </c>
       <c r="G40" t="n">
+        <v>356.3333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>353.9833333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2109,25 @@
         <v>422.6136</v>
       </c>
       <c r="G41" t="n">
+        <v>356.5333333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>354.0666666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2151,25 @@
         <v>2989.4929</v>
       </c>
       <c r="G42" t="n">
+        <v>356.7333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>354.15</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2193,25 @@
         <v>3485</v>
       </c>
       <c r="G43" t="n">
+        <v>357</v>
+      </c>
+      <c r="H43" t="n">
         <v>354.2166666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2235,25 @@
         <v>3204.2866</v>
       </c>
       <c r="G44" t="n">
+        <v>357.1333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>354.2333333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2277,25 @@
         <v>202</v>
       </c>
       <c r="G45" t="n">
+        <v>357.4</v>
+      </c>
+      <c r="H45" t="n">
         <v>354.2833333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2319,25 @@
         <v>6425.7502</v>
       </c>
       <c r="G46" t="n">
+        <v>357.4</v>
+      </c>
+      <c r="H46" t="n">
         <v>354.3166666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2361,25 @@
         <v>2085.4433</v>
       </c>
       <c r="G47" t="n">
+        <v>357.5333333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>354.3333333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2403,25 @@
         <v>97.5223</v>
       </c>
       <c r="G48" t="n">
+        <v>357.6666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>354.35</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2445,25 @@
         <v>7982.185</v>
       </c>
       <c r="G49" t="n">
+        <v>357.5333333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>354.35</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2487,25 @@
         <v>1108.1044</v>
       </c>
       <c r="G50" t="n">
+        <v>357.4</v>
+      </c>
+      <c r="H50" t="n">
         <v>354.3833333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2529,25 @@
         <v>8379.9213</v>
       </c>
       <c r="G51" t="n">
+        <v>357.2666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>354.4333333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2571,25 @@
         <v>25.2879</v>
       </c>
       <c r="G52" t="n">
+        <v>356.9333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>354.4833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2613,25 @@
         <v>2012.9554</v>
       </c>
       <c r="G53" t="n">
+        <v>356.8</v>
+      </c>
+      <c r="H53" t="n">
         <v>354.5333333333334</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2655,25 @@
         <v>75.39960000000001</v>
       </c>
       <c r="G54" t="n">
+        <v>356.6666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>354.5833333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2697,25 @@
         <v>317.258</v>
       </c>
       <c r="G55" t="n">
+        <v>356.7333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>354.6833333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2739,25 @@
         <v>263</v>
       </c>
       <c r="G56" t="n">
+        <v>356.6</v>
+      </c>
+      <c r="H56" t="n">
         <v>354.7333333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2781,25 @@
         <v>678</v>
       </c>
       <c r="G57" t="n">
+        <v>356.5333333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>354.7666666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2823,25 @@
         <v>22959.3832</v>
       </c>
       <c r="G58" t="n">
+        <v>356.6</v>
+      </c>
+      <c r="H58" t="n">
         <v>354.8833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2865,25 @@
         <v>4.5682</v>
       </c>
       <c r="G59" t="n">
+        <v>356.7333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>355</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2907,25 @@
         <v>1408.1431</v>
       </c>
       <c r="G60" t="n">
+        <v>356.7333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>355.1333333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2949,25 @@
         <v>69.44444444444444</v>
       </c>
       <c r="G61" t="n">
+        <v>356.9333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>355.2833333333334</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2991,25 @@
         <v>1432</v>
       </c>
       <c r="G62" t="n">
+        <v>357.0666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>355.4166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3033,25 @@
         <v>8642.747501111111</v>
       </c>
       <c r="G63" t="n">
+        <v>357.3333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>355.5833333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3075,25 @@
         <v>21027.303</v>
       </c>
       <c r="G64" t="n">
+        <v>357.8</v>
+      </c>
+      <c r="H64" t="n">
         <v>355.7666666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3117,25 @@
         <v>30</v>
       </c>
       <c r="G65" t="n">
+        <v>358.2666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>355.9166666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3159,25 @@
         <v>2125.4146</v>
       </c>
       <c r="G66" t="n">
+        <v>358.8</v>
+      </c>
+      <c r="H66" t="n">
         <v>356.1</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3201,25 @@
         <v>1000</v>
       </c>
       <c r="G67" t="n">
+        <v>359.4</v>
+      </c>
+      <c r="H67" t="n">
         <v>356.3</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3243,25 @@
         <v>1403.1725</v>
       </c>
       <c r="G68" t="n">
+        <v>360</v>
+      </c>
+      <c r="H68" t="n">
         <v>356.5</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3285,25 @@
         <v>145.4989</v>
       </c>
       <c r="G69" t="n">
+        <v>360.6</v>
+      </c>
+      <c r="H69" t="n">
         <v>356.6833333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3327,25 @@
         <v>935.9999</v>
       </c>
       <c r="G70" t="n">
+        <v>361.0666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>356.85</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3369,25 @@
         <v>13410.1472</v>
       </c>
       <c r="G71" t="n">
+        <v>361.6666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>357.0166666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3411,25 @@
         <v>605.4626</v>
       </c>
       <c r="G72" t="n">
+        <v>362.2666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>357.1833333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3453,25 @@
         <v>5869.2547</v>
       </c>
       <c r="G73" t="n">
+        <v>362.7333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>357.3833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3495,25 @@
         <v>143.4934</v>
       </c>
       <c r="G74" t="n">
+        <v>363.2666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>357.6166666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3537,25 @@
         <v>100</v>
       </c>
       <c r="G75" t="n">
+        <v>363.8666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>357.8666666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3579,25 @@
         <v>634.4592</v>
       </c>
       <c r="G76" t="n">
+        <v>364.4</v>
+      </c>
+      <c r="H76" t="n">
         <v>358.1166666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3621,25 @@
         <v>846.0377</v>
       </c>
       <c r="G77" t="n">
+        <v>364.8666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>358.3666666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,20 +3663,25 @@
         <v>483.11</v>
       </c>
       <c r="G78" t="n">
+        <v>365.2</v>
+      </c>
+      <c r="H78" t="n">
         <v>358.6333333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3143,18 +3703,21 @@
         <v>1644.6244</v>
       </c>
       <c r="G79" t="n">
+        <v>365.4666666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>358.8833333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3741,21 @@
         <v>28056.0698</v>
       </c>
       <c r="G80" t="n">
+        <v>365.6666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>359.0833333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3779,21 @@
         <v>8214</v>
       </c>
       <c r="G81" t="n">
+        <v>365.7333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>359.2666666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3817,21 @@
         <v>10000.0249</v>
       </c>
       <c r="G82" t="n">
+        <v>365.7333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>359.4333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3855,21 @@
         <v>231.5873</v>
       </c>
       <c r="G83" t="n">
+        <v>365.7333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>359.6</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3893,21 @@
         <v>763.4924999999999</v>
       </c>
       <c r="G84" t="n">
+        <v>365.7333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>359.7666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3931,21 @@
         <v>2904.6862</v>
       </c>
       <c r="G85" t="n">
+        <v>365.6666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>359.95</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3969,21 @@
         <v>205.4143</v>
       </c>
       <c r="G86" t="n">
+        <v>365.5333333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>360.0833333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4007,21 @@
         <v>16381.7055</v>
       </c>
       <c r="G87" t="n">
+        <v>365.2666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>360.2</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,22 +4045,21 @@
         <v>6550.9083</v>
       </c>
       <c r="G88" t="n">
+        <v>365</v>
+      </c>
+      <c r="H88" t="n">
         <v>360.3333333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>362</v>
-      </c>
-      <c r="K88" t="n">
-        <v>362</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3497,26 +4083,21 @@
         <v>139.6497</v>
       </c>
       <c r="G89" t="n">
+        <v>364.8</v>
+      </c>
+      <c r="H89" t="n">
         <v>360.4833333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>362</v>
-      </c>
-      <c r="K89" t="n">
-        <v>362</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3540,24 +4121,21 @@
         <v>24.0818</v>
       </c>
       <c r="G90" t="n">
+        <v>364.5333333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>360.6333333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>362</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,26 +4159,21 @@
         <v>518.2195</v>
       </c>
       <c r="G91" t="n">
+        <v>364.3333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>360.7666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>364</v>
-      </c>
-      <c r="K91" t="n">
-        <v>362</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3624,24 +4197,21 @@
         <v>13.965</v>
       </c>
       <c r="G92" t="n">
+        <v>364.2</v>
+      </c>
+      <c r="H92" t="n">
         <v>360.9166666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>362</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3665,24 +4235,21 @@
         <v>508.3249</v>
       </c>
       <c r="G93" t="n">
+        <v>364.0666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>361.0666666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>362</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,24 +4273,21 @@
         <v>599.5411</v>
       </c>
       <c r="G94" t="n">
+        <v>363.9333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>361.1833333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>362</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3747,24 +4311,21 @@
         <v>442.2043</v>
       </c>
       <c r="G95" t="n">
+        <v>363.8</v>
+      </c>
+      <c r="H95" t="n">
         <v>361.2833333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>362</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3788,24 +4349,21 @@
         <v>26921.8655</v>
       </c>
       <c r="G96" t="n">
+        <v>363.9333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>361.4333333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>362</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3829,24 +4387,21 @@
         <v>2709.9879</v>
       </c>
       <c r="G97" t="n">
+        <v>364.0666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>361.5333333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>362</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3870,24 +4425,21 @@
         <v>294.2327</v>
       </c>
       <c r="G98" t="n">
+        <v>364.2666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>361.7</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>362</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3911,24 +4463,21 @@
         <v>2108.8154</v>
       </c>
       <c r="G99" t="n">
+        <v>364.4666666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>361.8666666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>362</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3952,24 +4501,21 @@
         <v>3922.355</v>
       </c>
       <c r="G100" t="n">
+        <v>364.7333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>362.05</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>362</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3993,24 +4539,21 @@
         <v>82.5989</v>
       </c>
       <c r="G101" t="n">
+        <v>365.1333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>362.2333333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>362</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,24 +4577,21 @@
         <v>3730.7182</v>
       </c>
       <c r="G102" t="n">
+        <v>365.4666666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>362.3833333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>362</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4075,24 +4615,21 @@
         <v>690</v>
       </c>
       <c r="G103" t="n">
+        <v>365.8666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>362.55</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>362</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4116,24 +4653,21 @@
         <v>310</v>
       </c>
       <c r="G104" t="n">
+        <v>366.1333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>362.7333333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>362</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4157,24 +4691,21 @@
         <v>4174.1956</v>
       </c>
       <c r="G105" t="n">
+        <v>366.4</v>
+      </c>
+      <c r="H105" t="n">
         <v>362.8833333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>362</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4198,24 +4729,21 @@
         <v>1926.0328</v>
       </c>
       <c r="G106" t="n">
+        <v>366.4666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>363.0333333333334</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>362</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4239,24 +4767,21 @@
         <v>9011.633599999999</v>
       </c>
       <c r="G107" t="n">
+        <v>366.5333333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>363.1666666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>362</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,24 +4805,21 @@
         <v>1382.4493</v>
       </c>
       <c r="G108" t="n">
+        <v>366.6</v>
+      </c>
+      <c r="H108" t="n">
         <v>363.3</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>362</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,24 +4843,21 @@
         <v>1891.8263</v>
       </c>
       <c r="G109" t="n">
+        <v>366.7333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>363.4833333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>362</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4362,24 +4881,21 @@
         <v>1328.9426</v>
       </c>
       <c r="G110" t="n">
+        <v>366.9333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>363.6666666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>362</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,24 +4919,21 @@
         <v>150</v>
       </c>
       <c r="G111" t="n">
+        <v>367.0666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>363.8833333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>362</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4444,24 +4957,21 @@
         <v>1543.8369</v>
       </c>
       <c r="G112" t="n">
+        <v>366.9333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>364.0333333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>362</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4485,24 +4995,21 @@
         <v>1913.2962</v>
       </c>
       <c r="G113" t="n">
+        <v>366.7333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>364.1833333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>362</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,24 +5033,21 @@
         <v>127.4139</v>
       </c>
       <c r="G114" t="n">
+        <v>366.4666666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>364.3166666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>362</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4567,24 +5071,21 @@
         <v>4502.225</v>
       </c>
       <c r="G115" t="n">
+        <v>366.1333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>364.4</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>362</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4608,24 +5109,21 @@
         <v>158.5905</v>
       </c>
       <c r="G116" t="n">
+        <v>365.7333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>364.5166666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>362</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4649,26 +5147,21 @@
         <v>79.9225</v>
       </c>
       <c r="G117" t="n">
+        <v>365.4</v>
+      </c>
+      <c r="H117" t="n">
         <v>364.6</v>
       </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>363</v>
-      </c>
-      <c r="K117" t="n">
-        <v>362</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4692,24 +5185,21 @@
         <v>131.3653</v>
       </c>
       <c r="G118" t="n">
+        <v>365.1333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>364.6833333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>362</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4733,24 +5223,21 @@
         <v>552</v>
       </c>
       <c r="G119" t="n">
+        <v>364.8</v>
+      </c>
+      <c r="H119" t="n">
         <v>364.75</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>362</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4774,24 +5261,21 @@
         <v>198.5051</v>
       </c>
       <c r="G120" t="n">
+        <v>364.4666666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>364.8166666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>362</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4815,24 +5299,21 @@
         <v>4.6077</v>
       </c>
       <c r="G121" t="n">
+        <v>364.2666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>364.8666666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>362</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4856,24 +5337,21 @@
         <v>91.42529999999999</v>
       </c>
       <c r="G122" t="n">
+        <v>364.1333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>364.9333333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>362</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4897,24 +5375,401 @@
         <v>1.063</v>
       </c>
       <c r="G123" t="n">
+        <v>364.0666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>364.9833333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>365</v>
+      </c>
+      <c r="C124" t="n">
+        <v>365</v>
+      </c>
+      <c r="D124" t="n">
+        <v>365</v>
+      </c>
+      <c r="E124" t="n">
+        <v>365</v>
+      </c>
+      <c r="F124" t="n">
+        <v>855.9997</v>
+      </c>
+      <c r="G124" t="n">
+        <v>364</v>
+      </c>
+      <c r="H124" t="n">
+        <v>365.0333333333334</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>365</v>
+      </c>
+      <c r="C125" t="n">
+        <v>365</v>
+      </c>
+      <c r="D125" t="n">
+        <v>365</v>
+      </c>
+      <c r="E125" t="n">
+        <v>365</v>
+      </c>
+      <c r="F125" t="n">
+        <v>733.1019</v>
+      </c>
+      <c r="G125" t="n">
+        <v>363.9333333333333</v>
+      </c>
+      <c r="H125" t="n">
+        <v>365.0833333333333</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>365</v>
+      </c>
+      <c r="C126" t="n">
+        <v>365</v>
+      </c>
+      <c r="D126" t="n">
+        <v>365</v>
+      </c>
+      <c r="E126" t="n">
+        <v>365</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1385.8826</v>
+      </c>
+      <c r="G126" t="n">
+        <v>363.7333333333333</v>
+      </c>
+      <c r="H126" t="n">
+        <v>365.1166666666667</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>364</v>
+      </c>
+      <c r="C127" t="n">
+        <v>361</v>
+      </c>
+      <c r="D127" t="n">
+        <v>364</v>
+      </c>
+      <c r="E127" t="n">
+        <v>361</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4747.348</v>
+      </c>
+      <c r="G127" t="n">
+        <v>363.5333333333334</v>
+      </c>
+      <c r="H127" t="n">
+        <v>365.0666666666667</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>363</v>
+      </c>
+      <c r="C128" t="n">
+        <v>363</v>
+      </c>
+      <c r="D128" t="n">
+        <v>363</v>
+      </c>
+      <c r="E128" t="n">
+        <v>363</v>
+      </c>
+      <c r="F128" t="n">
+        <v>119</v>
+      </c>
+      <c r="G128" t="n">
+        <v>363.4666666666666</v>
+      </c>
+      <c r="H128" t="n">
+        <v>365.05</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
         <v>362</v>
       </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="C129" t="n">
+        <v>362</v>
+      </c>
+      <c r="D129" t="n">
+        <v>362</v>
+      </c>
+      <c r="E129" t="n">
+        <v>362</v>
+      </c>
+      <c r="F129" t="n">
+        <v>159.4304</v>
+      </c>
+      <c r="G129" t="n">
+        <v>363.4</v>
+      </c>
+      <c r="H129" t="n">
+        <v>365.0166666666667</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>360</v>
+      </c>
+      <c r="C130" t="n">
+        <v>360</v>
+      </c>
+      <c r="D130" t="n">
+        <v>360</v>
+      </c>
+      <c r="E130" t="n">
+        <v>360</v>
+      </c>
+      <c r="F130" t="n">
+        <v>128.2634</v>
+      </c>
+      <c r="G130" t="n">
+        <v>363.2</v>
+      </c>
+      <c r="H130" t="n">
+        <v>364.9333333333333</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>360</v>
+      </c>
+      <c r="C131" t="n">
+        <v>359</v>
+      </c>
+      <c r="D131" t="n">
+        <v>360</v>
+      </c>
+      <c r="E131" t="n">
+        <v>358</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1074.9984</v>
+      </c>
+      <c r="G131" t="n">
+        <v>362.9333333333333</v>
+      </c>
+      <c r="H131" t="n">
+        <v>364.8333333333333</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>359</v>
+      </c>
+      <c r="C132" t="n">
+        <v>359</v>
+      </c>
+      <c r="D132" t="n">
+        <v>359</v>
+      </c>
+      <c r="E132" t="n">
+        <v>359</v>
+      </c>
+      <c r="F132" t="n">
+        <v>180.9877</v>
+      </c>
+      <c r="G132" t="n">
+        <v>362.7333333333333</v>
+      </c>
+      <c r="H132" t="n">
+        <v>364.7166666666666</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>357</v>
+      </c>
+      <c r="C133" t="n">
+        <v>357</v>
+      </c>
+      <c r="D133" t="n">
+        <v>357</v>
+      </c>
+      <c r="E133" t="n">
+        <v>357</v>
+      </c>
+      <c r="F133" t="n">
+        <v>349.2256</v>
+      </c>
+      <c r="G133" t="n">
+        <v>362.2666666666667</v>
+      </c>
+      <c r="H133" t="n">
+        <v>364.5666666666667</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-19 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C2" t="n">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D2" t="n">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E2" t="n">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F2" t="n">
-        <v>66.59220000000001</v>
+        <v>1339.1363</v>
       </c>
       <c r="G2" t="n">
-        <v>352.7333333333333</v>
+        <v>-51697.40577485867</v>
       </c>
       <c r="H2" t="n">
-        <v>351.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,42 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C3" t="n">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D3" t="n">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E3" t="n">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F3" t="n">
-        <v>863.5133</v>
+        <v>3164.9498</v>
       </c>
       <c r="G3" t="n">
-        <v>352.4</v>
+        <v>-51697.40577485867</v>
       </c>
       <c r="H3" t="n">
-        <v>351.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>352</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,42 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C4" t="n">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D4" t="n">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E4" t="n">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F4" t="n">
-        <v>139.3104</v>
+        <v>673.2468</v>
       </c>
       <c r="G4" t="n">
-        <v>352.1333333333333</v>
+        <v>-51697.40577485867</v>
       </c>
       <c r="H4" t="n">
-        <v>351.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>352</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,42 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C5" t="n">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D5" t="n">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E5" t="n">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F5" t="n">
-        <v>28.328611898017</v>
+        <v>4976.5469</v>
       </c>
       <c r="G5" t="n">
-        <v>352.1333333333333</v>
+        <v>-51697.40577485867</v>
       </c>
       <c r="H5" t="n">
-        <v>351.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>351</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,40 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C6" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D6" t="n">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E6" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F6" t="n">
-        <v>92.1449266031419</v>
+        <v>597</v>
       </c>
       <c r="G6" t="n">
-        <v>352.1333333333333</v>
+        <v>-51100.40577485867</v>
       </c>
       <c r="H6" t="n">
-        <v>351.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -650,40 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C7" t="n">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D7" t="n">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E7" t="n">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F7" t="n">
-        <v>103.9863</v>
+        <v>341</v>
       </c>
       <c r="G7" t="n">
-        <v>352.1333333333333</v>
+        <v>-50759.40577485867</v>
       </c>
       <c r="H7" t="n">
-        <v>351.2666666666667</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>348</v>
+      </c>
+      <c r="K7" t="n">
+        <v>348</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C8" t="n">
         <v>352</v>
@@ -701,31 +656,32 @@
         <v>352</v>
       </c>
       <c r="E8" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F8" t="n">
-        <v>36</v>
+        <v>316.8903</v>
       </c>
       <c r="G8" t="n">
-        <v>352.1333333333333</v>
+        <v>-50442.51547485867</v>
       </c>
       <c r="H8" t="n">
-        <v>351.2666666666667</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+        <v>349</v>
+      </c>
+      <c r="K8" t="n">
+        <v>348</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -746,28 +702,29 @@
         <v>353</v>
       </c>
       <c r="F9" t="n">
-        <v>716.6706</v>
+        <v>1479.1572</v>
       </c>
       <c r="G9" t="n">
-        <v>352.2</v>
+        <v>-48963.35827485867</v>
       </c>
       <c r="H9" t="n">
-        <v>351.3166666666667</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+        <v>352</v>
+      </c>
+      <c r="K9" t="n">
+        <v>348</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -776,40 +733,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C10" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D10" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E10" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>1302.1678</v>
       </c>
       <c r="G10" t="n">
-        <v>352.4</v>
+        <v>-48963.35827485867</v>
       </c>
       <c r="H10" t="n">
-        <v>351.45</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,40 +768,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C11" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D11" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E11" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F11" t="n">
-        <v>1043</v>
+        <v>2495.2091</v>
       </c>
       <c r="G11" t="n">
-        <v>352.5333333333334</v>
+        <v>-48963.35827485867</v>
       </c>
       <c r="H11" t="n">
-        <v>351.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -860,40 +803,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C12" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D12" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E12" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F12" t="n">
-        <v>59.6</v>
+        <v>258.4006</v>
       </c>
       <c r="G12" t="n">
-        <v>352.6</v>
+        <v>-48704.95767485867</v>
       </c>
       <c r="H12" t="n">
-        <v>351.7</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -902,40 +838,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C13" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D13" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E13" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F13" t="n">
-        <v>63.8212</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>352.7333333333333</v>
+        <v>-48703.95767485867</v>
       </c>
       <c r="H13" t="n">
-        <v>351.8</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -944,40 +873,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C14" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D14" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E14" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F14" t="n">
-        <v>839.0749</v>
+        <v>1404.4943</v>
       </c>
       <c r="G14" t="n">
-        <v>352.8</v>
+        <v>-48703.95767485867</v>
       </c>
       <c r="H14" t="n">
-        <v>351.85</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -986,40 +908,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C15" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D15" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E15" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F15" t="n">
-        <v>3.9288</v>
+        <v>180.3563</v>
       </c>
       <c r="G15" t="n">
-        <v>352.9333333333333</v>
+        <v>-48884.31397485867</v>
       </c>
       <c r="H15" t="n">
-        <v>351.9</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1028,40 +943,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C16" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D16" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E16" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F16" t="n">
-        <v>418.4847</v>
+        <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>353.0666666666667</v>
+        <v>-48873.31397485867</v>
       </c>
       <c r="H16" t="n">
-        <v>351.95</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1070,40 +978,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C17" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D17" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E17" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F17" t="n">
-        <v>565.5746</v>
+        <v>321.258</v>
       </c>
       <c r="G17" t="n">
-        <v>353.0666666666667</v>
+        <v>-48873.31397485867</v>
       </c>
       <c r="H17" t="n">
-        <v>351.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1112,40 +1013,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C18" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D18" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E18" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F18" t="n">
-        <v>274.4457</v>
+        <v>160</v>
       </c>
       <c r="G18" t="n">
-        <v>353</v>
+        <v>-49033.31397485867</v>
       </c>
       <c r="H18" t="n">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1154,42 +1048,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C19" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D19" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E19" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F19" t="n">
-        <v>300</v>
+        <v>1058.549392957746</v>
       </c>
       <c r="G19" t="n">
-        <v>353</v>
+        <v>-50091.86336781642</v>
       </c>
       <c r="H19" t="n">
-        <v>351.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>351</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1201,39 +1086,30 @@
         <v>353</v>
       </c>
       <c r="C20" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D20" t="n">
         <v>353</v>
       </c>
       <c r="E20" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F20" t="n">
-        <v>437.4643</v>
+        <v>269.1998</v>
       </c>
       <c r="G20" t="n">
-        <v>353</v>
+        <v>-50361.06316781642</v>
       </c>
       <c r="H20" t="n">
-        <v>351.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>351</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1242,42 +1118,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C21" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D21" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E21" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F21" t="n">
-        <v>480.8463</v>
+        <v>112</v>
       </c>
       <c r="G21" t="n">
-        <v>353.0666666666667</v>
+        <v>-50361.06316781642</v>
       </c>
       <c r="H21" t="n">
-        <v>352.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>353</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1286,42 +1153,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C22" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D22" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E22" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F22" t="n">
-        <v>8.3248</v>
+        <v>1736.0061</v>
       </c>
       <c r="G22" t="n">
-        <v>353.2</v>
+        <v>-50361.06316781642</v>
       </c>
       <c r="H22" t="n">
-        <v>352.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>353</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1330,42 +1188,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C23" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D23" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E23" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F23" t="n">
-        <v>8.477399999999999</v>
+        <v>1847.7699</v>
       </c>
       <c r="G23" t="n">
-        <v>353.3333333333333</v>
+        <v>-50361.06316781642</v>
       </c>
       <c r="H23" t="n">
-        <v>352.0666666666667</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="K23" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,42 +1227,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C24" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D24" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E24" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F24" t="n">
-        <v>46.0839</v>
+        <v>24.1096</v>
       </c>
       <c r="G24" t="n">
-        <v>353.4</v>
+        <v>-50361.06316781642</v>
       </c>
       <c r="H24" t="n">
-        <v>352.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>354</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+        <v>352</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1418,7 +1268,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C25" t="n">
         <v>353</v>
@@ -1427,33 +1277,30 @@
         <v>353</v>
       </c>
       <c r="E25" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F25" t="n">
-        <v>603.5869</v>
+        <v>146.2913</v>
       </c>
       <c r="G25" t="n">
-        <v>353.2666666666667</v>
+        <v>-50214.77186781642</v>
       </c>
       <c r="H25" t="n">
-        <v>352.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>354</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>352</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1474,30 +1321,27 @@
         <v>355</v>
       </c>
       <c r="F26" t="n">
-        <v>157.6168</v>
+        <v>5.633802816901408</v>
       </c>
       <c r="G26" t="n">
-        <v>353.2666666666667</v>
+        <v>-50209.13806499952</v>
       </c>
       <c r="H26" t="n">
-        <v>352.25</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>353</v>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+        <v>352</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1506,40 +1350,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C27" t="n">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D27" t="n">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E27" t="n">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F27" t="n">
-        <v>1232.6637</v>
+        <v>235.04</v>
       </c>
       <c r="G27" t="n">
-        <v>353.2</v>
+        <v>-50444.17806499952</v>
       </c>
       <c r="H27" t="n">
-        <v>352.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>352</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1548,40 +1391,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C28" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D28" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E28" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F28" t="n">
-        <v>106.8406</v>
+        <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>353.2</v>
+        <v>-50444.17806499952</v>
       </c>
       <c r="H28" t="n">
-        <v>352.4</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>352</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1590,40 +1432,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C29" t="n">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D29" t="n">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E29" t="n">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F29" t="n">
-        <v>602.0685</v>
+        <v>9.4338</v>
       </c>
       <c r="G29" t="n">
-        <v>353.3333333333333</v>
+        <v>-50453.61186499952</v>
       </c>
       <c r="H29" t="n">
-        <v>352.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>352</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1632,40 +1473,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C30" t="n">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D30" t="n">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E30" t="n">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F30" t="n">
-        <v>390</v>
+        <v>1222.6184</v>
       </c>
       <c r="G30" t="n">
-        <v>353.4666666666666</v>
+        <v>-50453.61186499952</v>
       </c>
       <c r="H30" t="n">
-        <v>352.55</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>352</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1674,40 +1514,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C31" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D31" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E31" t="n">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F31" t="n">
-        <v>57.0046</v>
+        <v>66.59220000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>353.7333333333333</v>
+        <v>-50387.01966499952</v>
       </c>
       <c r="H31" t="n">
-        <v>352.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>352</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1716,40 +1555,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C32" t="n">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D32" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E32" t="n">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F32" t="n">
-        <v>68.95959999999999</v>
+        <v>863.5133</v>
       </c>
       <c r="G32" t="n">
-        <v>354</v>
+        <v>-50387.01966499952</v>
       </c>
       <c r="H32" t="n">
-        <v>352.85</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>352</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1758,40 +1596,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C33" t="n">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D33" t="n">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E33" t="n">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F33" t="n">
-        <v>257</v>
+        <v>139.3104</v>
       </c>
       <c r="G33" t="n">
-        <v>354.3333333333333</v>
+        <v>-50526.33006499952</v>
       </c>
       <c r="H33" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>352</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1800,40 +1637,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C34" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D34" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E34" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F34" t="n">
-        <v>2414.344</v>
+        <v>28.328611898017</v>
       </c>
       <c r="G34" t="n">
-        <v>354.7333333333333</v>
+        <v>-50498.0014531015</v>
       </c>
       <c r="H34" t="n">
-        <v>353.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>352</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1842,40 +1678,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C35" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D35" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E35" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F35" t="n">
-        <v>1704.1263</v>
+        <v>92.1449266031419</v>
       </c>
       <c r="G35" t="n">
-        <v>355</v>
+        <v>-50590.14637970465</v>
       </c>
       <c r="H35" t="n">
-        <v>353.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>352</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1884,40 +1719,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C36" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D36" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E36" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F36" t="n">
-        <v>237.0366</v>
+        <v>103.9863</v>
       </c>
       <c r="G36" t="n">
-        <v>355.2666666666667</v>
+        <v>-50590.14637970465</v>
       </c>
       <c r="H36" t="n">
-        <v>353.5</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>352</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1926,40 +1760,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C37" t="n">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D37" t="n">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E37" t="n">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F37" t="n">
-        <v>5406.864154444444</v>
+        <v>36</v>
       </c>
       <c r="G37" t="n">
-        <v>355.6666666666667</v>
+        <v>-50590.14637970465</v>
       </c>
       <c r="H37" t="n">
-        <v>353.7</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>352</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1968,40 +1801,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C38" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D38" t="n">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E38" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F38" t="n">
-        <v>608.7151</v>
+        <v>716.6706</v>
       </c>
       <c r="G38" t="n">
-        <v>355.8666666666667</v>
+        <v>-49873.47577970465</v>
       </c>
       <c r="H38" t="n">
-        <v>353.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>352</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2010,40 +1842,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C39" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D39" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E39" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F39" t="n">
-        <v>23.2667</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>356.0666666666667</v>
+        <v>-49872.47577970465</v>
       </c>
       <c r="H39" t="n">
-        <v>353.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>352</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2052,40 +1883,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C40" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D40" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E40" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F40" t="n">
-        <v>6179.5175</v>
+        <v>1043</v>
       </c>
       <c r="G40" t="n">
-        <v>356.3333333333333</v>
+        <v>-49872.47577970465</v>
       </c>
       <c r="H40" t="n">
-        <v>353.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>352</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2094,40 +1924,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C41" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D41" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E41" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F41" t="n">
-        <v>422.6136</v>
+        <v>59.6</v>
       </c>
       <c r="G41" t="n">
-        <v>356.5333333333334</v>
+        <v>-49812.87577970465</v>
       </c>
       <c r="H41" t="n">
-        <v>354.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>352</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2136,40 +1965,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C42" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D42" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E42" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F42" t="n">
-        <v>2989.4929</v>
+        <v>63.8212</v>
       </c>
       <c r="G42" t="n">
-        <v>356.7333333333333</v>
+        <v>-49876.69697970465</v>
       </c>
       <c r="H42" t="n">
-        <v>354.15</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>352</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2178,40 +2006,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C43" t="n">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D43" t="n">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E43" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F43" t="n">
-        <v>3485</v>
+        <v>839.0749</v>
       </c>
       <c r="G43" t="n">
-        <v>357</v>
+        <v>-50715.77187970465</v>
       </c>
       <c r="H43" t="n">
-        <v>354.2166666666666</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>352</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2220,40 +2047,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C44" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D44" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E44" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F44" t="n">
-        <v>3204.2866</v>
+        <v>3.9288</v>
       </c>
       <c r="G44" t="n">
-        <v>357.1333333333333</v>
+        <v>-50715.77187970465</v>
       </c>
       <c r="H44" t="n">
-        <v>354.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>352</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,40 +2088,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C45" t="n">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D45" t="n">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E45" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F45" t="n">
-        <v>202</v>
+        <v>418.4847</v>
       </c>
       <c r="G45" t="n">
-        <v>357.4</v>
+        <v>-50715.77187970465</v>
       </c>
       <c r="H45" t="n">
-        <v>354.2833333333334</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>352</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2304,40 +2129,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C46" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D46" t="n">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E46" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F46" t="n">
-        <v>6425.7502</v>
+        <v>565.5746</v>
       </c>
       <c r="G46" t="n">
-        <v>357.4</v>
+        <v>-51281.34647970465</v>
       </c>
       <c r="H46" t="n">
-        <v>354.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>352</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2346,40 +2170,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C47" t="n">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D47" t="n">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E47" t="n">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F47" t="n">
-        <v>2085.4433</v>
+        <v>274.4457</v>
       </c>
       <c r="G47" t="n">
-        <v>357.5333333333334</v>
+        <v>-51555.79217970464</v>
       </c>
       <c r="H47" t="n">
-        <v>354.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>352</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2388,40 +2211,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C48" t="n">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D48" t="n">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E48" t="n">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F48" t="n">
-        <v>97.5223</v>
+        <v>300</v>
       </c>
       <c r="G48" t="n">
-        <v>357.6666666666667</v>
+        <v>-51555.79217970464</v>
       </c>
       <c r="H48" t="n">
-        <v>354.35</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>352</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2430,40 +2252,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C49" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D49" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E49" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F49" t="n">
-        <v>7982.185</v>
+        <v>437.4643</v>
       </c>
       <c r="G49" t="n">
-        <v>357.5333333333334</v>
+        <v>-51118.32787970464</v>
       </c>
       <c r="H49" t="n">
-        <v>354.35</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>352</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2472,40 +2293,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C50" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D50" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E50" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F50" t="n">
-        <v>1108.1044</v>
+        <v>480.8463</v>
       </c>
       <c r="G50" t="n">
-        <v>357.4</v>
+        <v>-51118.32787970464</v>
       </c>
       <c r="H50" t="n">
-        <v>354.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>352</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2514,40 +2334,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C51" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D51" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E51" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F51" t="n">
-        <v>8379.9213</v>
+        <v>8.3248</v>
       </c>
       <c r="G51" t="n">
-        <v>357.2666666666667</v>
+        <v>-51110.00307970464</v>
       </c>
       <c r="H51" t="n">
-        <v>354.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>352</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2556,40 +2375,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C52" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D52" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E52" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F52" t="n">
-        <v>25.2879</v>
+        <v>8.477399999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>356.9333333333333</v>
+        <v>-51110.00307970464</v>
       </c>
       <c r="H52" t="n">
-        <v>354.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>352</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2598,40 +2416,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C53" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D53" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E53" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F53" t="n">
-        <v>2012.9554</v>
+        <v>46.0839</v>
       </c>
       <c r="G53" t="n">
-        <v>356.8</v>
+        <v>-51110.00307970464</v>
       </c>
       <c r="H53" t="n">
-        <v>354.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>352</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2640,40 +2457,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C54" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D54" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E54" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F54" t="n">
-        <v>75.39960000000001</v>
+        <v>603.5869</v>
       </c>
       <c r="G54" t="n">
-        <v>356.6666666666667</v>
+        <v>-51713.58997970464</v>
       </c>
       <c r="H54" t="n">
-        <v>354.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>352</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2682,40 +2498,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C55" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D55" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E55" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F55" t="n">
-        <v>317.258</v>
+        <v>157.6168</v>
       </c>
       <c r="G55" t="n">
-        <v>356.7333333333333</v>
+        <v>-51555.97317970464</v>
       </c>
       <c r="H55" t="n">
-        <v>354.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>352</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2724,40 +2539,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C56" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D56" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E56" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F56" t="n">
-        <v>263</v>
+        <v>1232.6637</v>
       </c>
       <c r="G56" t="n">
-        <v>356.6</v>
+        <v>-51555.97317970464</v>
       </c>
       <c r="H56" t="n">
-        <v>354.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>352</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2766,40 +2580,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C57" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D57" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E57" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F57" t="n">
-        <v>678</v>
+        <v>106.8406</v>
       </c>
       <c r="G57" t="n">
-        <v>356.5333333333334</v>
+        <v>-51662.81377970464</v>
       </c>
       <c r="H57" t="n">
-        <v>354.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>352</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2808,40 +2621,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C58" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D58" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E58" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F58" t="n">
-        <v>22959.3832</v>
+        <v>602.0685</v>
       </c>
       <c r="G58" t="n">
-        <v>356.6</v>
+        <v>-51060.74527970464</v>
       </c>
       <c r="H58" t="n">
-        <v>354.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>352</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2850,40 +2662,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C59" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D59" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E59" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F59" t="n">
-        <v>4.5682</v>
+        <v>390</v>
       </c>
       <c r="G59" t="n">
-        <v>356.7333333333333</v>
+        <v>-51060.74527970464</v>
       </c>
       <c r="H59" t="n">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>352</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2892,40 +2703,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C60" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D60" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E60" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F60" t="n">
-        <v>1408.1431</v>
+        <v>57.0046</v>
       </c>
       <c r="G60" t="n">
-        <v>356.7333333333333</v>
+        <v>-51003.74067970464</v>
       </c>
       <c r="H60" t="n">
-        <v>355.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>352</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,40 +2744,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C61" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D61" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E61" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F61" t="n">
-        <v>69.44444444444444</v>
+        <v>68.95959999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>356.9333333333333</v>
+        <v>-51072.70027970464</v>
       </c>
       <c r="H61" t="n">
-        <v>355.2833333333334</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>352</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2976,40 +2785,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C62" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D62" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E62" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F62" t="n">
-        <v>1432</v>
+        <v>257</v>
       </c>
       <c r="G62" t="n">
-        <v>357.0666666666667</v>
+        <v>-51072.70027970464</v>
       </c>
       <c r="H62" t="n">
-        <v>355.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>352</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3018,40 +2826,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C63" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D63" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E63" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F63" t="n">
-        <v>8642.747501111111</v>
+        <v>2414.344</v>
       </c>
       <c r="G63" t="n">
-        <v>357.3333333333333</v>
+        <v>-48658.35627970465</v>
       </c>
       <c r="H63" t="n">
-        <v>355.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>352</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,40 +2867,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C64" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D64" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E64" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F64" t="n">
-        <v>21027.303</v>
+        <v>1704.1263</v>
       </c>
       <c r="G64" t="n">
-        <v>357.8</v>
+        <v>-48658.35627970465</v>
       </c>
       <c r="H64" t="n">
-        <v>355.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>352</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3102,40 +2908,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C65" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D65" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E65" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F65" t="n">
-        <v>30</v>
+        <v>237.0366</v>
       </c>
       <c r="G65" t="n">
-        <v>358.2666666666667</v>
+        <v>-48658.35627970465</v>
       </c>
       <c r="H65" t="n">
-        <v>355.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>352</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3144,40 +2949,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C66" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D66" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E66" t="n">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F66" t="n">
-        <v>2125.4146</v>
+        <v>5406.864154444444</v>
       </c>
       <c r="G66" t="n">
-        <v>358.8</v>
+        <v>-43251.49212526021</v>
       </c>
       <c r="H66" t="n">
-        <v>356.1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>352</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3186,40 +2990,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C67" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D67" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E67" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F67" t="n">
-        <v>1000</v>
+        <v>608.7151</v>
       </c>
       <c r="G67" t="n">
-        <v>359.4</v>
+        <v>-43860.20722526021</v>
       </c>
       <c r="H67" t="n">
-        <v>356.3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>352</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3228,40 +3031,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C68" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D68" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E68" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F68" t="n">
-        <v>1403.1725</v>
+        <v>23.2667</v>
       </c>
       <c r="G68" t="n">
-        <v>360</v>
+        <v>-43860.20722526021</v>
       </c>
       <c r="H68" t="n">
-        <v>356.5</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>352</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3270,40 +3072,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C69" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D69" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E69" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F69" t="n">
-        <v>145.4989</v>
+        <v>6179.5175</v>
       </c>
       <c r="G69" t="n">
-        <v>360.6</v>
+        <v>-43860.20722526021</v>
       </c>
       <c r="H69" t="n">
-        <v>356.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>352</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3312,40 +3113,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C70" t="n">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D70" t="n">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E70" t="n">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F70" t="n">
-        <v>935.9999</v>
+        <v>422.6136</v>
       </c>
       <c r="G70" t="n">
-        <v>361.0666666666667</v>
+        <v>-43437.59362526021</v>
       </c>
       <c r="H70" t="n">
-        <v>356.85</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>352</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3354,40 +3154,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C71" t="n">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D71" t="n">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E71" t="n">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F71" t="n">
-        <v>13410.1472</v>
+        <v>2989.4929</v>
       </c>
       <c r="G71" t="n">
-        <v>361.6666666666667</v>
+        <v>-43437.59362526021</v>
       </c>
       <c r="H71" t="n">
-        <v>357.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>352</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3396,40 +3195,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C72" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D72" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E72" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F72" t="n">
-        <v>605.4626</v>
+        <v>3485</v>
       </c>
       <c r="G72" t="n">
-        <v>362.2666666666667</v>
+        <v>-43437.59362526021</v>
       </c>
       <c r="H72" t="n">
-        <v>357.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>352</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3438,40 +3236,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C73" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D73" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E73" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F73" t="n">
-        <v>5869.2547</v>
+        <v>3204.2866</v>
       </c>
       <c r="G73" t="n">
-        <v>362.7333333333333</v>
+        <v>-46641.88022526021</v>
       </c>
       <c r="H73" t="n">
-        <v>357.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>352</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3480,40 +3277,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C74" t="n">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D74" t="n">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E74" t="n">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F74" t="n">
-        <v>143.4934</v>
+        <v>202</v>
       </c>
       <c r="G74" t="n">
-        <v>363.2666666666667</v>
+        <v>-46439.88022526021</v>
       </c>
       <c r="H74" t="n">
-        <v>357.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>352</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3522,40 +3318,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C75" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D75" t="n">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="E75" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>6425.7502</v>
       </c>
       <c r="G75" t="n">
-        <v>363.8666666666667</v>
+        <v>-52865.63042526021</v>
       </c>
       <c r="H75" t="n">
-        <v>357.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>352</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3564,40 +3359,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C76" t="n">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D76" t="n">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="E76" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F76" t="n">
-        <v>634.4592</v>
+        <v>2085.4433</v>
       </c>
       <c r="G76" t="n">
-        <v>364.4</v>
+        <v>-50780.18712526021</v>
       </c>
       <c r="H76" t="n">
-        <v>358.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>352</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3606,40 +3400,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C77" t="n">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D77" t="n">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E77" t="n">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F77" t="n">
-        <v>846.0377</v>
+        <v>97.5223</v>
       </c>
       <c r="G77" t="n">
-        <v>364.8666666666667</v>
+        <v>-50780.18712526021</v>
       </c>
       <c r="H77" t="n">
-        <v>358.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>352</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3648,76 +3441,80 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C78" t="n">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D78" t="n">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E78" t="n">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F78" t="n">
-        <v>483.11</v>
+        <v>7982.185</v>
       </c>
       <c r="G78" t="n">
-        <v>365.2</v>
+        <v>-58762.37212526021</v>
       </c>
       <c r="H78" t="n">
-        <v>358.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>352</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C79" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D79" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E79" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="F79" t="n">
-        <v>1644.6244</v>
+        <v>1108.1044</v>
       </c>
       <c r="G79" t="n">
-        <v>365.4666666666666</v>
+        <v>-58762.37212526021</v>
       </c>
       <c r="H79" t="n">
-        <v>358.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>352</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3726,36 +3523,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C80" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D80" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E80" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F80" t="n">
-        <v>28056.0698</v>
+        <v>8379.9213</v>
       </c>
       <c r="G80" t="n">
-        <v>365.6666666666667</v>
+        <v>-58762.37212526021</v>
       </c>
       <c r="H80" t="n">
-        <v>359.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>352</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3764,36 +3564,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C81" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D81" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E81" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F81" t="n">
-        <v>8214</v>
+        <v>25.2879</v>
       </c>
       <c r="G81" t="n">
-        <v>365.7333333333333</v>
+        <v>-58762.37212526021</v>
       </c>
       <c r="H81" t="n">
-        <v>359.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>352</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3802,36 +3605,41 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C82" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D82" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E82" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F82" t="n">
-        <v>10000.0249</v>
+        <v>2012.9554</v>
       </c>
       <c r="G82" t="n">
-        <v>365.7333333333333</v>
+        <v>-58762.37212526021</v>
       </c>
       <c r="H82" t="n">
-        <v>359.4333333333333</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+        <v>355</v>
+      </c>
+      <c r="K82" t="n">
+        <v>352</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3840,36 +3648,41 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C83" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D83" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E83" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F83" t="n">
-        <v>231.5873</v>
+        <v>75.39960000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>365.7333333333333</v>
+        <v>-58762.37212526021</v>
       </c>
       <c r="H83" t="n">
-        <v>359.6</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+        <v>355</v>
+      </c>
+      <c r="K83" t="n">
+        <v>352</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,36 +3691,41 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C84" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D84" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E84" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F84" t="n">
-        <v>763.4924999999999</v>
+        <v>317.258</v>
       </c>
       <c r="G84" t="n">
-        <v>365.7333333333333</v>
+        <v>-58445.11412526021</v>
       </c>
       <c r="H84" t="n">
-        <v>359.7666666666667</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+        <v>355</v>
+      </c>
+      <c r="K84" t="n">
+        <v>352</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,36 +3734,41 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C85" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D85" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E85" t="n">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F85" t="n">
-        <v>2904.6862</v>
+        <v>263</v>
       </c>
       <c r="G85" t="n">
-        <v>365.6666666666667</v>
+        <v>-58708.11412526021</v>
       </c>
       <c r="H85" t="n">
-        <v>359.95</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+        <v>358</v>
+      </c>
+      <c r="K85" t="n">
+        <v>352</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3954,36 +3777,41 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C86" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D86" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E86" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F86" t="n">
-        <v>205.4143</v>
+        <v>678</v>
       </c>
       <c r="G86" t="n">
-        <v>365.5333333333334</v>
+        <v>-58030.11412526021</v>
       </c>
       <c r="H86" t="n">
-        <v>360.0833333333333</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+        <v>356</v>
+      </c>
+      <c r="K86" t="n">
+        <v>352</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3992,36 +3820,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C87" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D87" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E87" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F87" t="n">
-        <v>16381.7055</v>
+        <v>22959.3832</v>
       </c>
       <c r="G87" t="n">
-        <v>365.2666666666667</v>
+        <v>-35070.73092526021</v>
       </c>
       <c r="H87" t="n">
-        <v>360.2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+        <v>357</v>
+      </c>
+      <c r="K87" t="n">
+        <v>352</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4030,36 +3863,41 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C88" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D88" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E88" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F88" t="n">
-        <v>6550.9083</v>
+        <v>4.5682</v>
       </c>
       <c r="G88" t="n">
-        <v>365</v>
+        <v>-35070.73092526021</v>
       </c>
       <c r="H88" t="n">
-        <v>360.3333333333333</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+        <v>359</v>
+      </c>
+      <c r="K88" t="n">
+        <v>352</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4068,36 +3906,41 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C89" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D89" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E89" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F89" t="n">
-        <v>139.6497</v>
+        <v>1408.1431</v>
       </c>
       <c r="G89" t="n">
-        <v>364.8</v>
+        <v>-35070.73092526021</v>
       </c>
       <c r="H89" t="n">
-        <v>360.4833333333333</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+        <v>359</v>
+      </c>
+      <c r="K89" t="n">
+        <v>352</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,36 +3949,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C90" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D90" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E90" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F90" t="n">
-        <v>24.0818</v>
+        <v>69.44444444444444</v>
       </c>
       <c r="G90" t="n">
-        <v>364.5333333333334</v>
+        <v>-35001.28648081577</v>
       </c>
       <c r="H90" t="n">
-        <v>360.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>352</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4144,36 +3990,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C91" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D91" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E91" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F91" t="n">
-        <v>518.2195</v>
+        <v>1432</v>
       </c>
       <c r="G91" t="n">
-        <v>364.3333333333333</v>
+        <v>-35001.28648081577</v>
       </c>
       <c r="H91" t="n">
-        <v>360.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>352</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4182,36 +4031,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C92" t="n">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D92" t="n">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E92" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F92" t="n">
-        <v>13.965</v>
+        <v>8642.747501111111</v>
       </c>
       <c r="G92" t="n">
-        <v>364.2</v>
+        <v>-26358.53897970466</v>
       </c>
       <c r="H92" t="n">
-        <v>360.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>352</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4220,36 +4072,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C93" t="n">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D93" t="n">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E93" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F93" t="n">
-        <v>508.3249</v>
+        <v>21027.303</v>
       </c>
       <c r="G93" t="n">
-        <v>364.0666666666667</v>
+        <v>-26358.53897970466</v>
       </c>
       <c r="H93" t="n">
-        <v>361.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>352</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4258,36 +4113,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C94" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D94" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E94" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F94" t="n">
-        <v>599.5411</v>
+        <v>30</v>
       </c>
       <c r="G94" t="n">
-        <v>363.9333333333333</v>
+        <v>-26358.53897970466</v>
       </c>
       <c r="H94" t="n">
-        <v>361.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>352</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4308,24 +4166,27 @@
         <v>363</v>
       </c>
       <c r="F95" t="n">
-        <v>442.2043</v>
+        <v>2125.4146</v>
       </c>
       <c r="G95" t="n">
-        <v>363.8</v>
+        <v>-24233.12437970466</v>
       </c>
       <c r="H95" t="n">
-        <v>361.2833333333334</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>352</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4337,33 +4198,36 @@
         <v>364</v>
       </c>
       <c r="C96" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D96" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E96" t="n">
         <v>364</v>
       </c>
       <c r="F96" t="n">
-        <v>26921.8655</v>
+        <v>1000</v>
       </c>
       <c r="G96" t="n">
-        <v>363.9333333333333</v>
+        <v>-23233.12437970466</v>
       </c>
       <c r="H96" t="n">
-        <v>361.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>352</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,36 +4236,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C97" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D97" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E97" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F97" t="n">
-        <v>2709.9879</v>
+        <v>1403.1725</v>
       </c>
       <c r="G97" t="n">
-        <v>364.0666666666667</v>
+        <v>-23233.12437970466</v>
       </c>
       <c r="H97" t="n">
-        <v>361.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>352</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4410,36 +4277,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C98" t="n">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D98" t="n">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E98" t="n">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F98" t="n">
-        <v>294.2327</v>
+        <v>145.4989</v>
       </c>
       <c r="G98" t="n">
-        <v>364.2666666666667</v>
+        <v>-23233.12437970466</v>
       </c>
       <c r="H98" t="n">
-        <v>361.7</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>352</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4448,36 +4318,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C99" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D99" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E99" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F99" t="n">
-        <v>2108.8154</v>
+        <v>935.9999</v>
       </c>
       <c r="G99" t="n">
-        <v>364.4666666666666</v>
+        <v>-22297.12447970466</v>
       </c>
       <c r="H99" t="n">
-        <v>361.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>352</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4486,36 +4359,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C100" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D100" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E100" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F100" t="n">
-        <v>3922.355</v>
+        <v>13410.1472</v>
       </c>
       <c r="G100" t="n">
-        <v>364.7333333333333</v>
+        <v>-22297.12447970466</v>
       </c>
       <c r="H100" t="n">
-        <v>362.05</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>352</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,36 +4400,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C101" t="n">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D101" t="n">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E101" t="n">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F101" t="n">
-        <v>82.5989</v>
+        <v>605.4626</v>
       </c>
       <c r="G101" t="n">
-        <v>365.1333333333333</v>
+        <v>-21691.66187970466</v>
       </c>
       <c r="H101" t="n">
-        <v>362.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>352</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4562,36 +4441,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C102" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D102" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E102" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F102" t="n">
-        <v>3730.7182</v>
+        <v>5869.2547</v>
       </c>
       <c r="G102" t="n">
-        <v>365.4666666666666</v>
+        <v>-21691.66187970466</v>
       </c>
       <c r="H102" t="n">
-        <v>362.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>352</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4600,36 +4482,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C103" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D103" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E103" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F103" t="n">
-        <v>690</v>
+        <v>143.4934</v>
       </c>
       <c r="G103" t="n">
-        <v>365.8666666666667</v>
+        <v>-21548.16847970466</v>
       </c>
       <c r="H103" t="n">
-        <v>362.55</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>352</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4650,25 +4535,28 @@
         <v>368</v>
       </c>
       <c r="F104" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="G104" t="n">
-        <v>366.1333333333333</v>
+        <v>-21448.16847970466</v>
       </c>
       <c r="H104" t="n">
-        <v>362.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>352</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1.040454545454546</v>
       </c>
     </row>
     <row r="105">
@@ -4688,24 +4576,21 @@
         <v>368</v>
       </c>
       <c r="F105" t="n">
-        <v>4174.1956</v>
+        <v>634.4592</v>
       </c>
       <c r="G105" t="n">
-        <v>366.4</v>
+        <v>-21448.16847970466</v>
       </c>
       <c r="H105" t="n">
-        <v>362.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4714,36 +4599,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>368</v>
+      </c>
+      <c r="C106" t="n">
         <v>367</v>
       </c>
-      <c r="C106" t="n">
-        <v>366</v>
-      </c>
       <c r="D106" t="n">
+        <v>368</v>
+      </c>
+      <c r="E106" t="n">
         <v>367</v>
       </c>
-      <c r="E106" t="n">
-        <v>366</v>
-      </c>
       <c r="F106" t="n">
-        <v>1926.0328</v>
+        <v>846.0377</v>
       </c>
       <c r="G106" t="n">
-        <v>366.4666666666666</v>
+        <v>-22294.20617970466</v>
       </c>
       <c r="H106" t="n">
-        <v>363.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,36 +4634,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C107" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D107" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E107" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F107" t="n">
-        <v>9011.633599999999</v>
+        <v>483.11</v>
       </c>
       <c r="G107" t="n">
-        <v>366.5333333333334</v>
+        <v>-22294.20617970466</v>
       </c>
       <c r="H107" t="n">
-        <v>363.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4802,24 +4681,21 @@
         <v>366</v>
       </c>
       <c r="F108" t="n">
-        <v>1382.4493</v>
+        <v>1644.6244</v>
       </c>
       <c r="G108" t="n">
-        <v>366.6</v>
+        <v>-23938.83057970466</v>
       </c>
       <c r="H108" t="n">
-        <v>363.3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4828,36 +4704,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C109" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D109" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E109" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F109" t="n">
-        <v>1891.8263</v>
+        <v>28056.0698</v>
       </c>
       <c r="G109" t="n">
-        <v>366.7333333333333</v>
+        <v>-51994.90037970466</v>
       </c>
       <c r="H109" t="n">
-        <v>363.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4866,36 +4739,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C110" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D110" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E110" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F110" t="n">
-        <v>1328.9426</v>
+        <v>8214</v>
       </c>
       <c r="G110" t="n">
-        <v>366.9333333333333</v>
+        <v>-60208.90037970466</v>
       </c>
       <c r="H110" t="n">
-        <v>363.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4904,36 +4774,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C111" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D111" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E111" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F111" t="n">
-        <v>150</v>
+        <v>10000.0249</v>
       </c>
       <c r="G111" t="n">
-        <v>367.0666666666667</v>
+        <v>-60208.90037970466</v>
       </c>
       <c r="H111" t="n">
-        <v>363.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>1</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4954,24 +4821,21 @@
         <v>364</v>
       </c>
       <c r="F112" t="n">
-        <v>1543.8369</v>
+        <v>231.5873</v>
       </c>
       <c r="G112" t="n">
-        <v>366.9333333333333</v>
+        <v>-60208.90037970466</v>
       </c>
       <c r="H112" t="n">
-        <v>364.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4989,27 +4853,24 @@
         <v>364</v>
       </c>
       <c r="E113" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F113" t="n">
-        <v>1913.2962</v>
+        <v>763.4924999999999</v>
       </c>
       <c r="G113" t="n">
-        <v>366.7333333333333</v>
+        <v>-60208.90037970466</v>
       </c>
       <c r="H113" t="n">
-        <v>364.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>1</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5021,33 +4882,30 @@
         <v>363</v>
       </c>
       <c r="C114" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D114" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E114" t="n">
         <v>363</v>
       </c>
       <c r="F114" t="n">
-        <v>127.4139</v>
+        <v>2904.6862</v>
       </c>
       <c r="G114" t="n">
-        <v>366.4666666666666</v>
+        <v>-60208.90037970466</v>
       </c>
       <c r="H114" t="n">
-        <v>364.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>1</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5065,27 +4923,24 @@
         <v>363</v>
       </c>
       <c r="E115" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F115" t="n">
-        <v>4502.225</v>
+        <v>205.4143</v>
       </c>
       <c r="G115" t="n">
-        <v>366.1333333333333</v>
+        <v>-60414.31467970466</v>
       </c>
       <c r="H115" t="n">
-        <v>364.4</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>1</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5094,36 +4949,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C116" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D116" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E116" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F116" t="n">
-        <v>158.5905</v>
+        <v>16381.7055</v>
       </c>
       <c r="G116" t="n">
-        <v>365.7333333333333</v>
+        <v>-76796.02017970466</v>
       </c>
       <c r="H116" t="n">
-        <v>364.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5144,24 +4996,21 @@
         <v>362</v>
       </c>
       <c r="F117" t="n">
-        <v>79.9225</v>
+        <v>6550.9083</v>
       </c>
       <c r="G117" t="n">
-        <v>365.4</v>
+        <v>-76796.02017970466</v>
       </c>
       <c r="H117" t="n">
-        <v>364.6</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5182,24 +5031,21 @@
         <v>364</v>
       </c>
       <c r="F118" t="n">
-        <v>131.3653</v>
+        <v>139.6497</v>
       </c>
       <c r="G118" t="n">
-        <v>365.1333333333333</v>
+        <v>-76656.37047970467</v>
       </c>
       <c r="H118" t="n">
-        <v>364.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,36 +5054,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C119" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D119" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E119" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F119" t="n">
-        <v>552</v>
+        <v>24.0818</v>
       </c>
       <c r="G119" t="n">
-        <v>364.8</v>
+        <v>-76656.37047970467</v>
       </c>
       <c r="H119" t="n">
-        <v>364.75</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5246,36 +5089,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C120" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D120" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E120" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F120" t="n">
-        <v>198.5051</v>
+        <v>518.2195</v>
       </c>
       <c r="G120" t="n">
-        <v>364.4666666666666</v>
+        <v>-76138.15097970466</v>
       </c>
       <c r="H120" t="n">
-        <v>364.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5284,36 +5124,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C121" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D121" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E121" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F121" t="n">
-        <v>4.6077</v>
+        <v>13.965</v>
       </c>
       <c r="G121" t="n">
-        <v>364.2666666666667</v>
+        <v>-76138.15097970466</v>
       </c>
       <c r="H121" t="n">
-        <v>364.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5322,36 +5159,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C122" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D122" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E122" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F122" t="n">
-        <v>91.42529999999999</v>
+        <v>508.3249</v>
       </c>
       <c r="G122" t="n">
-        <v>364.1333333333333</v>
+        <v>-76138.15097970466</v>
       </c>
       <c r="H122" t="n">
-        <v>364.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5360,36 +5194,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C123" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D123" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E123" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F123" t="n">
-        <v>1.063</v>
+        <v>599.5411</v>
       </c>
       <c r="G123" t="n">
-        <v>364.0666666666667</v>
+        <v>-76737.69207970466</v>
       </c>
       <c r="H123" t="n">
-        <v>364.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5398,36 +5229,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C124" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D124" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E124" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F124" t="n">
-        <v>855.9997</v>
+        <v>442.2043</v>
       </c>
       <c r="G124" t="n">
-        <v>364</v>
+        <v>-77179.89637970466</v>
       </c>
       <c r="H124" t="n">
-        <v>365.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,36 +5264,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C125" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D125" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E125" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F125" t="n">
-        <v>733.1019</v>
+        <v>26921.8655</v>
       </c>
       <c r="G125" t="n">
-        <v>363.9333333333333</v>
+        <v>-50258.03087970466</v>
       </c>
       <c r="H125" t="n">
-        <v>365.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5474,36 +5299,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C126" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D126" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E126" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F126" t="n">
-        <v>1385.8826</v>
+        <v>2709.9879</v>
       </c>
       <c r="G126" t="n">
-        <v>363.7333333333333</v>
+        <v>-50258.03087970466</v>
       </c>
       <c r="H126" t="n">
-        <v>365.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5512,36 +5334,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C127" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D127" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E127" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F127" t="n">
-        <v>4747.348</v>
+        <v>294.2327</v>
       </c>
       <c r="G127" t="n">
-        <v>363.5333333333334</v>
+        <v>-49963.79817970466</v>
       </c>
       <c r="H127" t="n">
-        <v>365.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5550,36 +5369,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C128" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D128" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E128" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F128" t="n">
-        <v>119</v>
+        <v>2108.8154</v>
       </c>
       <c r="G128" t="n">
-        <v>363.4666666666666</v>
+        <v>-49963.79817970466</v>
       </c>
       <c r="H128" t="n">
-        <v>365.05</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5588,36 +5404,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C129" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D129" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E129" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F129" t="n">
-        <v>159.4304</v>
+        <v>3922.355</v>
       </c>
       <c r="G129" t="n">
-        <v>363.4</v>
+        <v>-46041.44317970466</v>
       </c>
       <c r="H129" t="n">
-        <v>365.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5626,36 +5439,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C130" t="n">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D130" t="n">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="E130" t="n">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="F130" t="n">
-        <v>128.2634</v>
+        <v>82.5989</v>
       </c>
       <c r="G130" t="n">
-        <v>363.2</v>
+        <v>-45958.84427970466</v>
       </c>
       <c r="H130" t="n">
-        <v>364.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5664,36 +5474,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C131" t="n">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D131" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E131" t="n">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="F131" t="n">
-        <v>1074.9984</v>
+        <v>3730.7182</v>
       </c>
       <c r="G131" t="n">
-        <v>362.9333333333333</v>
+        <v>-49689.56247970466</v>
       </c>
       <c r="H131" t="n">
-        <v>364.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5702,36 +5509,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C132" t="n">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="D132" t="n">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="E132" t="n">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F132" t="n">
-        <v>180.9877</v>
+        <v>690</v>
       </c>
       <c r="G132" t="n">
-        <v>362.7333333333333</v>
+        <v>-48999.56247970466</v>
       </c>
       <c r="H132" t="n">
-        <v>364.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5740,36 +5544,1048 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C133" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="D133" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E133" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="F133" t="n">
-        <v>349.2256</v>
+        <v>310</v>
       </c>
       <c r="G133" t="n">
-        <v>362.2666666666667</v>
+        <v>-48999.56247970466</v>
       </c>
       <c r="H133" t="n">
-        <v>364.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>368</v>
+      </c>
+      <c r="C134" t="n">
+        <v>368</v>
+      </c>
+      <c r="D134" t="n">
+        <v>368</v>
+      </c>
+      <c r="E134" t="n">
+        <v>368</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4174.1956</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-48999.56247970466</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>367</v>
+      </c>
+      <c r="C135" t="n">
+        <v>366</v>
+      </c>
+      <c r="D135" t="n">
+        <v>367</v>
+      </c>
+      <c r="E135" t="n">
+        <v>366</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1926.0328</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-50925.59527970466</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>366</v>
+      </c>
+      <c r="C136" t="n">
+        <v>366</v>
+      </c>
+      <c r="D136" t="n">
+        <v>366</v>
+      </c>
+      <c r="E136" t="n">
+        <v>366</v>
+      </c>
+      <c r="F136" t="n">
+        <v>9011.633599999999</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-50925.59527970466</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>366</v>
+      </c>
+      <c r="C137" t="n">
+        <v>366</v>
+      </c>
+      <c r="D137" t="n">
+        <v>366</v>
+      </c>
+      <c r="E137" t="n">
+        <v>366</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1382.4493</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-50925.59527970466</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>368</v>
+      </c>
+      <c r="C138" t="n">
+        <v>366</v>
+      </c>
+      <c r="D138" t="n">
+        <v>368</v>
+      </c>
+      <c r="E138" t="n">
+        <v>366</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1891.8263</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-50925.59527970466</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>366</v>
+      </c>
+      <c r="C139" t="n">
+        <v>366</v>
+      </c>
+      <c r="D139" t="n">
+        <v>366</v>
+      </c>
+      <c r="E139" t="n">
+        <v>366</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1328.9426</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-50925.59527970466</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>368</v>
+      </c>
+      <c r="C140" t="n">
+        <v>368</v>
+      </c>
+      <c r="D140" t="n">
+        <v>368</v>
+      </c>
+      <c r="E140" t="n">
+        <v>368</v>
+      </c>
+      <c r="F140" t="n">
+        <v>150</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-50775.59527970466</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>364</v>
+      </c>
+      <c r="C141" t="n">
+        <v>364</v>
+      </c>
+      <c r="D141" t="n">
+        <v>364</v>
+      </c>
+      <c r="E141" t="n">
+        <v>364</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1543.8369</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-52319.43217970467</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>364</v>
+      </c>
+      <c r="C142" t="n">
+        <v>364</v>
+      </c>
+      <c r="D142" t="n">
+        <v>364</v>
+      </c>
+      <c r="E142" t="n">
+        <v>363</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1913.2962</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-52319.43217970467</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>363</v>
+      </c>
+      <c r="C143" t="n">
+        <v>363</v>
+      </c>
+      <c r="D143" t="n">
+        <v>363</v>
+      </c>
+      <c r="E143" t="n">
+        <v>363</v>
+      </c>
+      <c r="F143" t="n">
+        <v>127.4139</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-52446.84607970466</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>363</v>
+      </c>
+      <c r="C144" t="n">
+        <v>363</v>
+      </c>
+      <c r="D144" t="n">
+        <v>363</v>
+      </c>
+      <c r="E144" t="n">
+        <v>361</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4502.225</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-52446.84607970466</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>363</v>
+      </c>
+      <c r="C145" t="n">
+        <v>363</v>
+      </c>
+      <c r="D145" t="n">
+        <v>363</v>
+      </c>
+      <c r="E145" t="n">
+        <v>363</v>
+      </c>
+      <c r="F145" t="n">
+        <v>158.5905</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-52446.84607970466</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>362</v>
+      </c>
+      <c r="C146" t="n">
+        <v>362</v>
+      </c>
+      <c r="D146" t="n">
+        <v>362</v>
+      </c>
+      <c r="E146" t="n">
+        <v>362</v>
+      </c>
+      <c r="F146" t="n">
+        <v>79.9225</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-52526.76857970467</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>364</v>
+      </c>
+      <c r="C147" t="n">
+        <v>364</v>
+      </c>
+      <c r="D147" t="n">
+        <v>364</v>
+      </c>
+      <c r="E147" t="n">
+        <v>364</v>
+      </c>
+      <c r="F147" t="n">
+        <v>131.3653</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-52395.40327970467</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>363</v>
+      </c>
+      <c r="C148" t="n">
+        <v>363</v>
+      </c>
+      <c r="D148" t="n">
+        <v>363</v>
+      </c>
+      <c r="E148" t="n">
+        <v>363</v>
+      </c>
+      <c r="F148" t="n">
+        <v>552</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-52947.40327970467</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>363</v>
+      </c>
+      <c r="C149" t="n">
+        <v>363</v>
+      </c>
+      <c r="D149" t="n">
+        <v>363</v>
+      </c>
+      <c r="E149" t="n">
+        <v>363</v>
+      </c>
+      <c r="F149" t="n">
+        <v>198.5051</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-52947.40327970467</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>363</v>
+      </c>
+      <c r="C150" t="n">
+        <v>363</v>
+      </c>
+      <c r="D150" t="n">
+        <v>363</v>
+      </c>
+      <c r="E150" t="n">
+        <v>363</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4.6077</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-52947.40327970467</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>364</v>
+      </c>
+      <c r="C151" t="n">
+        <v>364</v>
+      </c>
+      <c r="D151" t="n">
+        <v>364</v>
+      </c>
+      <c r="E151" t="n">
+        <v>364</v>
+      </c>
+      <c r="F151" t="n">
+        <v>91.42529999999999</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-52855.97797970466</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>365</v>
+      </c>
+      <c r="C152" t="n">
+        <v>365</v>
+      </c>
+      <c r="D152" t="n">
+        <v>365</v>
+      </c>
+      <c r="E152" t="n">
+        <v>365</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-52854.91497970466</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>365</v>
+      </c>
+      <c r="C153" t="n">
+        <v>365</v>
+      </c>
+      <c r="D153" t="n">
+        <v>365</v>
+      </c>
+      <c r="E153" t="n">
+        <v>365</v>
+      </c>
+      <c r="F153" t="n">
+        <v>855.9997</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-52854.91497970466</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>365</v>
+      </c>
+      <c r="C154" t="n">
+        <v>365</v>
+      </c>
+      <c r="D154" t="n">
+        <v>365</v>
+      </c>
+      <c r="E154" t="n">
+        <v>365</v>
+      </c>
+      <c r="F154" t="n">
+        <v>733.1019</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-52854.91497970466</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>365</v>
+      </c>
+      <c r="C155" t="n">
+        <v>365</v>
+      </c>
+      <c r="D155" t="n">
+        <v>365</v>
+      </c>
+      <c r="E155" t="n">
+        <v>365</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1385.8826</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-52854.91497970466</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>364</v>
+      </c>
+      <c r="C156" t="n">
+        <v>361</v>
+      </c>
+      <c r="D156" t="n">
+        <v>364</v>
+      </c>
+      <c r="E156" t="n">
+        <v>361</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4747.348</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-57602.26297970466</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>363</v>
+      </c>
+      <c r="C157" t="n">
+        <v>363</v>
+      </c>
+      <c r="D157" t="n">
+        <v>363</v>
+      </c>
+      <c r="E157" t="n">
+        <v>363</v>
+      </c>
+      <c r="F157" t="n">
+        <v>119</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-57483.26297970466</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>362</v>
+      </c>
+      <c r="C158" t="n">
+        <v>362</v>
+      </c>
+      <c r="D158" t="n">
+        <v>362</v>
+      </c>
+      <c r="E158" t="n">
+        <v>362</v>
+      </c>
+      <c r="F158" t="n">
+        <v>159.4304</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-57642.69337970466</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>360</v>
+      </c>
+      <c r="C159" t="n">
+        <v>360</v>
+      </c>
+      <c r="D159" t="n">
+        <v>360</v>
+      </c>
+      <c r="E159" t="n">
+        <v>360</v>
+      </c>
+      <c r="F159" t="n">
+        <v>128.2634</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-57770.95677970466</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>360</v>
+      </c>
+      <c r="C160" t="n">
+        <v>359</v>
+      </c>
+      <c r="D160" t="n">
+        <v>360</v>
+      </c>
+      <c r="E160" t="n">
+        <v>358</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1074.9984</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-58845.95517970466</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>359</v>
+      </c>
+      <c r="C161" t="n">
+        <v>359</v>
+      </c>
+      <c r="D161" t="n">
+        <v>359</v>
+      </c>
+      <c r="E161" t="n">
+        <v>359</v>
+      </c>
+      <c r="F161" t="n">
+        <v>180.9877</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-58845.95517970466</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>357</v>
+      </c>
+      <c r="C162" t="n">
+        <v>357</v>
+      </c>
+      <c r="D162" t="n">
+        <v>357</v>
+      </c>
+      <c r="E162" t="n">
+        <v>357</v>
+      </c>
+      <c r="F162" t="n">
+        <v>349.2256</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-59195.18077970466</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-19 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C2" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D2" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E2" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F2" t="n">
-        <v>1339.1363</v>
+        <v>3.9288</v>
       </c>
       <c r="G2" t="n">
-        <v>-51697.40577485867</v>
+        <v>-50715.77187970465</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C3" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D3" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E3" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F3" t="n">
-        <v>3164.9498</v>
+        <v>418.4847</v>
       </c>
       <c r="G3" t="n">
-        <v>-51697.40577485867</v>
+        <v>-50715.77187970465</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,133 +503,155 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C4" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D4" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E4" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F4" t="n">
-        <v>673.2468</v>
+        <v>565.5746</v>
       </c>
       <c r="G4" t="n">
-        <v>-51697.40577485867</v>
+        <v>-51281.34647970465</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>353</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C5" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D5" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E5" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F5" t="n">
-        <v>4976.5469</v>
+        <v>274.4457</v>
       </c>
       <c r="G5" t="n">
-        <v>-51697.40577485867</v>
+        <v>-51555.79217970464</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>352</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C6" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D6" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E6" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F6" t="n">
-        <v>597</v>
+        <v>300</v>
       </c>
       <c r="G6" t="n">
-        <v>-51100.40577485867</v>
+        <v>-51555.79217970464</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>351</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C7" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D7" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E7" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F7" t="n">
-        <v>341</v>
+        <v>437.4643</v>
       </c>
       <c r="G7" t="n">
-        <v>-50759.40577485867</v>
+        <v>-51118.32787970464</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -632,37 +660,40 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>348</v>
-      </c>
-      <c r="K7" t="n">
-        <v>348</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C8" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D8" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E8" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F8" t="n">
-        <v>316.8903</v>
+        <v>480.8463</v>
       </c>
       <c r="G8" t="n">
-        <v>-50442.51547485867</v>
+        <v>-51118.32787970464</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -671,189 +702,208 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>349</v>
-      </c>
-      <c r="K8" t="n">
-        <v>348</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>354</v>
+      </c>
+      <c r="C9" t="n">
+        <v>354</v>
+      </c>
+      <c r="D9" t="n">
+        <v>354</v>
+      </c>
+      <c r="E9" t="n">
+        <v>354</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8.3248</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-51110.00307970464</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>353</v>
       </c>
-      <c r="C9" t="n">
-        <v>353</v>
-      </c>
-      <c r="D9" t="n">
-        <v>353</v>
-      </c>
-      <c r="E9" t="n">
-        <v>353</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1479.1572</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-48963.35827485867</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>352</v>
-      </c>
-      <c r="K9" t="n">
-        <v>348</v>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C10" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D10" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E10" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F10" t="n">
-        <v>1302.1678</v>
+        <v>8.477399999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>-48963.35827485867</v>
+        <v>-51110.00307970464</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>354</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C11" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D11" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E11" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F11" t="n">
-        <v>2495.2091</v>
+        <v>46.0839</v>
       </c>
       <c r="G11" t="n">
-        <v>-48963.35827485867</v>
+        <v>-51110.00307970464</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>354</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>353</v>
+      </c>
+      <c r="C12" t="n">
+        <v>353</v>
+      </c>
+      <c r="D12" t="n">
+        <v>353</v>
+      </c>
+      <c r="E12" t="n">
+        <v>353</v>
+      </c>
+      <c r="F12" t="n">
+        <v>603.5869</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-51713.58997970464</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>354</v>
       </c>
-      <c r="C12" t="n">
-        <v>354</v>
-      </c>
-      <c r="D12" t="n">
-        <v>354</v>
-      </c>
-      <c r="E12" t="n">
-        <v>354</v>
-      </c>
-      <c r="F12" t="n">
-        <v>258.4006</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-48704.95767485867</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C13" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D13" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E13" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>157.6168</v>
       </c>
       <c r="G13" t="n">
-        <v>-48703.95767485867</v>
+        <v>-51555.97317970464</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -863,32 +913,37 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C14" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D14" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E14" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F14" t="n">
-        <v>1404.4943</v>
+        <v>1232.6637</v>
       </c>
       <c r="G14" t="n">
-        <v>-48703.95767485867</v>
+        <v>-51555.97317970464</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -898,32 +953,37 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C15" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D15" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E15" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F15" t="n">
-        <v>180.3563</v>
+        <v>106.8406</v>
       </c>
       <c r="G15" t="n">
-        <v>-48884.31397485867</v>
+        <v>-51662.81377970464</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -933,10 +993,15 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -946,19 +1011,19 @@
         <v>355</v>
       </c>
       <c r="C16" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D16" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E16" t="n">
         <v>355</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>602.0685</v>
       </c>
       <c r="G16" t="n">
-        <v>-48873.31397485867</v>
+        <v>-51060.74527970464</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -968,32 +1033,37 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C17" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D17" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E17" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F17" t="n">
-        <v>321.258</v>
+        <v>390</v>
       </c>
       <c r="G17" t="n">
-        <v>-48873.31397485867</v>
+        <v>-51060.74527970464</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1003,32 +1073,37 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C18" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D18" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E18" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F18" t="n">
-        <v>160</v>
+        <v>57.0046</v>
       </c>
       <c r="G18" t="n">
-        <v>-49033.31397485867</v>
+        <v>-51003.74067970464</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,10 +1113,15 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1051,19 +1131,19 @@
         <v>355</v>
       </c>
       <c r="C19" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D19" t="n">
+        <v>356</v>
+      </c>
+      <c r="E19" t="n">
         <v>355</v>
       </c>
-      <c r="E19" t="n">
-        <v>353</v>
-      </c>
       <c r="F19" t="n">
-        <v>1058.549392957746</v>
+        <v>68.95959999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>-50091.86336781642</v>
+        <v>-51072.70027970464</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1073,32 +1153,37 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C20" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D20" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E20" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F20" t="n">
-        <v>269.1998</v>
+        <v>257</v>
       </c>
       <c r="G20" t="n">
-        <v>-50361.06316781642</v>
+        <v>-51072.70027970464</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1108,102 +1193,121 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C21" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D21" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E21" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F21" t="n">
-        <v>112</v>
+        <v>2414.344</v>
       </c>
       <c r="G21" t="n">
-        <v>-50361.06316781642</v>
+        <v>-48658.35627970465</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>356</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C22" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D22" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E22" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F22" t="n">
-        <v>1736.0061</v>
+        <v>1704.1263</v>
       </c>
       <c r="G22" t="n">
-        <v>-50361.06316781642</v>
+        <v>-48658.35627970465</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>357</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C23" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D23" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E23" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F23" t="n">
-        <v>1847.7699</v>
+        <v>237.0366</v>
       </c>
       <c r="G23" t="n">
-        <v>-50361.06316781642</v>
+        <v>-48658.35627970465</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1212,130 +1316,135 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>352</v>
-      </c>
-      <c r="K23" t="n">
-        <v>352</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
+        <v>357</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C24" t="n">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="D24" t="n">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="E24" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F24" t="n">
-        <v>24.1096</v>
+        <v>5406.864154444444</v>
       </c>
       <c r="G24" t="n">
-        <v>-50361.06316781642</v>
+        <v>-43251.49212526021</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>352</v>
-      </c>
+      <c r="J24" t="n">
+        <v>357</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C25" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D25" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E25" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F25" t="n">
-        <v>146.2913</v>
+        <v>608.7151</v>
       </c>
       <c r="G25" t="n">
-        <v>-50214.77186781642</v>
+        <v>-43860.20722526021</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>352</v>
-      </c>
+      <c r="J25" t="n">
+        <v>360</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C26" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D26" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E26" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F26" t="n">
-        <v>5.633802816901408</v>
+        <v>23.2667</v>
       </c>
       <c r="G26" t="n">
-        <v>-50209.13806499952</v>
+        <v>-43860.20722526021</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>352</v>
-      </c>
+      <c r="J26" t="n">
+        <v>357</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1344,39 +1453,40 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C27" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D27" t="n">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E27" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F27" t="n">
-        <v>235.04</v>
+        <v>6179.5175</v>
       </c>
       <c r="G27" t="n">
-        <v>-50444.17806499952</v>
+        <v>-43860.20722526021</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>352</v>
-      </c>
+      <c r="J27" t="n">
+        <v>357</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1385,39 +1495,40 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C28" t="n">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D28" t="n">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E28" t="n">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F28" t="n">
-        <v>14</v>
+        <v>422.6136</v>
       </c>
       <c r="G28" t="n">
-        <v>-50444.17806499952</v>
+        <v>-43437.59362526021</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>352</v>
-      </c>
+      <c r="J28" t="n">
+        <v>357</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1426,39 +1537,40 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C29" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D29" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E29" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F29" t="n">
-        <v>9.4338</v>
+        <v>2989.4929</v>
       </c>
       <c r="G29" t="n">
-        <v>-50453.61186499952</v>
+        <v>-43437.59362526021</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>352</v>
-      </c>
+      <c r="J29" t="n">
+        <v>358</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1467,39 +1579,40 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C30" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D30" t="n">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E30" t="n">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F30" t="n">
-        <v>1222.6184</v>
+        <v>3485</v>
       </c>
       <c r="G30" t="n">
-        <v>-50453.61186499952</v>
+        <v>-43437.59362526021</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>352</v>
-      </c>
+      <c r="J30" t="n">
+        <v>358</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1508,39 +1621,40 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C31" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D31" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E31" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F31" t="n">
-        <v>66.59220000000001</v>
+        <v>3204.2866</v>
       </c>
       <c r="G31" t="n">
-        <v>-50387.01966499952</v>
+        <v>-46641.88022526021</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>352</v>
-      </c>
+      <c r="J31" t="n">
+        <v>358</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1549,39 +1663,40 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C32" t="n">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D32" t="n">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E32" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F32" t="n">
-        <v>863.5133</v>
+        <v>202</v>
       </c>
       <c r="G32" t="n">
-        <v>-50387.01966499952</v>
+        <v>-46439.88022526021</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>352</v>
-      </c>
+      <c r="J32" t="n">
+        <v>357</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1590,39 +1705,40 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C33" t="n">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D33" t="n">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E33" t="n">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F33" t="n">
-        <v>139.3104</v>
+        <v>6425.7502</v>
       </c>
       <c r="G33" t="n">
-        <v>-50526.33006499952</v>
+        <v>-52865.63042526021</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>352</v>
-      </c>
+      <c r="J33" t="n">
+        <v>359</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1631,39 +1747,40 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C34" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D34" t="n">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E34" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F34" t="n">
-        <v>28.328611898017</v>
+        <v>2085.4433</v>
       </c>
       <c r="G34" t="n">
-        <v>-50498.0014531015</v>
+        <v>-50780.18712526021</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>352</v>
-      </c>
+      <c r="J34" t="n">
+        <v>357</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1672,39 +1789,40 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C35" t="n">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D35" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E35" t="n">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F35" t="n">
-        <v>92.1449266031419</v>
+        <v>97.5223</v>
       </c>
       <c r="G35" t="n">
-        <v>-50590.14637970465</v>
+        <v>-50780.18712526021</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>352</v>
-      </c>
+      <c r="J35" t="n">
+        <v>358</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1713,39 +1831,40 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C36" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D36" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E36" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F36" t="n">
-        <v>103.9863</v>
+        <v>7982.185</v>
       </c>
       <c r="G36" t="n">
-        <v>-50590.14637970465</v>
+        <v>-58762.37212526021</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>352</v>
-      </c>
+      <c r="J36" t="n">
+        <v>358</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1754,39 +1873,40 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C37" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D37" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E37" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F37" t="n">
-        <v>36</v>
+        <v>1108.1044</v>
       </c>
       <c r="G37" t="n">
-        <v>-50590.14637970465</v>
+        <v>-58762.37212526021</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>352</v>
-      </c>
+      <c r="J37" t="n">
+        <v>355</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1795,39 +1915,40 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C38" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D38" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E38" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F38" t="n">
-        <v>716.6706</v>
+        <v>8379.9213</v>
       </c>
       <c r="G38" t="n">
-        <v>-49873.47577970465</v>
+        <v>-58762.37212526021</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>352</v>
-      </c>
+      <c r="J38" t="n">
+        <v>355</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1836,6 +1957,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1854,21 +1976,21 @@
         <v>355</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>25.2879</v>
       </c>
       <c r="G39" t="n">
-        <v>-49872.47577970465</v>
+        <v>-58762.37212526021</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>352</v>
-      </c>
+      <c r="J39" t="n">
+        <v>355</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1877,6 +1999,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1895,21 +2018,21 @@
         <v>355</v>
       </c>
       <c r="F40" t="n">
-        <v>1043</v>
+        <v>2012.9554</v>
       </c>
       <c r="G40" t="n">
-        <v>-49872.47577970465</v>
+        <v>-58762.37212526021</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>352</v>
-      </c>
+      <c r="J40" t="n">
+        <v>355</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1918,39 +2041,40 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C41" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D41" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E41" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F41" t="n">
-        <v>59.6</v>
+        <v>75.39960000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>-49812.87577970465</v>
+        <v>-58762.37212526021</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>352</v>
-      </c>
+      <c r="J41" t="n">
+        <v>355</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1959,39 +2083,40 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C42" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D42" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E42" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F42" t="n">
-        <v>63.8212</v>
+        <v>317.258</v>
       </c>
       <c r="G42" t="n">
-        <v>-49876.69697970465</v>
+        <v>-58445.11412526021</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>352</v>
-      </c>
+      <c r="J42" t="n">
+        <v>355</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2000,28 +2125,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C43" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D43" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E43" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F43" t="n">
-        <v>839.0749</v>
+        <v>263</v>
       </c>
       <c r="G43" t="n">
-        <v>-50715.77187970465</v>
+        <v>-58708.11412526021</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2030,9 +2156,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>352</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2041,39 +2165,40 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C44" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D44" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E44" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F44" t="n">
-        <v>3.9288</v>
+        <v>678</v>
       </c>
       <c r="G44" t="n">
-        <v>-50715.77187970465</v>
+        <v>-58030.11412526021</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>352</v>
-      </c>
+      <c r="J44" t="n">
+        <v>356</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2082,39 +2207,40 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C45" t="n">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D45" t="n">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E45" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F45" t="n">
-        <v>418.4847</v>
+        <v>22959.3832</v>
       </c>
       <c r="G45" t="n">
-        <v>-50715.77187970465</v>
+        <v>-35070.73092526021</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>352</v>
-      </c>
+      <c r="J45" t="n">
+        <v>357</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2123,39 +2249,40 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C46" t="n">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D46" t="n">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E46" t="n">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="F46" t="n">
-        <v>565.5746</v>
+        <v>4.5682</v>
       </c>
       <c r="G46" t="n">
-        <v>-51281.34647970465</v>
+        <v>-35070.73092526021</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>352</v>
-      </c>
+      <c r="J46" t="n">
+        <v>359</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2164,39 +2291,40 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C47" t="n">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D47" t="n">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E47" t="n">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F47" t="n">
-        <v>274.4457</v>
+        <v>1408.1431</v>
       </c>
       <c r="G47" t="n">
-        <v>-51555.79217970464</v>
+        <v>-35070.73092526021</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>352</v>
-      </c>
+      <c r="J47" t="n">
+        <v>359</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2205,28 +2333,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C48" t="n">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="D48" t="n">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="E48" t="n">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="F48" t="n">
-        <v>300</v>
+        <v>69.44444444444444</v>
       </c>
       <c r="G48" t="n">
-        <v>-51555.79217970464</v>
+        <v>-35001.28648081577</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2235,9 +2364,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>352</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2246,28 +2373,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C49" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D49" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E49" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F49" t="n">
-        <v>437.4643</v>
+        <v>1432</v>
       </c>
       <c r="G49" t="n">
-        <v>-51118.32787970464</v>
+        <v>-35001.28648081577</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2276,9 +2404,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>352</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2287,28 +2413,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C50" t="n">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D50" t="n">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="E50" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F50" t="n">
-        <v>480.8463</v>
+        <v>8642.747501111111</v>
       </c>
       <c r="G50" t="n">
-        <v>-51118.32787970464</v>
+        <v>-26358.53897970466</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2317,9 +2444,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>352</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2328,28 +2453,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C51" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D51" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E51" t="n">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F51" t="n">
-        <v>8.3248</v>
+        <v>21027.303</v>
       </c>
       <c r="G51" t="n">
-        <v>-51110.00307970464</v>
+        <v>-26358.53897970466</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2358,9 +2484,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>352</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2369,28 +2493,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C52" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D52" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E52" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F52" t="n">
-        <v>8.477399999999999</v>
+        <v>30</v>
       </c>
       <c r="G52" t="n">
-        <v>-51110.00307970464</v>
+        <v>-26358.53897970466</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2399,9 +2524,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>352</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2410,28 +2533,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C53" t="n">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D53" t="n">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E53" t="n">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="F53" t="n">
-        <v>46.0839</v>
+        <v>2125.4146</v>
       </c>
       <c r="G53" t="n">
-        <v>-51110.00307970464</v>
+        <v>-24233.12437970466</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2440,9 +2564,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>352</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2451,28 +2573,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="C54" t="n">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="D54" t="n">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="E54" t="n">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F54" t="n">
-        <v>603.5869</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="n">
-        <v>-51713.58997970464</v>
+        <v>-23233.12437970466</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2481,9 +2604,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>352</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2492,28 +2613,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C55" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="D55" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E55" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F55" t="n">
-        <v>157.6168</v>
+        <v>1403.1725</v>
       </c>
       <c r="G55" t="n">
-        <v>-51555.97317970464</v>
+        <v>-23233.12437970466</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2522,9 +2644,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>352</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2533,28 +2653,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C56" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="D56" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="E56" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F56" t="n">
-        <v>1232.6637</v>
+        <v>145.4989</v>
       </c>
       <c r="G56" t="n">
-        <v>-51555.97317970464</v>
+        <v>-23233.12437970466</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2563,9 +2684,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>352</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2574,28 +2693,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C57" t="n">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="D57" t="n">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="E57" t="n">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F57" t="n">
-        <v>106.8406</v>
+        <v>935.9999</v>
       </c>
       <c r="G57" t="n">
-        <v>-51662.81377970464</v>
+        <v>-22297.12447970466</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2604,9 +2724,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>352</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2615,28 +2733,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C58" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D58" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E58" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F58" t="n">
-        <v>602.0685</v>
+        <v>13410.1472</v>
       </c>
       <c r="G58" t="n">
-        <v>-51060.74527970464</v>
+        <v>-22297.12447970466</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2645,9 +2764,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>352</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2656,28 +2773,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C59" t="n">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="D59" t="n">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="E59" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F59" t="n">
-        <v>390</v>
+        <v>605.4626</v>
       </c>
       <c r="G59" t="n">
-        <v>-51060.74527970464</v>
+        <v>-21691.66187970466</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2686,9 +2804,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>352</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2697,28 +2813,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C60" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D60" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E60" t="n">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="F60" t="n">
-        <v>57.0046</v>
+        <v>5869.2547</v>
       </c>
       <c r="G60" t="n">
-        <v>-51003.74067970464</v>
+        <v>-21691.66187970466</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2727,9 +2844,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>352</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2738,28 +2853,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C61" t="n">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="D61" t="n">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E61" t="n">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="F61" t="n">
-        <v>68.95959999999999</v>
+        <v>143.4934</v>
       </c>
       <c r="G61" t="n">
-        <v>-51072.70027970464</v>
+        <v>-21548.16847970466</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2768,9 +2884,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>352</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2779,28 +2893,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C62" t="n">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="D62" t="n">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="E62" t="n">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="F62" t="n">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>-51072.70027970464</v>
+        <v>-21448.16847970466</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2809,9 +2924,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>352</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2820,28 +2933,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C63" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="D63" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E63" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="F63" t="n">
-        <v>2414.344</v>
+        <v>634.4592</v>
       </c>
       <c r="G63" t="n">
-        <v>-48658.35627970465</v>
+        <v>-21448.16847970466</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2850,9 +2964,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>352</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2861,28 +2973,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C64" t="n">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D64" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E64" t="n">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="F64" t="n">
-        <v>1704.1263</v>
+        <v>846.0377</v>
       </c>
       <c r="G64" t="n">
-        <v>-48658.35627970465</v>
+        <v>-22294.20617970466</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2891,9 +3004,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>352</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2902,28 +3013,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="C65" t="n">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D65" t="n">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="E65" t="n">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="F65" t="n">
-        <v>237.0366</v>
+        <v>483.11</v>
       </c>
       <c r="G65" t="n">
-        <v>-48658.35627970465</v>
+        <v>-22294.20617970466</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2932,9 +3044,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>352</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2943,28 +3053,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C66" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D66" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E66" t="n">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="F66" t="n">
-        <v>5406.864154444444</v>
+        <v>1644.6244</v>
       </c>
       <c r="G66" t="n">
-        <v>-43251.49212526021</v>
+        <v>-23938.83057970466</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2973,9 +3084,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>352</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2984,28 +3093,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C67" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D67" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E67" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F67" t="n">
-        <v>608.7151</v>
+        <v>28056.0698</v>
       </c>
       <c r="G67" t="n">
-        <v>-43860.20722526021</v>
+        <v>-51994.90037970466</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3014,9 +3124,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>352</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3025,28 +3133,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C68" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D68" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E68" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F68" t="n">
-        <v>23.2667</v>
+        <v>8214</v>
       </c>
       <c r="G68" t="n">
-        <v>-43860.20722526021</v>
+        <v>-60208.90037970466</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3055,9 +3164,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>352</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3066,28 +3173,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C69" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D69" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E69" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F69" t="n">
-        <v>6179.5175</v>
+        <v>10000.0249</v>
       </c>
       <c r="G69" t="n">
-        <v>-43860.20722526021</v>
+        <v>-60208.90037970466</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3096,9 +3204,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>352</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3107,28 +3213,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C70" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D70" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E70" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F70" t="n">
-        <v>422.6136</v>
+        <v>231.5873</v>
       </c>
       <c r="G70" t="n">
-        <v>-43437.59362526021</v>
+        <v>-60208.90037970466</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3137,9 +3244,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>352</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3148,28 +3253,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C71" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D71" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E71" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F71" t="n">
-        <v>2989.4929</v>
+        <v>763.4924999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>-43437.59362526021</v>
+        <v>-60208.90037970466</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3178,9 +3284,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>352</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3189,28 +3293,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C72" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D72" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E72" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F72" t="n">
-        <v>3485</v>
+        <v>2904.6862</v>
       </c>
       <c r="G72" t="n">
-        <v>-43437.59362526021</v>
+        <v>-60208.90037970466</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3219,9 +3324,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>352</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3230,28 +3333,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C73" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D73" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E73" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F73" t="n">
-        <v>3204.2866</v>
+        <v>205.4143</v>
       </c>
       <c r="G73" t="n">
-        <v>-46641.88022526021</v>
+        <v>-60414.31467970466</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3260,9 +3364,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>352</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3271,28 +3373,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C74" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D74" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E74" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F74" t="n">
-        <v>202</v>
+        <v>16381.7055</v>
       </c>
       <c r="G74" t="n">
-        <v>-46439.88022526021</v>
+        <v>-76796.02017970466</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3301,9 +3404,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>352</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3312,28 +3413,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C75" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D75" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E75" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F75" t="n">
-        <v>6425.7502</v>
+        <v>6550.9083</v>
       </c>
       <c r="G75" t="n">
-        <v>-52865.63042526021</v>
+        <v>-76796.02017970466</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3342,9 +3444,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>352</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3353,28 +3453,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C76" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D76" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E76" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F76" t="n">
-        <v>2085.4433</v>
+        <v>139.6497</v>
       </c>
       <c r="G76" t="n">
-        <v>-50780.18712526021</v>
+        <v>-76656.37047970467</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3383,9 +3484,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>352</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3394,28 +3493,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C77" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D77" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E77" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F77" t="n">
-        <v>97.5223</v>
+        <v>24.0818</v>
       </c>
       <c r="G77" t="n">
-        <v>-50780.18712526021</v>
+        <v>-76656.37047970467</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3424,9 +3524,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>352</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3435,28 +3533,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C78" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D78" t="n">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="E78" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F78" t="n">
-        <v>7982.185</v>
+        <v>518.2195</v>
       </c>
       <c r="G78" t="n">
-        <v>-58762.37212526021</v>
+        <v>-76138.15097970466</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3465,9 +3564,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>352</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3476,28 +3573,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C79" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D79" t="n">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="E79" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F79" t="n">
-        <v>1108.1044</v>
+        <v>13.965</v>
       </c>
       <c r="G79" t="n">
-        <v>-58762.37212526021</v>
+        <v>-76138.15097970466</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3506,9 +3604,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>352</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3517,28 +3613,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C80" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D80" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E80" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F80" t="n">
-        <v>8379.9213</v>
+        <v>508.3249</v>
       </c>
       <c r="G80" t="n">
-        <v>-58762.37212526021</v>
+        <v>-76138.15097970466</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3547,9 +3644,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>352</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3558,28 +3653,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C81" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="D81" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="E81" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F81" t="n">
-        <v>25.2879</v>
+        <v>599.5411</v>
       </c>
       <c r="G81" t="n">
-        <v>-58762.37212526021</v>
+        <v>-76737.69207970466</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3588,9 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>352</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3599,41 +3693,38 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C82" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D82" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E82" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F82" t="n">
-        <v>2012.9554</v>
+        <v>442.2043</v>
       </c>
       <c r="G82" t="n">
-        <v>-58762.37212526021</v>
+        <v>-77179.89637970466</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>355</v>
-      </c>
-      <c r="K82" t="n">
-        <v>352</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3642,41 +3733,38 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C83" t="n">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="D83" t="n">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="E83" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F83" t="n">
-        <v>75.39960000000001</v>
+        <v>26921.8655</v>
       </c>
       <c r="G83" t="n">
-        <v>-58762.37212526021</v>
+        <v>-50258.03087970466</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>355</v>
-      </c>
-      <c r="K83" t="n">
-        <v>352</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3685,41 +3773,38 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C84" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D84" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E84" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F84" t="n">
-        <v>317.258</v>
+        <v>2709.9879</v>
       </c>
       <c r="G84" t="n">
-        <v>-58445.11412526021</v>
+        <v>-50258.03087970466</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>355</v>
-      </c>
-      <c r="K84" t="n">
-        <v>352</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3728,41 +3813,38 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="C85" t="n">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="D85" t="n">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E85" t="n">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="F85" t="n">
-        <v>263</v>
+        <v>294.2327</v>
       </c>
       <c r="G85" t="n">
-        <v>-58708.11412526021</v>
+        <v>-49963.79817970466</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>358</v>
-      </c>
-      <c r="K85" t="n">
-        <v>352</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3771,41 +3853,38 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="C86" t="n">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D86" t="n">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="E86" t="n">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="F86" t="n">
-        <v>678</v>
+        <v>2108.8154</v>
       </c>
       <c r="G86" t="n">
-        <v>-58030.11412526021</v>
+        <v>-49963.79817970466</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>356</v>
-      </c>
-      <c r="K86" t="n">
-        <v>352</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3814,41 +3893,38 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C87" t="n">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="D87" t="n">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="E87" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="F87" t="n">
-        <v>22959.3832</v>
+        <v>3922.355</v>
       </c>
       <c r="G87" t="n">
-        <v>-35070.73092526021</v>
+        <v>-46041.44317970466</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>357</v>
-      </c>
-      <c r="K87" t="n">
-        <v>352</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3857,41 +3933,38 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="C88" t="n">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D88" t="n">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="E88" t="n">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F88" t="n">
-        <v>4.5682</v>
+        <v>82.5989</v>
       </c>
       <c r="G88" t="n">
-        <v>-35070.73092526021</v>
+        <v>-45958.84427970466</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>359</v>
-      </c>
-      <c r="K88" t="n">
-        <v>352</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3900,41 +3973,38 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C89" t="n">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D89" t="n">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="E89" t="n">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F89" t="n">
-        <v>1408.1431</v>
+        <v>3730.7182</v>
       </c>
       <c r="G89" t="n">
-        <v>-35070.73092526021</v>
+        <v>-49689.56247970466</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>359</v>
-      </c>
-      <c r="K89" t="n">
-        <v>352</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3943,28 +4013,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C90" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D90" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E90" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F90" t="n">
-        <v>69.44444444444444</v>
+        <v>690</v>
       </c>
       <c r="G90" t="n">
-        <v>-35001.28648081577</v>
+        <v>-48999.56247970466</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3973,9 +4044,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>352</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3984,233 +4053,211 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C91" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D91" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E91" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F91" t="n">
-        <v>1432</v>
+        <v>310</v>
       </c>
       <c r="G91" t="n">
-        <v>-35001.28648081577</v>
+        <v>-48999.56247970466</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>352</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C92" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D92" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E92" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F92" t="n">
-        <v>8642.747501111111</v>
+        <v>4174.1956</v>
       </c>
       <c r="G92" t="n">
-        <v>-26358.53897970466</v>
+        <v>-48999.56247970466</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>352</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C93" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D93" t="n">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E93" t="n">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F93" t="n">
-        <v>21027.303</v>
+        <v>1926.0328</v>
       </c>
       <c r="G93" t="n">
-        <v>-26358.53897970466</v>
+        <v>-50925.59527970466</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>352</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C94" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D94" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E94" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F94" t="n">
-        <v>30</v>
+        <v>9011.633599999999</v>
       </c>
       <c r="G94" t="n">
-        <v>-26358.53897970466</v>
+        <v>-50925.59527970466</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>352</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C95" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D95" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E95" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F95" t="n">
-        <v>2125.4146</v>
+        <v>1382.4493</v>
       </c>
       <c r="G95" t="n">
-        <v>-24233.12437970466</v>
+        <v>-50925.59527970466</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>352</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C96" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D96" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E96" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F96" t="n">
-        <v>1000</v>
+        <v>1891.8263</v>
       </c>
       <c r="G96" t="n">
-        <v>-23233.12437970466</v>
+        <v>-50925.59527970466</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4219,244 +4266,214 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>352</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C97" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D97" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E97" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F97" t="n">
-        <v>1403.1725</v>
+        <v>1328.9426</v>
       </c>
       <c r="G97" t="n">
-        <v>-23233.12437970466</v>
+        <v>-50925.59527970466</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>352</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C98" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D98" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E98" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F98" t="n">
-        <v>145.4989</v>
+        <v>150</v>
       </c>
       <c r="G98" t="n">
-        <v>-23233.12437970466</v>
+        <v>-50775.59527970466</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>352</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C99" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D99" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E99" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F99" t="n">
-        <v>935.9999</v>
+        <v>1543.8369</v>
       </c>
       <c r="G99" t="n">
-        <v>-22297.12447970466</v>
+        <v>-52319.43217970467</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>352</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C100" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D100" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E100" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F100" t="n">
-        <v>13410.1472</v>
+        <v>1913.2962</v>
       </c>
       <c r="G100" t="n">
-        <v>-22297.12447970466</v>
+        <v>-52319.43217970467</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>352</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C101" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D101" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E101" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F101" t="n">
-        <v>605.4626</v>
+        <v>127.4139</v>
       </c>
       <c r="G101" t="n">
-        <v>-21691.66187970466</v>
+        <v>-52446.84607970466</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>352</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C102" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D102" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E102" t="n">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F102" t="n">
-        <v>5869.2547</v>
+        <v>4502.225</v>
       </c>
       <c r="G102" t="n">
-        <v>-21691.66187970466</v>
+        <v>-52446.84607970466</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4465,39 +4482,34 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>352</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C103" t="n">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D103" t="n">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E103" t="n">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F103" t="n">
-        <v>143.4934</v>
+        <v>158.5905</v>
       </c>
       <c r="G103" t="n">
-        <v>-21548.16847970466</v>
+        <v>-52446.84607970466</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4506,86 +4518,76 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>352</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C104" t="n">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D104" t="n">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E104" t="n">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F104" t="n">
-        <v>100</v>
+        <v>79.9225</v>
       </c>
       <c r="G104" t="n">
-        <v>-21448.16847970466</v>
+        <v>-52526.76857970467</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>352</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>1.040454545454546</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C105" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D105" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E105" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F105" t="n">
-        <v>634.4592</v>
+        <v>131.3653</v>
       </c>
       <c r="G105" t="n">
-        <v>-21448.16847970466</v>
+        <v>-52395.40327970467</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4593,34 +4595,35 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C106" t="n">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D106" t="n">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E106" t="n">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F106" t="n">
-        <v>846.0377</v>
+        <v>552</v>
       </c>
       <c r="G106" t="n">
-        <v>-22294.20617970466</v>
+        <v>-52947.40327970467</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4628,34 +4631,35 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C107" t="n">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D107" t="n">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E107" t="n">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F107" t="n">
-        <v>483.11</v>
+        <v>198.5051</v>
       </c>
       <c r="G107" t="n">
-        <v>-22294.20617970466</v>
+        <v>-52947.40327970467</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4663,34 +4667,35 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C108" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D108" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E108" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F108" t="n">
-        <v>1644.6244</v>
+        <v>4.6077</v>
       </c>
       <c r="G108" t="n">
-        <v>-23938.83057970466</v>
+        <v>-52947.40327970467</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4698,34 +4703,35 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C109" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D109" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E109" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F109" t="n">
-        <v>28056.0698</v>
+        <v>91.42529999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>-51994.90037970466</v>
+        <v>-52855.97797970466</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4733,34 +4739,35 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C110" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D110" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E110" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F110" t="n">
-        <v>8214</v>
+        <v>1.063</v>
       </c>
       <c r="G110" t="n">
-        <v>-60208.90037970466</v>
+        <v>-52854.91497970466</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4768,28 +4775,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C111" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D111" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E111" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F111" t="n">
-        <v>10000.0249</v>
+        <v>855.9997</v>
       </c>
       <c r="G111" t="n">
-        <v>-60208.90037970466</v>
+        <v>-52854.91497970466</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4803,28 +4811,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C112" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D112" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E112" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F112" t="n">
-        <v>231.5873</v>
+        <v>733.1019</v>
       </c>
       <c r="G112" t="n">
-        <v>-60208.90037970466</v>
+        <v>-52854.91497970466</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4838,28 +4847,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C113" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D113" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E113" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F113" t="n">
-        <v>763.4924999999999</v>
+        <v>1385.8826</v>
       </c>
       <c r="G113" t="n">
-        <v>-60208.90037970466</v>
+        <v>-52854.91497970466</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4873,28 +4883,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C114" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D114" t="n">
         <v>364</v>
       </c>
       <c r="E114" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F114" t="n">
-        <v>2904.6862</v>
+        <v>4747.348</v>
       </c>
       <c r="G114" t="n">
-        <v>-60208.90037970466</v>
+        <v>-57602.26297970466</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4908,6 +4919,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4926,10 +4938,10 @@
         <v>363</v>
       </c>
       <c r="F115" t="n">
-        <v>205.4143</v>
+        <v>119</v>
       </c>
       <c r="G115" t="n">
-        <v>-60414.31467970466</v>
+        <v>-57483.26297970466</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4943,6 +4955,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4961,10 +4974,10 @@
         <v>362</v>
       </c>
       <c r="F116" t="n">
-        <v>16381.7055</v>
+        <v>159.4304</v>
       </c>
       <c r="G116" t="n">
-        <v>-76796.02017970466</v>
+        <v>-57642.69337970466</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4978,28 +4991,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C117" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D117" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E117" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F117" t="n">
-        <v>6550.9083</v>
+        <v>128.2634</v>
       </c>
       <c r="G117" t="n">
-        <v>-76796.02017970466</v>
+        <v>-57770.95677970466</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5013,28 +5027,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C118" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D118" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E118" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F118" t="n">
-        <v>139.6497</v>
+        <v>1074.9984</v>
       </c>
       <c r="G118" t="n">
-        <v>-76656.37047970467</v>
+        <v>-58845.95517970466</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5048,28 +5063,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C119" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D119" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E119" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F119" t="n">
-        <v>24.0818</v>
+        <v>180.9877</v>
       </c>
       <c r="G119" t="n">
-        <v>-76656.37047970467</v>
+        <v>-58845.95517970466</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5083,28 +5099,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C120" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D120" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E120" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F120" t="n">
-        <v>518.2195</v>
+        <v>349.2256</v>
       </c>
       <c r="G120" t="n">
-        <v>-76138.15097970466</v>
+        <v>-59195.18077970466</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5118,1476 +5135,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>365</v>
-      </c>
-      <c r="C121" t="n">
-        <v>365</v>
-      </c>
-      <c r="D121" t="n">
-        <v>365</v>
-      </c>
-      <c r="E121" t="n">
-        <v>365</v>
-      </c>
-      <c r="F121" t="n">
-        <v>13.965</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-76138.15097970466</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>365</v>
-      </c>
-      <c r="C122" t="n">
-        <v>365</v>
-      </c>
-      <c r="D122" t="n">
-        <v>365</v>
-      </c>
-      <c r="E122" t="n">
-        <v>365</v>
-      </c>
-      <c r="F122" t="n">
-        <v>508.3249</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-76138.15097970466</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>364</v>
-      </c>
-      <c r="C123" t="n">
-        <v>364</v>
-      </c>
-      <c r="D123" t="n">
-        <v>364</v>
-      </c>
-      <c r="E123" t="n">
-        <v>364</v>
-      </c>
-      <c r="F123" t="n">
-        <v>599.5411</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-76737.69207970466</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>363</v>
-      </c>
-      <c r="C124" t="n">
-        <v>363</v>
-      </c>
-      <c r="D124" t="n">
-        <v>363</v>
-      </c>
-      <c r="E124" t="n">
-        <v>363</v>
-      </c>
-      <c r="F124" t="n">
-        <v>442.2043</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-77179.89637970466</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>364</v>
-      </c>
-      <c r="C125" t="n">
-        <v>366</v>
-      </c>
-      <c r="D125" t="n">
-        <v>366</v>
-      </c>
-      <c r="E125" t="n">
-        <v>364</v>
-      </c>
-      <c r="F125" t="n">
-        <v>26921.8655</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-50258.03087970466</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>366</v>
-      </c>
-      <c r="C126" t="n">
-        <v>366</v>
-      </c>
-      <c r="D126" t="n">
-        <v>366</v>
-      </c>
-      <c r="E126" t="n">
-        <v>366</v>
-      </c>
-      <c r="F126" t="n">
-        <v>2709.9879</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-50258.03087970466</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>367</v>
-      </c>
-      <c r="C127" t="n">
-        <v>367</v>
-      </c>
-      <c r="D127" t="n">
-        <v>367</v>
-      </c>
-      <c r="E127" t="n">
-        <v>367</v>
-      </c>
-      <c r="F127" t="n">
-        <v>294.2327</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-49963.79817970466</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>367</v>
-      </c>
-      <c r="C128" t="n">
-        <v>367</v>
-      </c>
-      <c r="D128" t="n">
-        <v>367</v>
-      </c>
-      <c r="E128" t="n">
-        <v>367</v>
-      </c>
-      <c r="F128" t="n">
-        <v>2108.8154</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-49963.79817970466</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>368</v>
-      </c>
-      <c r="C129" t="n">
-        <v>368</v>
-      </c>
-      <c r="D129" t="n">
-        <v>368</v>
-      </c>
-      <c r="E129" t="n">
-        <v>368</v>
-      </c>
-      <c r="F129" t="n">
-        <v>3922.355</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-46041.44317970466</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>369</v>
-      </c>
-      <c r="C130" t="n">
-        <v>369</v>
-      </c>
-      <c r="D130" t="n">
-        <v>369</v>
-      </c>
-      <c r="E130" t="n">
-        <v>369</v>
-      </c>
-      <c r="F130" t="n">
-        <v>82.5989</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-45958.84427970466</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>368</v>
-      </c>
-      <c r="C131" t="n">
-        <v>367</v>
-      </c>
-      <c r="D131" t="n">
-        <v>368</v>
-      </c>
-      <c r="E131" t="n">
-        <v>367</v>
-      </c>
-      <c r="F131" t="n">
-        <v>3730.7182</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-49689.56247970466</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>368</v>
-      </c>
-      <c r="C132" t="n">
-        <v>368</v>
-      </c>
-      <c r="D132" t="n">
-        <v>368</v>
-      </c>
-      <c r="E132" t="n">
-        <v>368</v>
-      </c>
-      <c r="F132" t="n">
-        <v>690</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-48999.56247970466</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>368</v>
-      </c>
-      <c r="C133" t="n">
-        <v>368</v>
-      </c>
-      <c r="D133" t="n">
-        <v>368</v>
-      </c>
-      <c r="E133" t="n">
-        <v>368</v>
-      </c>
-      <c r="F133" t="n">
-        <v>310</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-48999.56247970466</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>368</v>
-      </c>
-      <c r="C134" t="n">
-        <v>368</v>
-      </c>
-      <c r="D134" t="n">
-        <v>368</v>
-      </c>
-      <c r="E134" t="n">
-        <v>368</v>
-      </c>
-      <c r="F134" t="n">
-        <v>4174.1956</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-48999.56247970466</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>367</v>
-      </c>
-      <c r="C135" t="n">
-        <v>366</v>
-      </c>
-      <c r="D135" t="n">
-        <v>367</v>
-      </c>
-      <c r="E135" t="n">
-        <v>366</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1926.0328</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-50925.59527970466</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>366</v>
-      </c>
-      <c r="C136" t="n">
-        <v>366</v>
-      </c>
-      <c r="D136" t="n">
-        <v>366</v>
-      </c>
-      <c r="E136" t="n">
-        <v>366</v>
-      </c>
-      <c r="F136" t="n">
-        <v>9011.633599999999</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-50925.59527970466</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>366</v>
-      </c>
-      <c r="C137" t="n">
-        <v>366</v>
-      </c>
-      <c r="D137" t="n">
-        <v>366</v>
-      </c>
-      <c r="E137" t="n">
-        <v>366</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1382.4493</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-50925.59527970466</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>368</v>
-      </c>
-      <c r="C138" t="n">
-        <v>366</v>
-      </c>
-      <c r="D138" t="n">
-        <v>368</v>
-      </c>
-      <c r="E138" t="n">
-        <v>366</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1891.8263</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-50925.59527970466</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>366</v>
-      </c>
-      <c r="C139" t="n">
-        <v>366</v>
-      </c>
-      <c r="D139" t="n">
-        <v>366</v>
-      </c>
-      <c r="E139" t="n">
-        <v>366</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1328.9426</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-50925.59527970466</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>368</v>
-      </c>
-      <c r="C140" t="n">
-        <v>368</v>
-      </c>
-      <c r="D140" t="n">
-        <v>368</v>
-      </c>
-      <c r="E140" t="n">
-        <v>368</v>
-      </c>
-      <c r="F140" t="n">
-        <v>150</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-50775.59527970466</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>364</v>
-      </c>
-      <c r="C141" t="n">
-        <v>364</v>
-      </c>
-      <c r="D141" t="n">
-        <v>364</v>
-      </c>
-      <c r="E141" t="n">
-        <v>364</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1543.8369</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-52319.43217970467</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>364</v>
-      </c>
-      <c r="C142" t="n">
-        <v>364</v>
-      </c>
-      <c r="D142" t="n">
-        <v>364</v>
-      </c>
-      <c r="E142" t="n">
-        <v>363</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1913.2962</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-52319.43217970467</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>363</v>
-      </c>
-      <c r="C143" t="n">
-        <v>363</v>
-      </c>
-      <c r="D143" t="n">
-        <v>363</v>
-      </c>
-      <c r="E143" t="n">
-        <v>363</v>
-      </c>
-      <c r="F143" t="n">
-        <v>127.4139</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-52446.84607970466</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>363</v>
-      </c>
-      <c r="C144" t="n">
-        <v>363</v>
-      </c>
-      <c r="D144" t="n">
-        <v>363</v>
-      </c>
-      <c r="E144" t="n">
-        <v>361</v>
-      </c>
-      <c r="F144" t="n">
-        <v>4502.225</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-52446.84607970466</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>363</v>
-      </c>
-      <c r="C145" t="n">
-        <v>363</v>
-      </c>
-      <c r="D145" t="n">
-        <v>363</v>
-      </c>
-      <c r="E145" t="n">
-        <v>363</v>
-      </c>
-      <c r="F145" t="n">
-        <v>158.5905</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-52446.84607970466</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>362</v>
-      </c>
-      <c r="C146" t="n">
-        <v>362</v>
-      </c>
-      <c r="D146" t="n">
-        <v>362</v>
-      </c>
-      <c r="E146" t="n">
-        <v>362</v>
-      </c>
-      <c r="F146" t="n">
-        <v>79.9225</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-52526.76857970467</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>364</v>
-      </c>
-      <c r="C147" t="n">
-        <v>364</v>
-      </c>
-      <c r="D147" t="n">
-        <v>364</v>
-      </c>
-      <c r="E147" t="n">
-        <v>364</v>
-      </c>
-      <c r="F147" t="n">
-        <v>131.3653</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-52395.40327970467</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>363</v>
-      </c>
-      <c r="C148" t="n">
-        <v>363</v>
-      </c>
-      <c r="D148" t="n">
-        <v>363</v>
-      </c>
-      <c r="E148" t="n">
-        <v>363</v>
-      </c>
-      <c r="F148" t="n">
-        <v>552</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-52947.40327970467</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>363</v>
-      </c>
-      <c r="C149" t="n">
-        <v>363</v>
-      </c>
-      <c r="D149" t="n">
-        <v>363</v>
-      </c>
-      <c r="E149" t="n">
-        <v>363</v>
-      </c>
-      <c r="F149" t="n">
-        <v>198.5051</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-52947.40327970467</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>363</v>
-      </c>
-      <c r="C150" t="n">
-        <v>363</v>
-      </c>
-      <c r="D150" t="n">
-        <v>363</v>
-      </c>
-      <c r="E150" t="n">
-        <v>363</v>
-      </c>
-      <c r="F150" t="n">
-        <v>4.6077</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-52947.40327970467</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>364</v>
-      </c>
-      <c r="C151" t="n">
-        <v>364</v>
-      </c>
-      <c r="D151" t="n">
-        <v>364</v>
-      </c>
-      <c r="E151" t="n">
-        <v>364</v>
-      </c>
-      <c r="F151" t="n">
-        <v>91.42529999999999</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-52855.97797970466</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>365</v>
-      </c>
-      <c r="C152" t="n">
-        <v>365</v>
-      </c>
-      <c r="D152" t="n">
-        <v>365</v>
-      </c>
-      <c r="E152" t="n">
-        <v>365</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1.063</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-52854.91497970466</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>365</v>
-      </c>
-      <c r="C153" t="n">
-        <v>365</v>
-      </c>
-      <c r="D153" t="n">
-        <v>365</v>
-      </c>
-      <c r="E153" t="n">
-        <v>365</v>
-      </c>
-      <c r="F153" t="n">
-        <v>855.9997</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-52854.91497970466</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>365</v>
-      </c>
-      <c r="C154" t="n">
-        <v>365</v>
-      </c>
-      <c r="D154" t="n">
-        <v>365</v>
-      </c>
-      <c r="E154" t="n">
-        <v>365</v>
-      </c>
-      <c r="F154" t="n">
-        <v>733.1019</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-52854.91497970466</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>365</v>
-      </c>
-      <c r="C155" t="n">
-        <v>365</v>
-      </c>
-      <c r="D155" t="n">
-        <v>365</v>
-      </c>
-      <c r="E155" t="n">
-        <v>365</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1385.8826</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-52854.91497970466</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>364</v>
-      </c>
-      <c r="C156" t="n">
-        <v>361</v>
-      </c>
-      <c r="D156" t="n">
-        <v>364</v>
-      </c>
-      <c r="E156" t="n">
-        <v>361</v>
-      </c>
-      <c r="F156" t="n">
-        <v>4747.348</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-57602.26297970466</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>363</v>
-      </c>
-      <c r="C157" t="n">
-        <v>363</v>
-      </c>
-      <c r="D157" t="n">
-        <v>363</v>
-      </c>
-      <c r="E157" t="n">
-        <v>363</v>
-      </c>
-      <c r="F157" t="n">
-        <v>119</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-57483.26297970466</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>362</v>
-      </c>
-      <c r="C158" t="n">
-        <v>362</v>
-      </c>
-      <c r="D158" t="n">
-        <v>362</v>
-      </c>
-      <c r="E158" t="n">
-        <v>362</v>
-      </c>
-      <c r="F158" t="n">
-        <v>159.4304</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-57642.69337970466</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>360</v>
-      </c>
-      <c r="C159" t="n">
-        <v>360</v>
-      </c>
-      <c r="D159" t="n">
-        <v>360</v>
-      </c>
-      <c r="E159" t="n">
-        <v>360</v>
-      </c>
-      <c r="F159" t="n">
-        <v>128.2634</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-57770.95677970466</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>360</v>
-      </c>
-      <c r="C160" t="n">
-        <v>359</v>
-      </c>
-      <c r="D160" t="n">
-        <v>360</v>
-      </c>
-      <c r="E160" t="n">
-        <v>358</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1074.9984</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-58845.95517970466</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>359</v>
-      </c>
-      <c r="C161" t="n">
-        <v>359</v>
-      </c>
-      <c r="D161" t="n">
-        <v>359</v>
-      </c>
-      <c r="E161" t="n">
-        <v>359</v>
-      </c>
-      <c r="F161" t="n">
-        <v>180.9877</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-58845.95517970466</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>357</v>
-      </c>
-      <c r="C162" t="n">
-        <v>357</v>
-      </c>
-      <c r="D162" t="n">
-        <v>357</v>
-      </c>
-      <c r="E162" t="n">
-        <v>357</v>
-      </c>
-      <c r="F162" t="n">
-        <v>349.2256</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-59195.18077970466</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
+      <c r="N120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-19 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C2" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D2" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E2" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F2" t="n">
-        <v>3.9288</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>-50715.77187970465</v>
+        <v>-57731.71016716638</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -486,10 +486,10 @@
         <v>353</v>
       </c>
       <c r="F3" t="n">
-        <v>418.4847</v>
+        <v>2760.9488</v>
       </c>
       <c r="G3" t="n">
-        <v>-50715.77187970465</v>
+        <v>-60492.65896716638</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,38 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C4" t="n">
         <v>352</v>
       </c>
       <c r="D4" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E4" t="n">
         <v>352</v>
       </c>
       <c r="F4" t="n">
-        <v>565.5746</v>
+        <v>1853.4998</v>
       </c>
       <c r="G4" t="n">
-        <v>-51281.34647970465</v>
+        <v>-62346.15876716638</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>353</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -555,35 +549,29 @@
         <v>352</v>
       </c>
       <c r="C5" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D5" t="n">
         <v>352</v>
       </c>
       <c r="E5" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F5" t="n">
-        <v>274.4457</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>-51555.79217970464</v>
+        <v>-62346.15876716638</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>352</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -594,38 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C6" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D6" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E6" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F6" t="n">
-        <v>300</v>
+        <v>191.2615</v>
       </c>
       <c r="G6" t="n">
-        <v>-51555.79217970464</v>
+        <v>-62346.15876716638</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>351</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -636,38 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C7" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D7" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E7" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F7" t="n">
-        <v>437.4643</v>
+        <v>92.86</v>
       </c>
       <c r="G7" t="n">
-        <v>-51118.32787970464</v>
+        <v>-62439.01876716638</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>351</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -678,38 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C8" t="n">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D8" t="n">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E8" t="n">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F8" t="n">
-        <v>480.8463</v>
+        <v>41.3735</v>
       </c>
       <c r="G8" t="n">
-        <v>-51118.32787970464</v>
+        <v>-62480.39226716638</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>353</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -720,38 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C9" t="n">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D9" t="n">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E9" t="n">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F9" t="n">
-        <v>8.3248</v>
+        <v>10886.5293</v>
       </c>
       <c r="G9" t="n">
-        <v>-51110.00307970464</v>
+        <v>-51593.86296716638</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>353</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -762,38 +726,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C10" t="n">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D10" t="n">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E10" t="n">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F10" t="n">
-        <v>8.477399999999999</v>
+        <v>387.7839</v>
       </c>
       <c r="G10" t="n">
-        <v>-51110.00307970464</v>
+        <v>-51593.86296716638</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>354</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -804,38 +762,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C11" t="n">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D11" t="n">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E11" t="n">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F11" t="n">
-        <v>46.0839</v>
+        <v>2113.1689</v>
       </c>
       <c r="G11" t="n">
-        <v>-51110.00307970464</v>
+        <v>-51593.86296716638</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>354</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -846,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C12" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D12" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E12" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F12" t="n">
-        <v>603.5869</v>
+        <v>1084.9971</v>
       </c>
       <c r="G12" t="n">
-        <v>-51713.58997970464</v>
+        <v>-50508.86586716638</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -870,14 +822,12 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>354</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="K12" t="n">
+        <v>348</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -888,22 +838,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C13" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D13" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E13" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F13" t="n">
-        <v>157.6168</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="n">
-        <v>-51555.97317970464</v>
+        <v>-50508.86586716638</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -912,10 +862,12 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>348</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -928,34 +880,38 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C14" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D14" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E14" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F14" t="n">
-        <v>1232.6637</v>
+        <v>524</v>
       </c>
       <c r="G14" t="n">
-        <v>-51555.97317970464</v>
+        <v>-50508.86586716638</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>350</v>
+      </c>
+      <c r="K14" t="n">
+        <v>348</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -968,22 +924,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C15" t="n">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D15" t="n">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E15" t="n">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F15" t="n">
-        <v>106.8406</v>
+        <v>2472.8099</v>
       </c>
       <c r="G15" t="n">
-        <v>-51662.81377970464</v>
+        <v>-50508.86586716638</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -993,11 +949,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1008,36 +960,36 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C16" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D16" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E16" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F16" t="n">
-        <v>602.0685</v>
+        <v>746.9235</v>
       </c>
       <c r="G16" t="n">
-        <v>-51060.74527970464</v>
+        <v>-50508.86586716638</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="n">
+        <v>350</v>
+      </c>
+      <c r="K16" t="n">
+        <v>350</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1048,34 +1000,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C17" t="n">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D17" t="n">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E17" t="n">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F17" t="n">
-        <v>390</v>
+        <v>154.7035</v>
       </c>
       <c r="G17" t="n">
-        <v>-51060.74527970464</v>
+        <v>-50354.16236716638</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>350</v>
+      </c>
+      <c r="K17" t="n">
+        <v>350</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1088,22 +1044,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C18" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D18" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E18" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F18" t="n">
-        <v>57.0046</v>
+        <v>293.0679</v>
       </c>
       <c r="G18" t="n">
-        <v>-51003.74067970464</v>
+        <v>-50061.09446716637</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1112,10 +1068,12 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>350</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1128,22 +1086,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C19" t="n">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D19" t="n">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E19" t="n">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F19" t="n">
-        <v>68.95959999999999</v>
+        <v>34.2083</v>
       </c>
       <c r="G19" t="n">
-        <v>-51072.70027970464</v>
+        <v>-50095.30276716637</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1153,11 +1111,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1122,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C20" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D20" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E20" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F20" t="n">
-        <v>257</v>
+        <v>48.7053</v>
       </c>
       <c r="G20" t="n">
-        <v>-51072.70027970464</v>
+        <v>-50046.59746716637</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1193,11 +1147,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1208,38 +1158,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C21" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D21" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E21" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F21" t="n">
-        <v>2414.344</v>
+        <v>211.2775</v>
       </c>
       <c r="G21" t="n">
-        <v>-48658.35627970465</v>
+        <v>-50257.87496716637</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>356</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1250,38 +1194,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C22" t="n">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D22" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E22" t="n">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F22" t="n">
-        <v>1704.1263</v>
+        <v>1350</v>
       </c>
       <c r="G22" t="n">
-        <v>-48658.35627970465</v>
+        <v>-51607.87496716637</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>357</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1292,38 +1230,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C23" t="n">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D23" t="n">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E23" t="n">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F23" t="n">
-        <v>237.0366</v>
+        <v>4000</v>
       </c>
       <c r="G23" t="n">
-        <v>-48658.35627970465</v>
+        <v>-55607.87496716637</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>357</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1334,38 +1266,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C24" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D24" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E24" t="n">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F24" t="n">
-        <v>5406.864154444444</v>
+        <v>3340.2424</v>
       </c>
       <c r="G24" t="n">
-        <v>-43251.49212526021</v>
+        <v>-55607.87496716637</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>357</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1376,38 +1302,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C25" t="n">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D25" t="n">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E25" t="n">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F25" t="n">
-        <v>608.7151</v>
+        <v>2237.1386</v>
       </c>
       <c r="G25" t="n">
-        <v>-43860.20722526021</v>
+        <v>-55607.87496716637</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>360</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1418,38 +1338,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C26" t="n">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D26" t="n">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E26" t="n">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F26" t="n">
-        <v>23.2667</v>
+        <v>760</v>
       </c>
       <c r="G26" t="n">
-        <v>-43860.20722526021</v>
+        <v>-55607.87496716637</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>357</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1460,38 +1374,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C27" t="n">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D27" t="n">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E27" t="n">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F27" t="n">
-        <v>6179.5175</v>
+        <v>235</v>
       </c>
       <c r="G27" t="n">
-        <v>-43860.20722526021</v>
+        <v>-55607.87496716637</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>357</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1502,38 +1410,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C28" t="n">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D28" t="n">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E28" t="n">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F28" t="n">
-        <v>422.6136</v>
+        <v>7692.307692307692</v>
       </c>
       <c r="G28" t="n">
-        <v>-43437.59362526021</v>
+        <v>-47915.56727485867</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>357</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1544,38 +1446,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C29" t="n">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D29" t="n">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E29" t="n">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F29" t="n">
-        <v>2989.4929</v>
+        <v>2992.6261</v>
       </c>
       <c r="G29" t="n">
-        <v>-43437.59362526021</v>
+        <v>-50908.19337485867</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>358</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1586,38 +1482,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C30" t="n">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D30" t="n">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E30" t="n">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F30" t="n">
-        <v>3485</v>
+        <v>549.9239</v>
       </c>
       <c r="G30" t="n">
-        <v>-43437.59362526021</v>
+        <v>-50358.26947485867</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>358</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1628,38 +1518,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C31" t="n">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D31" t="n">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E31" t="n">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F31" t="n">
-        <v>3204.2866</v>
+        <v>1339.1363</v>
       </c>
       <c r="G31" t="n">
-        <v>-46641.88022526021</v>
+        <v>-51697.40577485867</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>358</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1670,38 +1554,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C32" t="n">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D32" t="n">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E32" t="n">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F32" t="n">
-        <v>202</v>
+        <v>3164.9498</v>
       </c>
       <c r="G32" t="n">
-        <v>-46439.88022526021</v>
+        <v>-51697.40577485867</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>357</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1712,38 +1590,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C33" t="n">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D33" t="n">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E33" t="n">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F33" t="n">
-        <v>6425.7502</v>
+        <v>673.2468</v>
       </c>
       <c r="G33" t="n">
-        <v>-52865.63042526021</v>
+        <v>-51697.40577485867</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>359</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1754,22 +1626,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C34" t="n">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D34" t="n">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E34" t="n">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F34" t="n">
-        <v>2085.4433</v>
+        <v>4976.5469</v>
       </c>
       <c r="G34" t="n">
-        <v>-50780.18712526021</v>
+        <v>-51697.40577485867</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1778,14 +1650,12 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>357</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="K34" t="n">
+        <v>347</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1796,22 +1666,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C35" t="n">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D35" t="n">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E35" t="n">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F35" t="n">
-        <v>97.5223</v>
+        <v>597</v>
       </c>
       <c r="G35" t="n">
-        <v>-50780.18712526021</v>
+        <v>-51100.40577485867</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -1820,12 +1690,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>358</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+        <v>347</v>
+      </c>
+      <c r="K35" t="n">
+        <v>347</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M35" t="n">
@@ -1838,22 +1710,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C36" t="n">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D36" t="n">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E36" t="n">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F36" t="n">
-        <v>7982.185</v>
+        <v>341</v>
       </c>
       <c r="G36" t="n">
-        <v>-58762.37212526021</v>
+        <v>-50759.40577485867</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1862,12 +1734,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>358</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+        <v>348</v>
+      </c>
+      <c r="K36" t="n">
+        <v>347</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M36" t="n">
@@ -1880,22 +1754,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C37" t="n">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D37" t="n">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E37" t="n">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F37" t="n">
-        <v>1108.1044</v>
+        <v>316.8903</v>
       </c>
       <c r="G37" t="n">
-        <v>-58762.37212526021</v>
+        <v>-50442.51547485867</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1904,14 +1778,12 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>355</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="K37" t="n">
+        <v>349</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1922,22 +1794,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C38" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D38" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E38" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F38" t="n">
-        <v>8379.9213</v>
+        <v>1479.1572</v>
       </c>
       <c r="G38" t="n">
-        <v>-58762.37212526021</v>
+        <v>-48963.35827485867</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -1946,12 +1818,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>355</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+        <v>352</v>
+      </c>
+      <c r="K38" t="n">
+        <v>349</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M38" t="n">
@@ -1964,22 +1838,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C39" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D39" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E39" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F39" t="n">
-        <v>25.2879</v>
+        <v>1302.1678</v>
       </c>
       <c r="G39" t="n">
-        <v>-58762.37212526021</v>
+        <v>-48963.35827485867</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1988,12 +1862,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>355</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="K39" t="n">
+        <v>349</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -2006,38 +1882,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C40" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D40" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E40" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F40" t="n">
-        <v>2012.9554</v>
+        <v>2495.2091</v>
       </c>
       <c r="G40" t="n">
-        <v>-58762.37212526021</v>
+        <v>-48963.35827485867</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>355</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2048,38 +1918,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C41" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D41" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E41" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F41" t="n">
-        <v>75.39960000000001</v>
+        <v>258.4006</v>
       </c>
       <c r="G41" t="n">
-        <v>-58762.37212526021</v>
+        <v>-48704.95767485867</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>355</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2090,38 +1954,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C42" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D42" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E42" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F42" t="n">
-        <v>317.258</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>-58445.11412526021</v>
+        <v>-48703.95767485867</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>355</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2144,10 +2002,10 @@
         <v>356</v>
       </c>
       <c r="F43" t="n">
-        <v>263</v>
+        <v>1404.4943</v>
       </c>
       <c r="G43" t="n">
-        <v>-58708.11412526021</v>
+        <v>-48703.95767485867</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2157,11 +2015,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2172,38 +2026,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C44" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D44" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E44" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F44" t="n">
-        <v>678</v>
+        <v>180.3563</v>
       </c>
       <c r="G44" t="n">
-        <v>-58030.11412526021</v>
+        <v>-48884.31397485867</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>356</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2214,38 +2062,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>355</v>
+      </c>
+      <c r="C45" t="n">
         <v>357</v>
       </c>
-      <c r="C45" t="n">
-        <v>359</v>
-      </c>
       <c r="D45" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E45" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F45" t="n">
-        <v>22959.3832</v>
+        <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>-35070.73092526021</v>
+        <v>-48873.31397485867</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>357</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2256,38 +2098,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C46" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D46" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E46" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F46" t="n">
-        <v>4.5682</v>
+        <v>321.258</v>
       </c>
       <c r="G46" t="n">
-        <v>-35070.73092526021</v>
+        <v>-48873.31397485867</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>359</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2298,38 +2134,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C47" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D47" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E47" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F47" t="n">
-        <v>1408.1431</v>
+        <v>160</v>
       </c>
       <c r="G47" t="n">
-        <v>-35070.73092526021</v>
+        <v>-49033.31397485867</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>359</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2340,22 +2170,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C48" t="n">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D48" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E48" t="n">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F48" t="n">
-        <v>69.44444444444444</v>
+        <v>1058.549392957746</v>
       </c>
       <c r="G48" t="n">
-        <v>-35001.28648081577</v>
+        <v>-50091.86336781642</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2365,11 +2195,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2380,22 +2206,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C49" t="n">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D49" t="n">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E49" t="n">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F49" t="n">
-        <v>1432</v>
+        <v>269.1998</v>
       </c>
       <c r="G49" t="n">
-        <v>-35001.28648081577</v>
+        <v>-50361.06316781642</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2405,11 +2231,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2420,22 +2242,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C50" t="n">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D50" t="n">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E50" t="n">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F50" t="n">
-        <v>8642.747501111111</v>
+        <v>112</v>
       </c>
       <c r="G50" t="n">
-        <v>-26358.53897970466</v>
+        <v>-50361.06316781642</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2445,11 +2267,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2460,22 +2278,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C51" t="n">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D51" t="n">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E51" t="n">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F51" t="n">
-        <v>21027.303</v>
+        <v>1736.0061</v>
       </c>
       <c r="G51" t="n">
-        <v>-26358.53897970466</v>
+        <v>-50361.06316781642</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2485,11 +2303,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2500,22 +2314,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C52" t="n">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D52" t="n">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E52" t="n">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F52" t="n">
-        <v>30</v>
+        <v>1847.7699</v>
       </c>
       <c r="G52" t="n">
-        <v>-26358.53897970466</v>
+        <v>-50361.06316781642</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2525,11 +2339,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2540,22 +2350,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C53" t="n">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D53" t="n">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E53" t="n">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F53" t="n">
-        <v>2125.4146</v>
+        <v>24.1096</v>
       </c>
       <c r="G53" t="n">
-        <v>-24233.12437970466</v>
+        <v>-50361.06316781642</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2565,11 +2375,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2580,22 +2386,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C54" t="n">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D54" t="n">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E54" t="n">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>146.2913</v>
       </c>
       <c r="G54" t="n">
-        <v>-23233.12437970466</v>
+        <v>-50214.77186781642</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2605,11 +2411,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2620,22 +2422,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C55" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D55" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E55" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F55" t="n">
-        <v>1403.1725</v>
+        <v>5.633802816901408</v>
       </c>
       <c r="G55" t="n">
-        <v>-23233.12437970466</v>
+        <v>-50209.13806499952</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2645,11 +2447,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2660,22 +2458,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C56" t="n">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="D56" t="n">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E56" t="n">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="F56" t="n">
-        <v>145.4989</v>
+        <v>235.04</v>
       </c>
       <c r="G56" t="n">
-        <v>-23233.12437970466</v>
+        <v>-50444.17806499952</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2685,11 +2483,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2700,22 +2494,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C57" t="n">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D57" t="n">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="E57" t="n">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="F57" t="n">
-        <v>935.9999</v>
+        <v>14</v>
       </c>
       <c r="G57" t="n">
-        <v>-22297.12447970466</v>
+        <v>-50444.17806499952</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2725,11 +2519,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2740,22 +2530,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C58" t="n">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="D58" t="n">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="E58" t="n">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F58" t="n">
-        <v>13410.1472</v>
+        <v>9.4338</v>
       </c>
       <c r="G58" t="n">
-        <v>-22297.12447970466</v>
+        <v>-50453.61186499952</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2765,11 +2555,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2780,22 +2566,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C59" t="n">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="D59" t="n">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F59" t="n">
-        <v>605.4626</v>
+        <v>1222.6184</v>
       </c>
       <c r="G59" t="n">
-        <v>-21691.66187970466</v>
+        <v>-50453.61186499952</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2805,11 +2591,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2820,22 +2602,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C60" t="n">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D60" t="n">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="E60" t="n">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F60" t="n">
-        <v>5869.2547</v>
+        <v>66.59220000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>-21691.66187970466</v>
+        <v>-50387.01966499952</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2845,11 +2627,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2860,34 +2638,36 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C61" t="n">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="D61" t="n">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E61" t="n">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="F61" t="n">
-        <v>143.4934</v>
+        <v>863.5133</v>
       </c>
       <c r="G61" t="n">
-        <v>-21548.16847970466</v>
+        <v>-50387.01966499952</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>352</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -2900,30 +2680,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C62" t="n">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D62" t="n">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="E62" t="n">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>139.3104</v>
       </c>
       <c r="G62" t="n">
-        <v>-21448.16847970466</v>
+        <v>-50526.33006499952</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>352</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
@@ -2940,30 +2722,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C63" t="n">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="D63" t="n">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="E63" t="n">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="F63" t="n">
-        <v>634.4592</v>
+        <v>28.328611898017</v>
       </c>
       <c r="G63" t="n">
-        <v>-21448.16847970466</v>
+        <v>-50498.0014531015</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>351</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
@@ -2980,30 +2764,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C64" t="n">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="D64" t="n">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="E64" t="n">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="F64" t="n">
-        <v>846.0377</v>
+        <v>92.1449266031419</v>
       </c>
       <c r="G64" t="n">
-        <v>-22294.20617970466</v>
+        <v>-50590.14637970465</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>353</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
@@ -3020,30 +2806,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="C65" t="n">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="D65" t="n">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="E65" t="n">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="F65" t="n">
-        <v>483.11</v>
+        <v>103.9863</v>
       </c>
       <c r="G65" t="n">
-        <v>-22294.20617970466</v>
+        <v>-50590.14637970465</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>352</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
@@ -3060,30 +2848,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C66" t="n">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D66" t="n">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="E66" t="n">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F66" t="n">
-        <v>1644.6244</v>
+        <v>36</v>
       </c>
       <c r="G66" t="n">
-        <v>-23938.83057970466</v>
+        <v>-50590.14637970465</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>352</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -3100,30 +2890,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C67" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D67" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E67" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F67" t="n">
-        <v>28056.0698</v>
+        <v>716.6706</v>
       </c>
       <c r="G67" t="n">
-        <v>-51994.90037970466</v>
+        <v>-49873.47577970465</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>352</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -3140,30 +2932,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C68" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D68" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E68" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F68" t="n">
-        <v>8214</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>-60208.90037970466</v>
+        <v>-49872.47577970465</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>353</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -3180,22 +2974,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C69" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D69" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E69" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F69" t="n">
-        <v>10000.0249</v>
+        <v>1043</v>
       </c>
       <c r="G69" t="n">
-        <v>-60208.90037970466</v>
+        <v>-49872.47577970465</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3220,22 +3014,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C70" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D70" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E70" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F70" t="n">
-        <v>231.5873</v>
+        <v>59.6</v>
       </c>
       <c r="G70" t="n">
-        <v>-60208.90037970466</v>
+        <v>-49812.87577970465</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3260,22 +3054,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C71" t="n">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D71" t="n">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E71" t="n">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F71" t="n">
-        <v>763.4924999999999</v>
+        <v>63.8212</v>
       </c>
       <c r="G71" t="n">
-        <v>-60208.90037970466</v>
+        <v>-49876.69697970465</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3300,22 +3094,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C72" t="n">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D72" t="n">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E72" t="n">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F72" t="n">
-        <v>2904.6862</v>
+        <v>839.0749</v>
       </c>
       <c r="G72" t="n">
-        <v>-60208.90037970466</v>
+        <v>-50715.77187970465</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3340,22 +3134,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C73" t="n">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D73" t="n">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E73" t="n">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F73" t="n">
-        <v>205.4143</v>
+        <v>3.9288</v>
       </c>
       <c r="G73" t="n">
-        <v>-60414.31467970466</v>
+        <v>-50715.77187970465</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3380,22 +3174,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C74" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D74" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E74" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F74" t="n">
-        <v>16381.7055</v>
+        <v>418.4847</v>
       </c>
       <c r="G74" t="n">
-        <v>-76796.02017970466</v>
+        <v>-50715.77187970465</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3420,30 +3214,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C75" t="n">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D75" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E75" t="n">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F75" t="n">
-        <v>6550.9083</v>
+        <v>565.5746</v>
       </c>
       <c r="G75" t="n">
-        <v>-76796.02017970466</v>
+        <v>-51281.34647970465</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>353</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -3460,30 +3256,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C76" t="n">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D76" t="n">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E76" t="n">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F76" t="n">
-        <v>139.6497</v>
+        <v>274.4457</v>
       </c>
       <c r="G76" t="n">
-        <v>-76656.37047970467</v>
+        <v>-51555.79217970464</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>352</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3500,30 +3298,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C77" t="n">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D77" t="n">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="E77" t="n">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F77" t="n">
-        <v>24.0818</v>
+        <v>300</v>
       </c>
       <c r="G77" t="n">
-        <v>-76656.37047970467</v>
+        <v>-51555.79217970464</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>351</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -3540,30 +3340,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C78" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D78" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E78" t="n">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F78" t="n">
-        <v>518.2195</v>
+        <v>437.4643</v>
       </c>
       <c r="G78" t="n">
-        <v>-76138.15097970466</v>
+        <v>-51118.32787970464</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>351</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3580,22 +3382,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C79" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D79" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E79" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F79" t="n">
-        <v>13.965</v>
+        <v>480.8463</v>
       </c>
       <c r="G79" t="n">
-        <v>-76138.15097970466</v>
+        <v>-51118.32787970464</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3620,30 +3422,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C80" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D80" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="E80" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F80" t="n">
-        <v>508.3249</v>
+        <v>8.3248</v>
       </c>
       <c r="G80" t="n">
-        <v>-76138.15097970466</v>
+        <v>-51110.00307970464</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>353</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3660,30 +3464,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C81" t="n">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D81" t="n">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E81" t="n">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F81" t="n">
-        <v>599.5411</v>
+        <v>8.477399999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>-76737.69207970466</v>
+        <v>-51110.00307970464</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>354</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3700,22 +3506,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C82" t="n">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D82" t="n">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E82" t="n">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F82" t="n">
-        <v>442.2043</v>
+        <v>46.0839</v>
       </c>
       <c r="G82" t="n">
-        <v>-77179.89637970466</v>
+        <v>-51110.00307970464</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3740,30 +3546,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C83" t="n">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="D83" t="n">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="E83" t="n">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F83" t="n">
-        <v>26921.8655</v>
+        <v>603.5869</v>
       </c>
       <c r="G83" t="n">
-        <v>-50258.03087970466</v>
+        <v>-51713.58997970464</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>354</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3780,30 +3588,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C84" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D84" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E84" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="F84" t="n">
-        <v>2709.9879</v>
+        <v>157.6168</v>
       </c>
       <c r="G84" t="n">
-        <v>-50258.03087970466</v>
+        <v>-51555.97317970464</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>353</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -3820,22 +3630,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C85" t="n">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D85" t="n">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E85" t="n">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F85" t="n">
-        <v>294.2327</v>
+        <v>1232.6637</v>
       </c>
       <c r="G85" t="n">
-        <v>-49963.79817970466</v>
+        <v>-51555.97317970464</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3860,22 +3670,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C86" t="n">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D86" t="n">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="E86" t="n">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F86" t="n">
-        <v>2108.8154</v>
+        <v>106.8406</v>
       </c>
       <c r="G86" t="n">
-        <v>-49963.79817970466</v>
+        <v>-51662.81377970464</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3900,22 +3710,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C87" t="n">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="D87" t="n">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="E87" t="n">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="F87" t="n">
-        <v>3922.355</v>
+        <v>602.0685</v>
       </c>
       <c r="G87" t="n">
-        <v>-46041.44317970466</v>
+        <v>-51060.74527970464</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3940,22 +3750,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="C88" t="n">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="D88" t="n">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="E88" t="n">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="F88" t="n">
-        <v>82.5989</v>
+        <v>390</v>
       </c>
       <c r="G88" t="n">
-        <v>-45958.84427970466</v>
+        <v>-51060.74527970464</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3980,22 +3790,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C89" t="n">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D89" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E89" t="n">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F89" t="n">
-        <v>3730.7182</v>
+        <v>57.0046</v>
       </c>
       <c r="G89" t="n">
-        <v>-49689.56247970466</v>
+        <v>-51003.74067970464</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4020,22 +3830,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C90" t="n">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D90" t="n">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="E90" t="n">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="F90" t="n">
-        <v>690</v>
+        <v>68.95959999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-48999.56247970466</v>
+        <v>-51072.70027970464</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4060,37 +3870,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C91" t="n">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D91" t="n">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="E91" t="n">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="F91" t="n">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="G91" t="n">
-        <v>-48999.56247970466</v>
+        <v>-51072.70027970464</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
       <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -4098,32 +3910,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C92" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D92" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E92" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F92" t="n">
-        <v>4174.1956</v>
+        <v>2414.344</v>
       </c>
       <c r="G92" t="n">
-        <v>-48999.56247970466</v>
+        <v>-48658.35627970465</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4134,32 +3950,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C93" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D93" t="n">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E93" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F93" t="n">
-        <v>1926.0328</v>
+        <v>1704.1263</v>
       </c>
       <c r="G93" t="n">
-        <v>-50925.59527970466</v>
+        <v>-48658.35627970465</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4170,32 +3990,36 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C94" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D94" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E94" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F94" t="n">
-        <v>9011.633599999999</v>
+        <v>237.0366</v>
       </c>
       <c r="G94" t="n">
-        <v>-50925.59527970466</v>
+        <v>-48658.35627970465</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4206,32 +4030,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C95" t="n">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D95" t="n">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E95" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F95" t="n">
-        <v>1382.4493</v>
+        <v>5406.864154444444</v>
       </c>
       <c r="G95" t="n">
-        <v>-50925.59527970466</v>
+        <v>-43251.49212526021</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4242,22 +4070,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C96" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D96" t="n">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E96" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F96" t="n">
-        <v>1891.8263</v>
+        <v>608.7151</v>
       </c>
       <c r="G96" t="n">
-        <v>-50925.59527970466</v>
+        <v>-43860.20722526021</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4267,7 +4095,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4278,32 +4110,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C97" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D97" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E97" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F97" t="n">
-        <v>1328.9426</v>
+        <v>23.2667</v>
       </c>
       <c r="G97" t="n">
-        <v>-50925.59527970466</v>
+        <v>-43860.20722526021</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4314,32 +4150,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C98" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D98" t="n">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E98" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F98" t="n">
-        <v>150</v>
+        <v>6179.5175</v>
       </c>
       <c r="G98" t="n">
-        <v>-50775.59527970466</v>
+        <v>-43860.20722526021</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4350,32 +4190,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C99" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D99" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E99" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F99" t="n">
-        <v>1543.8369</v>
+        <v>422.6136</v>
       </c>
       <c r="G99" t="n">
-        <v>-52319.43217970467</v>
+        <v>-43437.59362526021</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4386,32 +4230,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C100" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D100" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E100" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F100" t="n">
-        <v>1913.2962</v>
+        <v>2989.4929</v>
       </c>
       <c r="G100" t="n">
-        <v>-52319.43217970467</v>
+        <v>-43437.59362526021</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4422,32 +4270,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C101" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D101" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E101" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F101" t="n">
-        <v>127.4139</v>
+        <v>3485</v>
       </c>
       <c r="G101" t="n">
-        <v>-52446.84607970466</v>
+        <v>-43437.59362526021</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4458,22 +4310,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C102" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D102" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E102" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F102" t="n">
-        <v>4502.225</v>
+        <v>3204.2866</v>
       </c>
       <c r="G102" t="n">
-        <v>-52446.84607970466</v>
+        <v>-46641.88022526021</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4483,7 +4335,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4494,22 +4350,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C103" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D103" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E103" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F103" t="n">
-        <v>158.5905</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
-        <v>-52446.84607970466</v>
+        <v>-46439.88022526021</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4519,7 +4375,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4530,22 +4390,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C104" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D104" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E104" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F104" t="n">
-        <v>79.9225</v>
+        <v>6425.7502</v>
       </c>
       <c r="G104" t="n">
-        <v>-52526.76857970467</v>
+        <v>-52865.63042526021</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4555,7 +4415,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4566,22 +4430,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C105" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D105" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E105" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F105" t="n">
-        <v>131.3653</v>
+        <v>2085.4433</v>
       </c>
       <c r="G105" t="n">
-        <v>-52395.40327970467</v>
+        <v>-50780.18712526021</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4591,7 +4455,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4602,22 +4470,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C106" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D106" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E106" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F106" t="n">
-        <v>552</v>
+        <v>97.5223</v>
       </c>
       <c r="G106" t="n">
-        <v>-52947.40327970467</v>
+        <v>-50780.18712526021</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4627,7 +4495,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4638,22 +4510,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C107" t="n">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D107" t="n">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E107" t="n">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F107" t="n">
-        <v>198.5051</v>
+        <v>7982.185</v>
       </c>
       <c r="G107" t="n">
-        <v>-52947.40327970467</v>
+        <v>-58762.37212526021</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4663,7 +4535,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4674,22 +4550,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C108" t="n">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D108" t="n">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E108" t="n">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F108" t="n">
-        <v>4.6077</v>
+        <v>1108.1044</v>
       </c>
       <c r="G108" t="n">
-        <v>-52947.40327970467</v>
+        <v>-58762.37212526021</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4699,7 +4575,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4710,22 +4590,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C109" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D109" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E109" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F109" t="n">
-        <v>91.42529999999999</v>
+        <v>8379.9213</v>
       </c>
       <c r="G109" t="n">
-        <v>-52855.97797970466</v>
+        <v>-58762.37212526021</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4735,7 +4615,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4746,22 +4630,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C110" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D110" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E110" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F110" t="n">
-        <v>1.063</v>
+        <v>25.2879</v>
       </c>
       <c r="G110" t="n">
-        <v>-52854.91497970466</v>
+        <v>-58762.37212526021</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4771,7 +4655,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4782,22 +4670,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C111" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D111" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E111" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F111" t="n">
-        <v>855.9997</v>
+        <v>2012.9554</v>
       </c>
       <c r="G111" t="n">
-        <v>-52854.91497970466</v>
+        <v>-58762.37212526021</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4807,7 +4695,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4818,22 +4710,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C112" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D112" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E112" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F112" t="n">
-        <v>733.1019</v>
+        <v>75.39960000000001</v>
       </c>
       <c r="G112" t="n">
-        <v>-52854.91497970466</v>
+        <v>-58762.37212526021</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4843,7 +4735,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4854,22 +4750,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C113" t="n">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D113" t="n">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E113" t="n">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F113" t="n">
-        <v>1385.8826</v>
+        <v>317.258</v>
       </c>
       <c r="G113" t="n">
-        <v>-52854.91497970466</v>
+        <v>-58445.11412526021</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4879,7 +4775,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4890,22 +4790,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C114" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D114" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E114" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F114" t="n">
-        <v>4747.348</v>
+        <v>263</v>
       </c>
       <c r="G114" t="n">
-        <v>-57602.26297970466</v>
+        <v>-58708.11412526021</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4915,7 +4815,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4926,22 +4830,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C115" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D115" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E115" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F115" t="n">
-        <v>119</v>
+        <v>678</v>
       </c>
       <c r="G115" t="n">
-        <v>-57483.26297970466</v>
+        <v>-58030.11412526021</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4951,7 +4855,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4962,22 +4870,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C116" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D116" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E116" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F116" t="n">
-        <v>159.4304</v>
+        <v>22959.3832</v>
       </c>
       <c r="G116" t="n">
-        <v>-57642.69337970466</v>
+        <v>-35070.73092526021</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4987,7 +4895,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4998,22 +4910,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C117" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D117" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E117" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F117" t="n">
-        <v>128.2634</v>
+        <v>4.5682</v>
       </c>
       <c r="G117" t="n">
-        <v>-57770.95677970466</v>
+        <v>-35070.73092526021</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5023,7 +4935,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5034,22 +4950,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C118" t="n">
         <v>359</v>
       </c>
       <c r="D118" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E118" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F118" t="n">
-        <v>1074.9984</v>
+        <v>1408.1431</v>
       </c>
       <c r="G118" t="n">
-        <v>-58845.95517970466</v>
+        <v>-35070.73092526021</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5059,7 +4975,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5070,22 +4990,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C119" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D119" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E119" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F119" t="n">
-        <v>180.9877</v>
+        <v>69.44444444444444</v>
       </c>
       <c r="G119" t="n">
-        <v>-58845.95517970466</v>
+        <v>-35001.28648081577</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5095,7 +5015,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5106,22 +5030,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C120" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D120" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E120" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F120" t="n">
-        <v>349.2256</v>
+        <v>1432</v>
       </c>
       <c r="G120" t="n">
-        <v>-59195.18077970466</v>
+        <v>-35001.28648081577</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5131,11 +5055,2609 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
       <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>360</v>
+      </c>
+      <c r="C121" t="n">
+        <v>362</v>
+      </c>
+      <c r="D121" t="n">
+        <v>362</v>
+      </c>
+      <c r="E121" t="n">
+        <v>360</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8642.747501111111</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-26358.53897970466</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>361</v>
+      </c>
+      <c r="C122" t="n">
+        <v>362</v>
+      </c>
+      <c r="D122" t="n">
+        <v>362</v>
+      </c>
+      <c r="E122" t="n">
+        <v>361</v>
+      </c>
+      <c r="F122" t="n">
+        <v>21027.303</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-26358.53897970466</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>362</v>
+      </c>
+      <c r="C123" t="n">
+        <v>362</v>
+      </c>
+      <c r="D123" t="n">
+        <v>362</v>
+      </c>
+      <c r="E123" t="n">
+        <v>362</v>
+      </c>
+      <c r="F123" t="n">
+        <v>30</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-26358.53897970466</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>363</v>
+      </c>
+      <c r="C124" t="n">
+        <v>363</v>
+      </c>
+      <c r="D124" t="n">
+        <v>363</v>
+      </c>
+      <c r="E124" t="n">
+        <v>363</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2125.4146</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-24233.12437970466</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>364</v>
+      </c>
+      <c r="C125" t="n">
+        <v>364</v>
+      </c>
+      <c r="D125" t="n">
+        <v>364</v>
+      </c>
+      <c r="E125" t="n">
+        <v>364</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-23233.12437970466</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>365</v>
+      </c>
+      <c r="C126" t="n">
+        <v>364</v>
+      </c>
+      <c r="D126" t="n">
+        <v>365</v>
+      </c>
+      <c r="E126" t="n">
+        <v>364</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1403.1725</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-23233.12437970466</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>364</v>
+      </c>
+      <c r="C127" t="n">
+        <v>364</v>
+      </c>
+      <c r="D127" t="n">
+        <v>364</v>
+      </c>
+      <c r="E127" t="n">
+        <v>364</v>
+      </c>
+      <c r="F127" t="n">
+        <v>145.4989</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-23233.12437970466</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>365</v>
+      </c>
+      <c r="C128" t="n">
+        <v>365</v>
+      </c>
+      <c r="D128" t="n">
+        <v>365</v>
+      </c>
+      <c r="E128" t="n">
+        <v>365</v>
+      </c>
+      <c r="F128" t="n">
+        <v>935.9999</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-22297.12447970466</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>365</v>
+      </c>
+      <c r="C129" t="n">
+        <v>365</v>
+      </c>
+      <c r="D129" t="n">
+        <v>365</v>
+      </c>
+      <c r="E129" t="n">
+        <v>365</v>
+      </c>
+      <c r="F129" t="n">
+        <v>13410.1472</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-22297.12447970466</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>365</v>
+      </c>
+      <c r="C130" t="n">
+        <v>366</v>
+      </c>
+      <c r="D130" t="n">
+        <v>366</v>
+      </c>
+      <c r="E130" t="n">
+        <v>365</v>
+      </c>
+      <c r="F130" t="n">
+        <v>605.4626</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-21691.66187970466</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>366</v>
+      </c>
+      <c r="C131" t="n">
+        <v>366</v>
+      </c>
+      <c r="D131" t="n">
+        <v>366</v>
+      </c>
+      <c r="E131" t="n">
+        <v>366</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5869.2547</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-21691.66187970466</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>367</v>
+      </c>
+      <c r="C132" t="n">
+        <v>367</v>
+      </c>
+      <c r="D132" t="n">
+        <v>367</v>
+      </c>
+      <c r="E132" t="n">
+        <v>367</v>
+      </c>
+      <c r="F132" t="n">
+        <v>143.4934</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-21548.16847970466</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>368</v>
+      </c>
+      <c r="C133" t="n">
+        <v>368</v>
+      </c>
+      <c r="D133" t="n">
+        <v>368</v>
+      </c>
+      <c r="E133" t="n">
+        <v>368</v>
+      </c>
+      <c r="F133" t="n">
+        <v>100</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-21448.16847970466</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>368</v>
+      </c>
+      <c r="C134" t="n">
+        <v>368</v>
+      </c>
+      <c r="D134" t="n">
+        <v>368</v>
+      </c>
+      <c r="E134" t="n">
+        <v>368</v>
+      </c>
+      <c r="F134" t="n">
+        <v>634.4592</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-21448.16847970466</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>368</v>
+      </c>
+      <c r="C135" t="n">
+        <v>367</v>
+      </c>
+      <c r="D135" t="n">
+        <v>368</v>
+      </c>
+      <c r="E135" t="n">
+        <v>367</v>
+      </c>
+      <c r="F135" t="n">
+        <v>846.0377</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-22294.20617970466</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>367</v>
+      </c>
+      <c r="C136" t="n">
+        <v>367</v>
+      </c>
+      <c r="D136" t="n">
+        <v>367</v>
+      </c>
+      <c r="E136" t="n">
+        <v>367</v>
+      </c>
+      <c r="F136" t="n">
+        <v>483.11</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-22294.20617970466</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>366</v>
+      </c>
+      <c r="C137" t="n">
+        <v>366</v>
+      </c>
+      <c r="D137" t="n">
+        <v>366</v>
+      </c>
+      <c r="E137" t="n">
+        <v>366</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1644.6244</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-23938.83057970466</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>365</v>
+      </c>
+      <c r="C138" t="n">
+        <v>365</v>
+      </c>
+      <c r="D138" t="n">
+        <v>365</v>
+      </c>
+      <c r="E138" t="n">
+        <v>365</v>
+      </c>
+      <c r="F138" t="n">
+        <v>28056.0698</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-51994.90037970466</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>364</v>
+      </c>
+      <c r="C139" t="n">
+        <v>364</v>
+      </c>
+      <c r="D139" t="n">
+        <v>364</v>
+      </c>
+      <c r="E139" t="n">
+        <v>364</v>
+      </c>
+      <c r="F139" t="n">
+        <v>8214</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-60208.90037970466</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>364</v>
+      </c>
+      <c r="C140" t="n">
+        <v>364</v>
+      </c>
+      <c r="D140" t="n">
+        <v>364</v>
+      </c>
+      <c r="E140" t="n">
+        <v>364</v>
+      </c>
+      <c r="F140" t="n">
+        <v>10000.0249</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-60208.90037970466</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>364</v>
+      </c>
+      <c r="C141" t="n">
+        <v>364</v>
+      </c>
+      <c r="D141" t="n">
+        <v>364</v>
+      </c>
+      <c r="E141" t="n">
+        <v>364</v>
+      </c>
+      <c r="F141" t="n">
+        <v>231.5873</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-60208.90037970466</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>364</v>
+      </c>
+      <c r="C142" t="n">
+        <v>364</v>
+      </c>
+      <c r="D142" t="n">
+        <v>364</v>
+      </c>
+      <c r="E142" t="n">
+        <v>364</v>
+      </c>
+      <c r="F142" t="n">
+        <v>763.4924999999999</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-60208.90037970466</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>363</v>
+      </c>
+      <c r="C143" t="n">
+        <v>364</v>
+      </c>
+      <c r="D143" t="n">
+        <v>364</v>
+      </c>
+      <c r="E143" t="n">
+        <v>363</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2904.6862</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-60208.90037970466</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>363</v>
+      </c>
+      <c r="C144" t="n">
+        <v>363</v>
+      </c>
+      <c r="D144" t="n">
+        <v>363</v>
+      </c>
+      <c r="E144" t="n">
+        <v>363</v>
+      </c>
+      <c r="F144" t="n">
+        <v>205.4143</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-60414.31467970466</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>362</v>
+      </c>
+      <c r="C145" t="n">
+        <v>362</v>
+      </c>
+      <c r="D145" t="n">
+        <v>362</v>
+      </c>
+      <c r="E145" t="n">
+        <v>362</v>
+      </c>
+      <c r="F145" t="n">
+        <v>16381.7055</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-76796.02017970466</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>362</v>
+      </c>
+      <c r="C146" t="n">
+        <v>362</v>
+      </c>
+      <c r="D146" t="n">
+        <v>362</v>
+      </c>
+      <c r="E146" t="n">
+        <v>362</v>
+      </c>
+      <c r="F146" t="n">
+        <v>6550.9083</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-76796.02017970466</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>364</v>
+      </c>
+      <c r="C147" t="n">
+        <v>364</v>
+      </c>
+      <c r="D147" t="n">
+        <v>364</v>
+      </c>
+      <c r="E147" t="n">
+        <v>364</v>
+      </c>
+      <c r="F147" t="n">
+        <v>139.6497</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-76656.37047970467</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>364</v>
+      </c>
+      <c r="C148" t="n">
+        <v>364</v>
+      </c>
+      <c r="D148" t="n">
+        <v>364</v>
+      </c>
+      <c r="E148" t="n">
+        <v>364</v>
+      </c>
+      <c r="F148" t="n">
+        <v>24.0818</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-76656.37047970467</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>364</v>
+      </c>
+      <c r="C149" t="n">
+        <v>365</v>
+      </c>
+      <c r="D149" t="n">
+        <v>365</v>
+      </c>
+      <c r="E149" t="n">
+        <v>364</v>
+      </c>
+      <c r="F149" t="n">
+        <v>518.2195</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-76138.15097970466</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>365</v>
+      </c>
+      <c r="C150" t="n">
+        <v>365</v>
+      </c>
+      <c r="D150" t="n">
+        <v>365</v>
+      </c>
+      <c r="E150" t="n">
+        <v>365</v>
+      </c>
+      <c r="F150" t="n">
+        <v>13.965</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-76138.15097970466</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>365</v>
+      </c>
+      <c r="C151" t="n">
+        <v>365</v>
+      </c>
+      <c r="D151" t="n">
+        <v>365</v>
+      </c>
+      <c r="E151" t="n">
+        <v>365</v>
+      </c>
+      <c r="F151" t="n">
+        <v>508.3249</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-76138.15097970466</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>364</v>
+      </c>
+      <c r="C152" t="n">
+        <v>364</v>
+      </c>
+      <c r="D152" t="n">
+        <v>364</v>
+      </c>
+      <c r="E152" t="n">
+        <v>364</v>
+      </c>
+      <c r="F152" t="n">
+        <v>599.5411</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-76737.69207970466</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>363</v>
+      </c>
+      <c r="C153" t="n">
+        <v>363</v>
+      </c>
+      <c r="D153" t="n">
+        <v>363</v>
+      </c>
+      <c r="E153" t="n">
+        <v>363</v>
+      </c>
+      <c r="F153" t="n">
+        <v>442.2043</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-77179.89637970466</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>364</v>
+      </c>
+      <c r="C154" t="n">
+        <v>366</v>
+      </c>
+      <c r="D154" t="n">
+        <v>366</v>
+      </c>
+      <c r="E154" t="n">
+        <v>364</v>
+      </c>
+      <c r="F154" t="n">
+        <v>26921.8655</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-50258.03087970466</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>366</v>
+      </c>
+      <c r="C155" t="n">
+        <v>366</v>
+      </c>
+      <c r="D155" t="n">
+        <v>366</v>
+      </c>
+      <c r="E155" t="n">
+        <v>366</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2709.9879</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-50258.03087970466</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>367</v>
+      </c>
+      <c r="C156" t="n">
+        <v>367</v>
+      </c>
+      <c r="D156" t="n">
+        <v>367</v>
+      </c>
+      <c r="E156" t="n">
+        <v>367</v>
+      </c>
+      <c r="F156" t="n">
+        <v>294.2327</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-49963.79817970466</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>367</v>
+      </c>
+      <c r="C157" t="n">
+        <v>367</v>
+      </c>
+      <c r="D157" t="n">
+        <v>367</v>
+      </c>
+      <c r="E157" t="n">
+        <v>367</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2108.8154</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-49963.79817970466</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>368</v>
+      </c>
+      <c r="C158" t="n">
+        <v>368</v>
+      </c>
+      <c r="D158" t="n">
+        <v>368</v>
+      </c>
+      <c r="E158" t="n">
+        <v>368</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3922.355</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-46041.44317970466</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>369</v>
+      </c>
+      <c r="C159" t="n">
+        <v>369</v>
+      </c>
+      <c r="D159" t="n">
+        <v>369</v>
+      </c>
+      <c r="E159" t="n">
+        <v>369</v>
+      </c>
+      <c r="F159" t="n">
+        <v>82.5989</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-45958.84427970466</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>368</v>
+      </c>
+      <c r="C160" t="n">
+        <v>367</v>
+      </c>
+      <c r="D160" t="n">
+        <v>368</v>
+      </c>
+      <c r="E160" t="n">
+        <v>367</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3730.7182</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-49689.56247970466</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>368</v>
+      </c>
+      <c r="C161" t="n">
+        <v>368</v>
+      </c>
+      <c r="D161" t="n">
+        <v>368</v>
+      </c>
+      <c r="E161" t="n">
+        <v>368</v>
+      </c>
+      <c r="F161" t="n">
+        <v>690</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-48999.56247970466</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>368</v>
+      </c>
+      <c r="C162" t="n">
+        <v>368</v>
+      </c>
+      <c r="D162" t="n">
+        <v>368</v>
+      </c>
+      <c r="E162" t="n">
+        <v>368</v>
+      </c>
+      <c r="F162" t="n">
+        <v>310</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-48999.56247970466</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>368</v>
+      </c>
+      <c r="C163" t="n">
+        <v>368</v>
+      </c>
+      <c r="D163" t="n">
+        <v>368</v>
+      </c>
+      <c r="E163" t="n">
+        <v>368</v>
+      </c>
+      <c r="F163" t="n">
+        <v>4174.1956</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-48999.56247970466</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>367</v>
+      </c>
+      <c r="C164" t="n">
+        <v>366</v>
+      </c>
+      <c r="D164" t="n">
+        <v>367</v>
+      </c>
+      <c r="E164" t="n">
+        <v>366</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1926.0328</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-50925.59527970466</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>366</v>
+      </c>
+      <c r="C165" t="n">
+        <v>366</v>
+      </c>
+      <c r="D165" t="n">
+        <v>366</v>
+      </c>
+      <c r="E165" t="n">
+        <v>366</v>
+      </c>
+      <c r="F165" t="n">
+        <v>9011.633599999999</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-50925.59527970466</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>366</v>
+      </c>
+      <c r="C166" t="n">
+        <v>366</v>
+      </c>
+      <c r="D166" t="n">
+        <v>366</v>
+      </c>
+      <c r="E166" t="n">
+        <v>366</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1382.4493</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-50925.59527970466</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>368</v>
+      </c>
+      <c r="C167" t="n">
+        <v>366</v>
+      </c>
+      <c r="D167" t="n">
+        <v>368</v>
+      </c>
+      <c r="E167" t="n">
+        <v>366</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1891.8263</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-50925.59527970466</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>366</v>
+      </c>
+      <c r="C168" t="n">
+        <v>366</v>
+      </c>
+      <c r="D168" t="n">
+        <v>366</v>
+      </c>
+      <c r="E168" t="n">
+        <v>366</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1328.9426</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-50925.59527970466</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>368</v>
+      </c>
+      <c r="C169" t="n">
+        <v>368</v>
+      </c>
+      <c r="D169" t="n">
+        <v>368</v>
+      </c>
+      <c r="E169" t="n">
+        <v>368</v>
+      </c>
+      <c r="F169" t="n">
+        <v>150</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-50775.59527970466</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>364</v>
+      </c>
+      <c r="C170" t="n">
+        <v>364</v>
+      </c>
+      <c r="D170" t="n">
+        <v>364</v>
+      </c>
+      <c r="E170" t="n">
+        <v>364</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1543.8369</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-52319.43217970467</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>364</v>
+      </c>
+      <c r="C171" t="n">
+        <v>364</v>
+      </c>
+      <c r="D171" t="n">
+        <v>364</v>
+      </c>
+      <c r="E171" t="n">
+        <v>363</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1913.2962</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-52319.43217970467</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>363</v>
+      </c>
+      <c r="C172" t="n">
+        <v>363</v>
+      </c>
+      <c r="D172" t="n">
+        <v>363</v>
+      </c>
+      <c r="E172" t="n">
+        <v>363</v>
+      </c>
+      <c r="F172" t="n">
+        <v>127.4139</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-52446.84607970466</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>363</v>
+      </c>
+      <c r="C173" t="n">
+        <v>363</v>
+      </c>
+      <c r="D173" t="n">
+        <v>363</v>
+      </c>
+      <c r="E173" t="n">
+        <v>361</v>
+      </c>
+      <c r="F173" t="n">
+        <v>4502.225</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-52446.84607970466</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>363</v>
+      </c>
+      <c r="C174" t="n">
+        <v>363</v>
+      </c>
+      <c r="D174" t="n">
+        <v>363</v>
+      </c>
+      <c r="E174" t="n">
+        <v>363</v>
+      </c>
+      <c r="F174" t="n">
+        <v>158.5905</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-52446.84607970466</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>362</v>
+      </c>
+      <c r="C175" t="n">
+        <v>362</v>
+      </c>
+      <c r="D175" t="n">
+        <v>362</v>
+      </c>
+      <c r="E175" t="n">
+        <v>362</v>
+      </c>
+      <c r="F175" t="n">
+        <v>79.9225</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-52526.76857970467</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>364</v>
+      </c>
+      <c r="C176" t="n">
+        <v>364</v>
+      </c>
+      <c r="D176" t="n">
+        <v>364</v>
+      </c>
+      <c r="E176" t="n">
+        <v>364</v>
+      </c>
+      <c r="F176" t="n">
+        <v>131.3653</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-52395.40327970467</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>363</v>
+      </c>
+      <c r="C177" t="n">
+        <v>363</v>
+      </c>
+      <c r="D177" t="n">
+        <v>363</v>
+      </c>
+      <c r="E177" t="n">
+        <v>363</v>
+      </c>
+      <c r="F177" t="n">
+        <v>552</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-52947.40327970467</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>363</v>
+      </c>
+      <c r="C178" t="n">
+        <v>363</v>
+      </c>
+      <c r="D178" t="n">
+        <v>363</v>
+      </c>
+      <c r="E178" t="n">
+        <v>363</v>
+      </c>
+      <c r="F178" t="n">
+        <v>198.5051</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-52947.40327970467</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>363</v>
+      </c>
+      <c r="C179" t="n">
+        <v>363</v>
+      </c>
+      <c r="D179" t="n">
+        <v>363</v>
+      </c>
+      <c r="E179" t="n">
+        <v>363</v>
+      </c>
+      <c r="F179" t="n">
+        <v>4.6077</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-52947.40327970467</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>364</v>
+      </c>
+      <c r="C180" t="n">
+        <v>364</v>
+      </c>
+      <c r="D180" t="n">
+        <v>364</v>
+      </c>
+      <c r="E180" t="n">
+        <v>364</v>
+      </c>
+      <c r="F180" t="n">
+        <v>91.42529999999999</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-52855.97797970466</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>365</v>
+      </c>
+      <c r="C181" t="n">
+        <v>365</v>
+      </c>
+      <c r="D181" t="n">
+        <v>365</v>
+      </c>
+      <c r="E181" t="n">
+        <v>365</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-52854.91497970466</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>365</v>
+      </c>
+      <c r="C182" t="n">
+        <v>365</v>
+      </c>
+      <c r="D182" t="n">
+        <v>365</v>
+      </c>
+      <c r="E182" t="n">
+        <v>365</v>
+      </c>
+      <c r="F182" t="n">
+        <v>855.9997</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-52854.91497970466</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>365</v>
+      </c>
+      <c r="C183" t="n">
+        <v>365</v>
+      </c>
+      <c r="D183" t="n">
+        <v>365</v>
+      </c>
+      <c r="E183" t="n">
+        <v>365</v>
+      </c>
+      <c r="F183" t="n">
+        <v>733.1019</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-52854.91497970466</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>365</v>
+      </c>
+      <c r="C184" t="n">
+        <v>365</v>
+      </c>
+      <c r="D184" t="n">
+        <v>365</v>
+      </c>
+      <c r="E184" t="n">
+        <v>365</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1385.8826</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-52854.91497970466</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>364</v>
+      </c>
+      <c r="C185" t="n">
+        <v>361</v>
+      </c>
+      <c r="D185" t="n">
+        <v>364</v>
+      </c>
+      <c r="E185" t="n">
+        <v>361</v>
+      </c>
+      <c r="F185" t="n">
+        <v>4747.348</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-57602.26297970466</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>363</v>
+      </c>
+      <c r="C186" t="n">
+        <v>363</v>
+      </c>
+      <c r="D186" t="n">
+        <v>363</v>
+      </c>
+      <c r="E186" t="n">
+        <v>363</v>
+      </c>
+      <c r="F186" t="n">
+        <v>119</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-57483.26297970466</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>362</v>
+      </c>
+      <c r="C187" t="n">
+        <v>362</v>
+      </c>
+      <c r="D187" t="n">
+        <v>362</v>
+      </c>
+      <c r="E187" t="n">
+        <v>362</v>
+      </c>
+      <c r="F187" t="n">
+        <v>159.4304</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-57642.69337970466</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>360</v>
+      </c>
+      <c r="C188" t="n">
+        <v>360</v>
+      </c>
+      <c r="D188" t="n">
+        <v>360</v>
+      </c>
+      <c r="E188" t="n">
+        <v>360</v>
+      </c>
+      <c r="F188" t="n">
+        <v>128.2634</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-57770.95677970466</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>360</v>
+      </c>
+      <c r="C189" t="n">
+        <v>359</v>
+      </c>
+      <c r="D189" t="n">
+        <v>360</v>
+      </c>
+      <c r="E189" t="n">
+        <v>358</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1074.9984</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-58845.95517970466</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>359</v>
+      </c>
+      <c r="C190" t="n">
+        <v>359</v>
+      </c>
+      <c r="D190" t="n">
+        <v>359</v>
+      </c>
+      <c r="E190" t="n">
+        <v>359</v>
+      </c>
+      <c r="F190" t="n">
+        <v>180.9877</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-58845.95517970466</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>357</v>
+      </c>
+      <c r="C191" t="n">
+        <v>357</v>
+      </c>
+      <c r="D191" t="n">
+        <v>357</v>
+      </c>
+      <c r="E191" t="n">
+        <v>357</v>
+      </c>
+      <c r="F191" t="n">
+        <v>349.2256</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-59195.18077970466</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-19 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N191"/>
+  <dimension ref="A1:M191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,22 +781,15 @@
         <v>-50508.86586716638</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>348</v>
-      </c>
-      <c r="K12" t="n">
-        <v>348</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -858,22 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>348</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -898,26 +847,15 @@
         <v>-50508.86586716638</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>350</v>
-      </c>
-      <c r="K14" t="n">
-        <v>348</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -944,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -978,22 +913,15 @@
         <v>-50508.86586716638</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>350</v>
-      </c>
-      <c r="K16" t="n">
-        <v>350</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1018,26 +946,19 @@
         <v>-50354.16236716638</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="J17" t="n">
         <v>350</v>
       </c>
-      <c r="K17" t="n">
-        <v>350</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1064,22 +985,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>350</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1106,16 +1024,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>350</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1142,16 +1063,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1178,16 +1096,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1214,16 +1129,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1250,16 +1162,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1286,16 +1195,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1322,16 +1228,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1358,16 +1261,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1394,16 +1294,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1430,16 +1327,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1466,16 +1360,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1500,18 +1391,19 @@
         <v>-50358.26947485867</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>347</v>
+      </c>
+      <c r="J30" t="n">
+        <v>347</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1538,16 +1430,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>347</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1574,16 +1469,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>347</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1608,18 +1506,19 @@
         <v>-51697.40577485867</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>347</v>
+      </c>
+      <c r="J33" t="n">
+        <v>347</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1644,22 +1543,23 @@
         <v>-51697.40577485867</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="J34" t="n">
         <v>347</v>
       </c>
-      <c r="K34" t="n">
-        <v>347</v>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1684,26 +1584,23 @@
         <v>-51100.40577485867</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="J35" t="n">
         <v>347</v>
       </c>
-      <c r="K35" t="n">
-        <v>347</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1728,26 +1625,19 @@
         <v>-50759.40577485867</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="J36" t="n">
         <v>348</v>
       </c>
-      <c r="K36" t="n">
-        <v>347</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1772,22 +1662,23 @@
         <v>-50442.51547485867</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="J37" t="n">
-        <v>349</v>
-      </c>
-      <c r="K37" t="n">
-        <v>349</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>348</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1812,26 +1703,23 @@
         <v>-48963.35827485867</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="J38" t="n">
-        <v>352</v>
-      </c>
-      <c r="K38" t="n">
-        <v>349</v>
-      </c>
-      <c r="L38" t="inlineStr">
+        <v>348</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1856,26 +1744,15 @@
         <v>-48963.35827485867</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>353</v>
-      </c>
-      <c r="K39" t="n">
-        <v>349</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1900,18 +1777,19 @@
         <v>-48963.35827485867</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J40" t="n">
+        <v>353</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1938,16 +1816,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>353</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1974,16 +1855,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>353</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2010,16 +1894,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2046,16 +1927,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2082,16 +1960,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2118,16 +1993,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2154,16 +2026,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2190,16 +2059,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2226,16 +2092,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2262,16 +2125,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2298,16 +2158,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2334,16 +2191,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2368,18 +2222,19 @@
         <v>-50361.06316781642</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>352</v>
+      </c>
+      <c r="J53" t="n">
+        <v>352</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2404,18 +2259,23 @@
         <v>-50214.77186781642</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>352</v>
+      </c>
+      <c r="J54" t="n">
+        <v>352</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2440,18 +2300,23 @@
         <v>-50209.13806499952</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J55" t="n">
+        <v>352</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2476,18 +2341,23 @@
         <v>-50444.17806499952</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>355</v>
+      </c>
+      <c r="J56" t="n">
+        <v>352</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2512,18 +2382,23 @@
         <v>-50444.17806499952</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>352</v>
+      </c>
+      <c r="J57" t="n">
+        <v>352</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2550,16 +2425,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>352</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2586,16 +2464,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>352</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2622,16 +2503,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>352</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2656,24 +2540,21 @@
         <v>-50387.01966499952</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>352</v>
       </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2698,24 +2579,21 @@
         <v>-50526.33006499952</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>352</v>
       </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2740,24 +2618,21 @@
         <v>-50498.0014531015</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>351</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>352</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2782,24 +2657,21 @@
         <v>-50590.14637970465</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>353</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>352</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2824,24 +2696,21 @@
         <v>-50590.14637970465</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>352</v>
       </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2866,24 +2735,21 @@
         <v>-50590.14637970465</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>352</v>
       </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2908,24 +2774,23 @@
         <v>-49873.47577970465</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="J67" t="n">
         <v>352</v>
       </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2950,24 +2815,21 @@
         <v>-49872.47577970465</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>353</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>352</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2992,22 +2854,21 @@
         <v>-49872.47577970465</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>352</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3032,22 +2893,21 @@
         <v>-49812.87577970465</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>352</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3072,22 +2932,21 @@
         <v>-49876.69697970465</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>352</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3112,22 +2971,21 @@
         <v>-50715.77187970465</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>352</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3152,22 +3010,21 @@
         <v>-50715.77187970465</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>352</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3192,22 +3049,21 @@
         <v>-50715.77187970465</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>352</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3234,22 +3090,19 @@
       <c r="H75" t="n">
         <v>1</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>353</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>352</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3274,24 +3127,21 @@
         <v>-51555.79217970464</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>352</v>
       </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3316,24 +3166,23 @@
         <v>-51555.79217970464</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="J77" t="n">
-        <v>351</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>352</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3358,24 +3207,23 @@
         <v>-51118.32787970464</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="J78" t="n">
-        <v>351</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>352</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3400,22 +3248,23 @@
         <v>-51118.32787970464</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J79" t="n">
+        <v>352</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3440,24 +3289,23 @@
         <v>-51110.00307970464</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="J80" t="n">
-        <v>353</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>352</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3482,24 +3330,23 @@
         <v>-51110.00307970464</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="J81" t="n">
-        <v>354</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>352</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3526,20 +3373,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>352</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3564,24 +3410,21 @@
         <v>-51713.58997970464</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>354</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>352</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3606,24 +3449,21 @@
         <v>-51555.97317970464</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>353</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>352</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3650,20 +3490,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>352</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3688,22 +3527,21 @@
         <v>-51662.81377970464</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>352</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3730,20 +3568,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>352</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3770,20 +3607,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>352</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3808,22 +3644,21 @@
         <v>-51003.74067970464</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>352</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3848,22 +3683,21 @@
         <v>-51072.70027970464</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>352</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3888,22 +3722,21 @@
         <v>-51072.70027970464</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>352</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3930,20 +3763,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>352</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3968,22 +3800,21 @@
         <v>-48658.35627970465</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>352</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4008,22 +3839,21 @@
         <v>-48658.35627970465</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>352</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4048,22 +3878,21 @@
         <v>-43251.49212526021</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>352</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4088,22 +3917,21 @@
         <v>-43860.20722526021</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>352</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4130,20 +3958,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>352</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4170,20 +3997,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>352</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4210,20 +4036,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>352</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4250,20 +4075,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>352</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4290,20 +4114,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>352</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4330,20 +4153,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>352</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4370,20 +4192,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>352</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4410,20 +4231,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>352</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4450,20 +4270,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>352</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4490,20 +4309,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>352</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4530,20 +4348,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>352</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4570,20 +4387,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>352</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4610,20 +4426,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>352</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4650,20 +4465,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>352</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4690,20 +4504,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>352</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4730,20 +4543,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>352</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4770,20 +4582,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>352</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4808,22 +4619,21 @@
         <v>-58708.11412526021</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>352</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4850,20 +4660,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>352</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4890,20 +4699,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>352</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4930,20 +4738,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>352</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4968,22 +4775,21 @@
         <v>-35070.73092526021</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>352</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5010,20 +4816,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>352</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5050,20 +4855,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>352</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5090,20 +4894,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>352</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5130,20 +4933,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>352</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5170,20 +4972,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>352</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5210,20 +5011,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>352</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5250,20 +5050,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>352</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5290,20 +5089,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>352</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5330,20 +5128,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>352</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5370,20 +5167,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>352</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5410,20 +5206,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>352</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5450,18 +5245,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>352</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
       </c>
       <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5486,18 +5282,21 @@
         <v>-21691.66187970466</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>352</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1.034772727272727</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5522,18 +5321,15 @@
         <v>-21548.16847970466</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5558,18 +5354,15 @@
         <v>-21448.16847970466</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5594,18 +5387,15 @@
         <v>-21448.16847970466</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5630,18 +5420,15 @@
         <v>-22294.20617970466</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5666,18 +5453,15 @@
         <v>-22294.20617970466</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5702,18 +5486,15 @@
         <v>-23938.83057970466</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5738,18 +5519,15 @@
         <v>-51994.90037970466</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5774,18 +5552,15 @@
         <v>-60208.90037970466</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5810,18 +5585,15 @@
         <v>-60208.90037970466</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5848,16 +5620,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5884,16 +5653,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5920,16 +5686,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5956,16 +5719,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5992,16 +5752,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6028,16 +5785,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6064,16 +5818,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6100,16 +5851,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6136,16 +5884,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6172,16 +5917,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6208,16 +5950,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6244,16 +5983,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6280,16 +6016,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6316,16 +6049,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6352,16 +6082,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6388,16 +6115,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6424,16 +6148,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6460,16 +6181,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6496,16 +6214,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6532,16 +6247,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6568,16 +6280,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6604,16 +6313,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6640,16 +6346,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6676,16 +6379,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6712,16 +6412,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6748,16 +6445,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6784,16 +6478,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6820,16 +6511,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6856,16 +6544,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6892,16 +6577,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6928,16 +6610,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6964,16 +6643,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7000,16 +6676,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7036,16 +6709,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7072,16 +6742,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7108,16 +6775,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7144,16 +6808,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7180,16 +6841,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7216,16 +6874,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7252,16 +6907,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7288,16 +6940,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7324,16 +6973,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7360,16 +7006,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7396,16 +7039,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7432,16 +7072,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7468,16 +7105,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7504,16 +7138,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7540,16 +7171,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7576,16 +7204,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7612,16 +7237,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7648,18 +7270,15 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-19 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,14 +946,10 @@
         <v>-50354.16236716638</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>350</v>
-      </c>
-      <c r="J17" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -986,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>350</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1025,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>350</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1391,14 +1375,10 @@
         <v>-50358.26947485867</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>347</v>
-      </c>
-      <c r="J30" t="n">
-        <v>347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1431,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>347</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1470,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>347</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1506,7 +1474,7 @@
         <v>-51697.40577485867</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>347</v>
@@ -1543,7 +1511,7 @@
         <v>-51697.40577485867</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>347</v>
@@ -1584,7 +1552,7 @@
         <v>-51100.40577485867</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>347</v>
@@ -1625,7 +1593,7 @@
         <v>-50759.40577485867</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>348</v>
@@ -1662,7 +1630,7 @@
         <v>-50442.51547485867</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>349</v>
@@ -1703,7 +1671,7 @@
         <v>-48963.35827485867</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>352</v>
@@ -1744,10 +1712,14 @@
         <v>-48963.35827485867</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>353</v>
+      </c>
+      <c r="J39" t="n">
+        <v>353</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1777,7 +1749,7 @@
         <v>-48963.35827485867</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>353</v>
@@ -1785,7 +1757,11 @@
       <c r="J40" t="n">
         <v>353</v>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1856,14 +1832,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>353</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2222,14 +2192,10 @@
         <v>-50361.06316781642</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>352</v>
-      </c>
-      <c r="J53" t="n">
-        <v>352</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2259,19 +2225,11 @@
         <v>-50214.77186781642</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>352</v>
-      </c>
-      <c r="J54" t="n">
-        <v>352</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2300,19 +2258,11 @@
         <v>-50209.13806499952</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>353</v>
-      </c>
-      <c r="J55" t="n">
-        <v>352</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2341,19 +2291,11 @@
         <v>-50444.17806499952</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>355</v>
-      </c>
-      <c r="J56" t="n">
-        <v>352</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2382,19 +2324,11 @@
         <v>-50444.17806499952</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>352</v>
-      </c>
-      <c r="J57" t="n">
-        <v>352</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2426,14 +2360,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>352</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2465,14 +2393,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>352</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2504,14 +2426,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>352</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2543,14 +2459,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>352</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2582,14 +2492,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>352</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2621,14 +2525,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>352</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2660,14 +2558,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>352</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2699,14 +2591,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>352</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2738,14 +2624,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>352</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2774,19 +2654,11 @@
         <v>-49873.47577970465</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>352</v>
-      </c>
-      <c r="J67" t="n">
-        <v>352</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2818,14 +2690,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>352</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2854,17 +2720,11 @@
         <v>-49872.47577970465</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>352</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2893,17 +2753,11 @@
         <v>-49812.87577970465</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>352</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2932,17 +2786,11 @@
         <v>-49876.69697970465</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>352</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2971,17 +2819,11 @@
         <v>-50715.77187970465</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>352</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3010,17 +2852,11 @@
         <v>-50715.77187970465</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>352</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3049,17 +2885,11 @@
         <v>-50715.77187970465</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>352</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3088,17 +2918,11 @@
         <v>-51281.34647970465</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>352</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3130,14 +2954,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>352</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3166,19 +2984,15 @@
         <v>-51555.79217970464</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>351</v>
       </c>
       <c r="J77" t="n">
-        <v>352</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3207,17 +3021,17 @@
         <v>-51118.32787970464</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>351</v>
       </c>
       <c r="J78" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3248,17 +3062,17 @@
         <v>-51118.32787970464</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>353</v>
       </c>
       <c r="J79" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3289,19 +3103,15 @@
         <v>-51110.00307970464</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>353</v>
       </c>
       <c r="J80" t="n">
-        <v>352</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3330,17 +3140,15 @@
         <v>-51110.00307970464</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3375,11 +3183,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -3413,14 +3221,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>352</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3452,14 +3254,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>352</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3491,14 +3287,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>352</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3527,17 +3317,11 @@
         <v>-51662.81377970464</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>352</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3569,14 +3353,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>352</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3608,14 +3386,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>352</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3644,17 +3416,11 @@
         <v>-51003.74067970464</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>352</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3683,17 +3449,11 @@
         <v>-51072.70027970464</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>352</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3722,17 +3482,11 @@
         <v>-51072.70027970464</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>352</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3764,14 +3518,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>352</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3800,17 +3548,11 @@
         <v>-48658.35627970465</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>352</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3839,17 +3581,11 @@
         <v>-48658.35627970465</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>352</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3878,17 +3614,11 @@
         <v>-43251.49212526021</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>352</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3917,17 +3647,11 @@
         <v>-43860.20722526021</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>352</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3959,14 +3683,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>352</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3998,14 +3716,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>352</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4037,14 +3749,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>352</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4076,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>352</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4115,14 +3815,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>352</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4154,14 +3848,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>352</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4193,14 +3881,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>352</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4232,14 +3914,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>352</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4271,14 +3947,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>352</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4310,14 +3980,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>352</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4349,14 +4013,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>352</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4388,14 +4046,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>352</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4427,14 +4079,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>352</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4466,14 +4112,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>352</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4505,14 +4145,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>352</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4544,14 +4178,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>352</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4583,14 +4211,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>352</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4619,17 +4241,11 @@
         <v>-58708.11412526021</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>352</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4661,14 +4277,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>352</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4700,14 +4310,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>352</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4739,14 +4343,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>352</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4775,17 +4373,11 @@
         <v>-35070.73092526021</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>352</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4817,14 +4409,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>352</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4856,14 +4442,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>352</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4895,14 +4475,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>352</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4934,14 +4508,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>352</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4973,14 +4541,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>352</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5012,14 +4574,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>352</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5051,14 +4607,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>352</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5090,14 +4640,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>352</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5129,14 +4673,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>352</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5168,14 +4706,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>352</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5207,14 +4739,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>352</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5246,14 +4772,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>352</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5282,19 +4802,13 @@
         <v>-21691.66187970466</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>352</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
-        <v>1.034772727272727</v>
+        <v>1</v>
       </c>
       <c r="M131" t="inlineStr"/>
     </row>
@@ -5321,7 +4835,7 @@
         <v>-21548.16847970466</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5354,7 +4868,7 @@
         <v>-21448.16847970466</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5387,7 +4901,7 @@
         <v>-21448.16847970466</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5420,7 +4934,7 @@
         <v>-22294.20617970466</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5453,7 +4967,7 @@
         <v>-22294.20617970466</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5486,7 +5000,7 @@
         <v>-23938.83057970466</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5519,7 +5033,7 @@
         <v>-51994.90037970466</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5552,7 +5066,7 @@
         <v>-60208.90037970466</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5585,7 +5099,7 @@
         <v>-60208.90037970466</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -6443,7 +5957,7 @@
         <v>-50925.59527970466</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6476,7 +5990,7 @@
         <v>-50925.59527970466</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6509,7 +6023,7 @@
         <v>-50925.59527970466</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6542,7 +6056,7 @@
         <v>-50775.59527970466</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6575,7 +6089,7 @@
         <v>-52319.43217970467</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6608,7 +6122,7 @@
         <v>-52319.43217970467</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6641,7 +6155,7 @@
         <v>-52446.84607970466</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6674,7 +6188,7 @@
         <v>-52446.84607970466</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6707,7 +6221,7 @@
         <v>-52446.84607970466</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6740,7 +6254,7 @@
         <v>-52526.76857970467</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6773,7 +6287,7 @@
         <v>-52395.40327970467</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6806,7 +6320,7 @@
         <v>-52947.40327970467</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6839,7 +6353,7 @@
         <v>-52947.40327970467</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7279,6 +6793,6 @@
       <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-19 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1671,11 +1671,9 @@
         <v>-48963.35827485867</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>352</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>348</v>
       </c>
@@ -1712,14 +1710,10 @@
         <v>-48963.35827485867</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>353</v>
-      </c>
-      <c r="J39" t="n">
-        <v>353</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1749,19 +1743,11 @@
         <v>-48963.35827485867</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>353</v>
-      </c>
-      <c r="J40" t="n">
-        <v>353</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1793,14 +1779,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>353</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2885,7 +2865,7 @@
         <v>-50715.77187970465</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2918,7 +2898,7 @@
         <v>-51281.34647970465</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2951,7 +2931,7 @@
         <v>-51555.79217970464</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2984,14 +2964,10 @@
         <v>-51555.79217970464</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>351</v>
-      </c>
-      <c r="J77" t="n">
-        <v>351</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -3021,19 +2997,11 @@
         <v>-51118.32787970464</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>351</v>
-      </c>
-      <c r="J78" t="n">
-        <v>351</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3062,19 +3030,11 @@
         <v>-51118.32787970464</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>353</v>
-      </c>
-      <c r="J79" t="n">
-        <v>351</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3103,14 +3063,10 @@
         <v>-51110.00307970464</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>353</v>
-      </c>
-      <c r="J80" t="n">
-        <v>353</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
@@ -3143,14 +3099,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>353</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3179,17 +3129,11 @@
         <v>-51110.00307970464</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>353</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3218,7 +3162,7 @@
         <v>-51713.58997970464</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3251,7 +3195,7 @@
         <v>-51555.97317970464</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3284,7 +3228,7 @@
         <v>-51555.97317970464</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3317,7 +3261,7 @@
         <v>-51662.81377970464</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3746,7 +3690,7 @@
         <v>-43437.59362526021</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3779,7 +3723,7 @@
         <v>-43437.59362526021</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3812,7 +3756,7 @@
         <v>-43437.59362526021</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3845,7 +3789,7 @@
         <v>-46641.88022526021</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3878,7 +3822,7 @@
         <v>-46439.88022526021</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3911,7 +3855,7 @@
         <v>-52865.63042526021</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3944,7 +3888,7 @@
         <v>-50780.18712526021</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3977,7 +3921,7 @@
         <v>-50780.18712526021</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4010,7 +3954,7 @@
         <v>-58762.37212526021</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4043,7 +3987,7 @@
         <v>-58762.37212526021</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4076,7 +4020,7 @@
         <v>-58762.37212526021</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4109,7 +4053,7 @@
         <v>-58762.37212526021</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4241,7 +4185,7 @@
         <v>-58708.11412526021</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4340,7 +4284,7 @@
         <v>-35070.73092526021</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4373,7 +4317,7 @@
         <v>-35070.73092526021</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4406,7 +4350,7 @@
         <v>-35001.28648081577</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4439,7 +4383,7 @@
         <v>-35001.28648081577</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4472,7 +4416,7 @@
         <v>-26358.53897970466</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4505,7 +4449,7 @@
         <v>-26358.53897970466</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4538,7 +4482,7 @@
         <v>-26358.53897970466</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4571,7 +4515,7 @@
         <v>-24233.12437970466</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4604,7 +4548,7 @@
         <v>-23233.12437970466</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4637,7 +4581,7 @@
         <v>-23233.12437970466</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4670,7 +4614,7 @@
         <v>-23233.12437970466</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4703,7 +4647,7 @@
         <v>-22297.12447970466</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4736,7 +4680,7 @@
         <v>-22297.12447970466</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5957,7 +5901,7 @@
         <v>-50925.59527970466</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5990,7 +5934,7 @@
         <v>-50925.59527970466</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6023,7 +5967,7 @@
         <v>-50925.59527970466</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6056,7 +6000,7 @@
         <v>-50775.59527970466</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6089,7 +6033,7 @@
         <v>-52319.43217970467</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6122,7 +6066,7 @@
         <v>-52319.43217970467</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6155,7 +6099,7 @@
         <v>-52446.84607970466</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6188,7 +6132,7 @@
         <v>-52446.84607970466</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6221,7 +6165,7 @@
         <v>-52446.84607970466</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6254,7 +6198,7 @@
         <v>-52526.76857970467</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6287,7 +6231,7 @@
         <v>-52395.40327970467</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6320,7 +6264,7 @@
         <v>-52947.40327970467</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6353,7 +6297,7 @@
         <v>-52947.40327970467</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6793,6 +6737,6 @@
       <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-19 BackTest ZRX.xlsx
@@ -1474,14 +1474,10 @@
         <v>-51697.40577485867</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>347</v>
-      </c>
-      <c r="J33" t="n">
-        <v>347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1519,11 +1515,7 @@
       <c r="J34" t="n">
         <v>347</v>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1599,9 +1591,13 @@
         <v>348</v>
       </c>
       <c r="J36" t="n">
-        <v>348</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+        <v>347</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1636,13 +1632,9 @@
         <v>349</v>
       </c>
       <c r="J37" t="n">
-        <v>348</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1671,11 +1663,13 @@
         <v>-48963.35827485867</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>352</v>
+      </c>
       <c r="J38" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1713,8 +1707,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>349</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -2304,10 +2304,14 @@
         <v>-50444.17806499952</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>352</v>
+      </c>
+      <c r="J57" t="n">
+        <v>352</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
@@ -2337,11 +2341,19 @@
         <v>-50453.61186499952</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>352</v>
+      </c>
+      <c r="J58" t="n">
+        <v>352</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2370,11 +2382,19 @@
         <v>-50453.61186499952</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>351</v>
+      </c>
+      <c r="J59" t="n">
+        <v>352</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2403,11 +2423,19 @@
         <v>-50387.01966499952</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>351</v>
+      </c>
+      <c r="J60" t="n">
+        <v>352</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2436,11 +2464,19 @@
         <v>-50387.01966499952</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>352</v>
+      </c>
+      <c r="J61" t="n">
+        <v>352</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2469,11 +2505,19 @@
         <v>-50526.33006499952</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>352</v>
+      </c>
+      <c r="J62" t="n">
+        <v>352</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2502,11 +2546,19 @@
         <v>-50498.0014531015</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>351</v>
+      </c>
+      <c r="J63" t="n">
+        <v>352</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2538,8 +2590,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>352</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2568,11 +2626,19 @@
         <v>-50590.14637970465</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>352</v>
+      </c>
+      <c r="J65" t="n">
+        <v>352</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2604,8 +2670,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>352</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2637,8 +2709,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>352</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2670,8 +2748,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>352</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2703,8 +2787,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>352</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2736,8 +2826,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>352</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2769,8 +2865,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>352</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2802,8 +2904,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>352</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2835,8 +2943,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>352</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2865,11 +2979,17 @@
         <v>-50715.77187970465</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>352</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2898,11 +3018,17 @@
         <v>-51281.34647970465</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>352</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2931,11 +3057,17 @@
         <v>-51555.79217970464</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>352</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2964,11 +3096,19 @@
         <v>-51555.79217970464</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>351</v>
+      </c>
+      <c r="J77" t="n">
+        <v>352</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2997,11 +3137,19 @@
         <v>-51118.32787970464</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>351</v>
+      </c>
+      <c r="J78" t="n">
+        <v>352</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3030,11 +3178,17 @@
         <v>-51118.32787970464</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>352</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3063,11 +3217,17 @@
         <v>-51110.00307970464</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>352</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3099,8 +3259,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>352</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3129,11 +3295,17 @@
         <v>-51110.00307970464</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>352</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3162,11 +3334,17 @@
         <v>-51713.58997970464</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>352</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3195,11 +3373,17 @@
         <v>-51555.97317970464</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>352</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3228,11 +3412,17 @@
         <v>-51555.97317970464</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>352</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3261,11 +3451,17 @@
         <v>-51662.81377970464</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>352</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3297,8 +3493,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>352</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3330,8 +3532,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>352</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3363,8 +3571,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>352</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3396,8 +3610,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>352</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3429,8 +3649,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>352</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3462,8 +3688,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>352</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3495,8 +3727,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>352</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3528,8 +3766,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>352</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3561,8 +3805,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>352</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3594,8 +3844,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>352</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3627,8 +3883,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>352</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3660,8 +3922,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>352</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3690,11 +3958,17 @@
         <v>-43437.59362526021</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>352</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3723,11 +3997,17 @@
         <v>-43437.59362526021</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>352</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3756,11 +4036,17 @@
         <v>-43437.59362526021</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>352</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3789,11 +4075,17 @@
         <v>-46641.88022526021</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>352</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3822,11 +4114,17 @@
         <v>-46439.88022526021</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>352</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3855,11 +4153,17 @@
         <v>-52865.63042526021</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>352</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3888,11 +4192,17 @@
         <v>-50780.18712526021</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>352</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3921,11 +4231,17 @@
         <v>-50780.18712526021</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>352</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3954,11 +4270,17 @@
         <v>-58762.37212526021</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>352</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3987,11 +4309,17 @@
         <v>-58762.37212526021</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>352</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4020,11 +4348,17 @@
         <v>-58762.37212526021</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>352</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4053,11 +4387,17 @@
         <v>-58762.37212526021</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>352</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4089,8 +4429,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>352</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4122,8 +4468,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>352</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4155,8 +4507,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>352</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4185,11 +4543,17 @@
         <v>-58708.11412526021</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>352</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4221,8 +4585,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>352</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4254,8 +4624,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>352</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4284,11 +4660,17 @@
         <v>-35070.73092526021</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>352</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4317,11 +4699,17 @@
         <v>-35070.73092526021</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>352</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4350,11 +4738,17 @@
         <v>-35001.28648081577</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>352</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4383,11 +4777,17 @@
         <v>-35001.28648081577</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>352</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4416,11 +4816,17 @@
         <v>-26358.53897970466</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>352</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4449,11 +4855,17 @@
         <v>-26358.53897970466</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>352</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4482,11 +4894,17 @@
         <v>-26358.53897970466</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>352</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4515,11 +4933,17 @@
         <v>-24233.12437970466</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>352</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4548,11 +4972,17 @@
         <v>-23233.12437970466</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>352</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4581,11 +5011,17 @@
         <v>-23233.12437970466</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>352</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4614,11 +5050,17 @@
         <v>-23233.12437970466</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>352</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4647,11 +5089,17 @@
         <v>-22297.12447970466</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>352</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4680,11 +5128,17 @@
         <v>-22297.12447970466</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>352</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4713,13 +5167,19 @@
         <v>-21691.66187970466</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>352</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L130" t="n">
-        <v>1</v>
+        <v>1.034772727272727</v>
       </c>
       <c r="M130" t="inlineStr"/>
     </row>
@@ -4746,7 +5206,7 @@
         <v>-21691.66187970466</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4779,7 +5239,7 @@
         <v>-21548.16847970466</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4812,7 +5272,7 @@
         <v>-21448.16847970466</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4845,7 +5305,7 @@
         <v>-21448.16847970466</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4878,7 +5338,7 @@
         <v>-22294.20617970466</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4911,7 +5371,7 @@
         <v>-22294.20617970466</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4944,7 +5404,7 @@
         <v>-23938.83057970466</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4977,7 +5437,7 @@
         <v>-51994.90037970466</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5010,7 +5470,7 @@
         <v>-60208.90037970466</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-19 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:L191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>-57731.71016716638</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2760.9488</v>
       </c>
       <c r="G3" t="n">
-        <v>-60492.65896716638</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1853.4998</v>
       </c>
       <c r="G4" t="n">
-        <v>-62346.15876716638</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>-62346.15876716638</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>191.2615</v>
       </c>
       <c r="G6" t="n">
-        <v>-62346.15876716638</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>92.86</v>
       </c>
       <c r="G7" t="n">
-        <v>-62439.01876716638</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>41.3735</v>
       </c>
       <c r="G8" t="n">
-        <v>-62480.39226716638</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>10886.5293</v>
       </c>
       <c r="G9" t="n">
-        <v>-51593.86296716638</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>387.7839</v>
       </c>
       <c r="G10" t="n">
-        <v>-51593.86296716638</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2113.1689</v>
       </c>
       <c r="G11" t="n">
-        <v>-51593.86296716638</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1084.9971</v>
       </c>
       <c r="G12" t="n">
-        <v>-50508.86586716638</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1000</v>
       </c>
       <c r="G13" t="n">
-        <v>-50508.86586716638</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>524</v>
       </c>
       <c r="G14" t="n">
-        <v>-50508.86586716638</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2472.8099</v>
       </c>
       <c r="G15" t="n">
-        <v>-50508.86586716638</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>746.9235</v>
       </c>
       <c r="G16" t="n">
-        <v>-50508.86586716638</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>154.7035</v>
       </c>
       <c r="G17" t="n">
-        <v>-50354.16236716638</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>293.0679</v>
       </c>
       <c r="G18" t="n">
-        <v>-50061.09446716637</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>34.2083</v>
       </c>
       <c r="G19" t="n">
-        <v>-50095.30276716637</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>48.7053</v>
       </c>
       <c r="G20" t="n">
-        <v>-50046.59746716637</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>211.2775</v>
       </c>
       <c r="G21" t="n">
-        <v>-50257.87496716637</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1350</v>
       </c>
       <c r="G22" t="n">
-        <v>-51607.87496716637</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>4000</v>
       </c>
       <c r="G23" t="n">
-        <v>-55607.87496716637</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>3340.2424</v>
       </c>
       <c r="G24" t="n">
-        <v>-55607.87496716637</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2237.1386</v>
       </c>
       <c r="G25" t="n">
-        <v>-55607.87496716637</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>760</v>
       </c>
       <c r="G26" t="n">
-        <v>-55607.87496716637</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>235</v>
       </c>
       <c r="G27" t="n">
-        <v>-55607.87496716637</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>7692.307692307692</v>
       </c>
       <c r="G28" t="n">
-        <v>-47915.56727485867</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2992.6261</v>
       </c>
       <c r="G29" t="n">
-        <v>-50908.19337485867</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>549.9239</v>
       </c>
       <c r="G30" t="n">
-        <v>-50358.26947485867</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1339.1363</v>
       </c>
       <c r="G31" t="n">
-        <v>-51697.40577485867</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>3164.9498</v>
       </c>
       <c r="G32" t="n">
-        <v>-51697.40577485867</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>673.2468</v>
       </c>
       <c r="G33" t="n">
-        <v>-51697.40577485867</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,22 +1403,15 @@
         <v>4976.5469</v>
       </c>
       <c r="G34" t="n">
-        <v>-51697.40577485867</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>347</v>
-      </c>
-      <c r="J34" t="n">
-        <v>347</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1541,104 +1433,95 @@
         <v>597</v>
       </c>
       <c r="G35" t="n">
-        <v>-51100.40577485867</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>347</v>
       </c>
       <c r="I35" t="n">
         <v>347</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>349</v>
+      </c>
+      <c r="C36" t="n">
+        <v>349</v>
+      </c>
+      <c r="D36" t="n">
+        <v>349</v>
+      </c>
+      <c r="E36" t="n">
+        <v>349</v>
+      </c>
+      <c r="F36" t="n">
+        <v>341</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>348</v>
+      </c>
+      <c r="I36" t="n">
         <v>347</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>351</v>
+      </c>
+      <c r="C37" t="n">
+        <v>352</v>
+      </c>
+      <c r="D37" t="n">
+        <v>352</v>
+      </c>
+      <c r="E37" t="n">
+        <v>351</v>
+      </c>
+      <c r="F37" t="n">
+        <v>316.8903</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
         <v>349</v>
       </c>
-      <c r="C36" t="n">
-        <v>349</v>
-      </c>
-      <c r="D36" t="n">
-        <v>349</v>
-      </c>
-      <c r="E36" t="n">
-        <v>349</v>
-      </c>
-      <c r="F36" t="n">
-        <v>341</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-50759.40577485867</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>348</v>
-      </c>
-      <c r="J36" t="n">
+      <c r="I37" t="n">
         <v>347</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>351</v>
-      </c>
-      <c r="C37" t="n">
-        <v>352</v>
-      </c>
-      <c r="D37" t="n">
-        <v>352</v>
-      </c>
-      <c r="E37" t="n">
-        <v>351</v>
-      </c>
-      <c r="F37" t="n">
-        <v>316.8903</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-50442.51547485867</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>349</v>
-      </c>
-      <c r="J37" t="n">
-        <v>349</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1660,98 +1543,95 @@
         <v>1479.1572</v>
       </c>
       <c r="G38" t="n">
-        <v>-48963.35827485867</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>352</v>
       </c>
       <c r="I38" t="n">
         <v>352</v>
       </c>
-      <c r="J38" t="n">
-        <v>349</v>
-      </c>
-      <c r="K38" t="inlineStr">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>353</v>
+      </c>
+      <c r="C39" t="n">
+        <v>353</v>
+      </c>
+      <c r="D39" t="n">
+        <v>353</v>
+      </c>
+      <c r="E39" t="n">
+        <v>353</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1302.1678</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>353</v>
+      </c>
+      <c r="I39" t="n">
+        <v>352</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>353</v>
-      </c>
-      <c r="C39" t="n">
-        <v>353</v>
-      </c>
-      <c r="D39" t="n">
-        <v>353</v>
-      </c>
-      <c r="E39" t="n">
-        <v>353</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1302.1678</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-48963.35827485867</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>349</v>
-      </c>
-      <c r="K39" t="inlineStr">
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>353</v>
+      </c>
+      <c r="C40" t="n">
+        <v>353</v>
+      </c>
+      <c r="D40" t="n">
+        <v>353</v>
+      </c>
+      <c r="E40" t="n">
+        <v>353</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2495.2091</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>353</v>
+      </c>
+      <c r="I40" t="n">
+        <v>352</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>353</v>
-      </c>
-      <c r="C40" t="n">
-        <v>353</v>
-      </c>
-      <c r="D40" t="n">
-        <v>353</v>
-      </c>
-      <c r="E40" t="n">
-        <v>353</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2495.2091</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-48963.35827485867</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1773,18 +1653,15 @@
         <v>258.4006</v>
       </c>
       <c r="G41" t="n">
-        <v>-48704.95767485867</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1806,18 +1683,15 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>-48703.95767485867</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1839,18 +1713,15 @@
         <v>1404.4943</v>
       </c>
       <c r="G43" t="n">
-        <v>-48703.95767485867</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1872,18 +1743,15 @@
         <v>180.3563</v>
       </c>
       <c r="G44" t="n">
-        <v>-48884.31397485867</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1905,18 +1773,15 @@
         <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>-48873.31397485867</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1938,18 +1803,15 @@
         <v>321.258</v>
       </c>
       <c r="G46" t="n">
-        <v>-48873.31397485867</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1971,18 +1833,15 @@
         <v>160</v>
       </c>
       <c r="G47" t="n">
-        <v>-49033.31397485867</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2004,18 +1863,15 @@
         <v>1058.549392957746</v>
       </c>
       <c r="G48" t="n">
-        <v>-50091.86336781642</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2037,18 +1893,15 @@
         <v>269.1998</v>
       </c>
       <c r="G49" t="n">
-        <v>-50361.06316781642</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2070,18 +1923,15 @@
         <v>112</v>
       </c>
       <c r="G50" t="n">
-        <v>-50361.06316781642</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2103,18 +1953,15 @@
         <v>1736.0061</v>
       </c>
       <c r="G51" t="n">
-        <v>-50361.06316781642</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2136,18 +1983,15 @@
         <v>1847.7699</v>
       </c>
       <c r="G52" t="n">
-        <v>-50361.06316781642</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2169,18 +2013,15 @@
         <v>24.1096</v>
       </c>
       <c r="G53" t="n">
-        <v>-50361.06316781642</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2202,18 +2043,15 @@
         <v>146.2913</v>
       </c>
       <c r="G54" t="n">
-        <v>-50214.77186781642</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2235,18 +2073,15 @@
         <v>5.633802816901408</v>
       </c>
       <c r="G55" t="n">
-        <v>-50209.13806499952</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2268,18 +2103,15 @@
         <v>235.04</v>
       </c>
       <c r="G56" t="n">
-        <v>-50444.17806499952</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2301,22 +2133,15 @@
         <v>14</v>
       </c>
       <c r="G57" t="n">
-        <v>-50444.17806499952</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>352</v>
-      </c>
-      <c r="J57" t="n">
-        <v>352</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2338,26 +2163,15 @@
         <v>9.4338</v>
       </c>
       <c r="G58" t="n">
-        <v>-50453.61186499952</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>352</v>
-      </c>
-      <c r="J58" t="n">
-        <v>352</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2379,26 +2193,15 @@
         <v>1222.6184</v>
       </c>
       <c r="G59" t="n">
-        <v>-50453.61186499952</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>351</v>
-      </c>
-      <c r="J59" t="n">
-        <v>352</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2420,26 +2223,15 @@
         <v>66.59220000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>-50387.01966499952</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>351</v>
-      </c>
-      <c r="J60" t="n">
-        <v>352</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2461,26 +2253,15 @@
         <v>863.5133</v>
       </c>
       <c r="G61" t="n">
-        <v>-50387.01966499952</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>352</v>
-      </c>
-      <c r="J61" t="n">
-        <v>352</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2502,26 +2283,15 @@
         <v>139.3104</v>
       </c>
       <c r="G62" t="n">
-        <v>-50526.33006499952</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>352</v>
-      </c>
-      <c r="J62" t="n">
-        <v>352</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2543,26 +2313,15 @@
         <v>28.328611898017</v>
       </c>
       <c r="G63" t="n">
-        <v>-50498.0014531015</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>351</v>
-      </c>
-      <c r="J63" t="n">
-        <v>352</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2584,24 +2343,15 @@
         <v>92.1449266031419</v>
       </c>
       <c r="G64" t="n">
-        <v>-50590.14637970465</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>352</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2623,26 +2373,15 @@
         <v>103.9863</v>
       </c>
       <c r="G65" t="n">
-        <v>-50590.14637970465</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>352</v>
-      </c>
-      <c r="J65" t="n">
-        <v>352</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2664,24 +2403,15 @@
         <v>36</v>
       </c>
       <c r="G66" t="n">
-        <v>-50590.14637970465</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>352</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2703,24 +2433,15 @@
         <v>716.6706</v>
       </c>
       <c r="G67" t="n">
-        <v>-49873.47577970465</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>352</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2742,24 +2463,15 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>-49872.47577970465</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>352</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2781,24 +2493,15 @@
         <v>1043</v>
       </c>
       <c r="G69" t="n">
-        <v>-49872.47577970465</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>352</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2820,24 +2523,15 @@
         <v>59.6</v>
       </c>
       <c r="G70" t="n">
-        <v>-49812.87577970465</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>352</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2859,24 +2553,15 @@
         <v>63.8212</v>
       </c>
       <c r="G71" t="n">
-        <v>-49876.69697970465</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>352</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2898,24 +2583,15 @@
         <v>839.0749</v>
       </c>
       <c r="G72" t="n">
-        <v>-50715.77187970465</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>352</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2937,24 +2613,15 @@
         <v>3.9288</v>
       </c>
       <c r="G73" t="n">
-        <v>-50715.77187970465</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>352</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2976,24 +2643,15 @@
         <v>418.4847</v>
       </c>
       <c r="G74" t="n">
-        <v>-50715.77187970465</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>352</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3015,24 +2673,15 @@
         <v>565.5746</v>
       </c>
       <c r="G75" t="n">
-        <v>-51281.34647970465</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>352</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3054,24 +2703,15 @@
         <v>274.4457</v>
       </c>
       <c r="G76" t="n">
-        <v>-51555.79217970464</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>352</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3093,26 +2733,15 @@
         <v>300</v>
       </c>
       <c r="G77" t="n">
-        <v>-51555.79217970464</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>351</v>
-      </c>
-      <c r="J77" t="n">
-        <v>352</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3134,26 +2763,15 @@
         <v>437.4643</v>
       </c>
       <c r="G78" t="n">
-        <v>-51118.32787970464</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>351</v>
-      </c>
-      <c r="J78" t="n">
-        <v>352</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3175,24 +2793,15 @@
         <v>480.8463</v>
       </c>
       <c r="G79" t="n">
-        <v>-51118.32787970464</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>352</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3214,24 +2823,15 @@
         <v>8.3248</v>
       </c>
       <c r="G80" t="n">
-        <v>-51110.00307970464</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>352</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3253,24 +2853,15 @@
         <v>8.477399999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>-51110.00307970464</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>352</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3292,24 +2883,15 @@
         <v>46.0839</v>
       </c>
       <c r="G82" t="n">
-        <v>-51110.00307970464</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>352</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3331,24 +2913,15 @@
         <v>603.5869</v>
       </c>
       <c r="G83" t="n">
-        <v>-51713.58997970464</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>352</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3370,24 +2943,15 @@
         <v>157.6168</v>
       </c>
       <c r="G84" t="n">
-        <v>-51555.97317970464</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>352</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3409,24 +2973,15 @@
         <v>1232.6637</v>
       </c>
       <c r="G85" t="n">
-        <v>-51555.97317970464</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>352</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3448,24 +3003,15 @@
         <v>106.8406</v>
       </c>
       <c r="G86" t="n">
-        <v>-51662.81377970464</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>352</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3487,24 +3033,15 @@
         <v>602.0685</v>
       </c>
       <c r="G87" t="n">
-        <v>-51060.74527970464</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>352</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3526,24 +3063,15 @@
         <v>390</v>
       </c>
       <c r="G88" t="n">
-        <v>-51060.74527970464</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>352</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3565,24 +3093,15 @@
         <v>57.0046</v>
       </c>
       <c r="G89" t="n">
-        <v>-51003.74067970464</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>352</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3604,24 +3123,15 @@
         <v>68.95959999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-51072.70027970464</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>352</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3643,24 +3153,15 @@
         <v>257</v>
       </c>
       <c r="G91" t="n">
-        <v>-51072.70027970464</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>352</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3682,24 +3183,15 @@
         <v>2414.344</v>
       </c>
       <c r="G92" t="n">
-        <v>-48658.35627970465</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>352</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3721,24 +3213,15 @@
         <v>1704.1263</v>
       </c>
       <c r="G93" t="n">
-        <v>-48658.35627970465</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>352</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3760,24 +3243,15 @@
         <v>237.0366</v>
       </c>
       <c r="G94" t="n">
-        <v>-48658.35627970465</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>352</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3799,24 +3273,15 @@
         <v>5406.864154444444</v>
       </c>
       <c r="G95" t="n">
-        <v>-43251.49212526021</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>352</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3838,24 +3303,15 @@
         <v>608.7151</v>
       </c>
       <c r="G96" t="n">
-        <v>-43860.20722526021</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>352</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3877,24 +3333,15 @@
         <v>23.2667</v>
       </c>
       <c r="G97" t="n">
-        <v>-43860.20722526021</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>352</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3916,24 +3363,15 @@
         <v>6179.5175</v>
       </c>
       <c r="G98" t="n">
-        <v>-43860.20722526021</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>352</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3955,24 +3393,15 @@
         <v>422.6136</v>
       </c>
       <c r="G99" t="n">
-        <v>-43437.59362526021</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>352</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3994,24 +3423,15 @@
         <v>2989.4929</v>
       </c>
       <c r="G100" t="n">
-        <v>-43437.59362526021</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>352</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4033,24 +3453,15 @@
         <v>3485</v>
       </c>
       <c r="G101" t="n">
-        <v>-43437.59362526021</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>352</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4072,24 +3483,15 @@
         <v>3204.2866</v>
       </c>
       <c r="G102" t="n">
-        <v>-46641.88022526021</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>352</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4111,24 +3513,15 @@
         <v>202</v>
       </c>
       <c r="G103" t="n">
-        <v>-46439.88022526021</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>352</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4150,24 +3543,15 @@
         <v>6425.7502</v>
       </c>
       <c r="G104" t="n">
-        <v>-52865.63042526021</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>352</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4189,24 +3573,15 @@
         <v>2085.4433</v>
       </c>
       <c r="G105" t="n">
-        <v>-50780.18712526021</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>352</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4228,24 +3603,15 @@
         <v>97.5223</v>
       </c>
       <c r="G106" t="n">
-        <v>-50780.18712526021</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>352</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4267,24 +3633,15 @@
         <v>7982.185</v>
       </c>
       <c r="G107" t="n">
-        <v>-58762.37212526021</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>352</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4306,24 +3663,15 @@
         <v>1108.1044</v>
       </c>
       <c r="G108" t="n">
-        <v>-58762.37212526021</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>352</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4345,24 +3693,15 @@
         <v>8379.9213</v>
       </c>
       <c r="G109" t="n">
-        <v>-58762.37212526021</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>352</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4384,24 +3723,15 @@
         <v>25.2879</v>
       </c>
       <c r="G110" t="n">
-        <v>-58762.37212526021</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>352</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4423,24 +3753,15 @@
         <v>2012.9554</v>
       </c>
       <c r="G111" t="n">
-        <v>-58762.37212526021</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>352</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4462,24 +3783,15 @@
         <v>75.39960000000001</v>
       </c>
       <c r="G112" t="n">
-        <v>-58762.37212526021</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>352</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4501,24 +3813,15 @@
         <v>317.258</v>
       </c>
       <c r="G113" t="n">
-        <v>-58445.11412526021</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>352</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4540,24 +3843,15 @@
         <v>263</v>
       </c>
       <c r="G114" t="n">
-        <v>-58708.11412526021</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>352</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4579,24 +3873,15 @@
         <v>678</v>
       </c>
       <c r="G115" t="n">
-        <v>-58030.11412526021</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>352</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4618,24 +3903,15 @@
         <v>22959.3832</v>
       </c>
       <c r="G116" t="n">
-        <v>-35070.73092526021</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>352</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4657,24 +3933,15 @@
         <v>4.5682</v>
       </c>
       <c r="G117" t="n">
-        <v>-35070.73092526021</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>352</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4696,24 +3963,15 @@
         <v>1408.1431</v>
       </c>
       <c r="G118" t="n">
-        <v>-35070.73092526021</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>352</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4735,24 +3993,15 @@
         <v>69.44444444444444</v>
       </c>
       <c r="G119" t="n">
-        <v>-35001.28648081577</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>352</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4774,24 +4023,15 @@
         <v>1432</v>
       </c>
       <c r="G120" t="n">
-        <v>-35001.28648081577</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>352</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4813,24 +4053,15 @@
         <v>8642.747501111111</v>
       </c>
       <c r="G121" t="n">
-        <v>-26358.53897970466</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>352</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4852,24 +4083,15 @@
         <v>21027.303</v>
       </c>
       <c r="G122" t="n">
-        <v>-26358.53897970466</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>352</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4891,24 +4113,15 @@
         <v>30</v>
       </c>
       <c r="G123" t="n">
-        <v>-26358.53897970466</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>352</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4930,24 +4143,15 @@
         <v>2125.4146</v>
       </c>
       <c r="G124" t="n">
-        <v>-24233.12437970466</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>352</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4969,24 +4173,15 @@
         <v>1000</v>
       </c>
       <c r="G125" t="n">
-        <v>-23233.12437970466</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>352</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5008,24 +4203,15 @@
         <v>1403.1725</v>
       </c>
       <c r="G126" t="n">
-        <v>-23233.12437970466</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>352</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5047,24 +4233,15 @@
         <v>145.4989</v>
       </c>
       <c r="G127" t="n">
-        <v>-23233.12437970466</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>352</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5086,24 +4263,15 @@
         <v>935.9999</v>
       </c>
       <c r="G128" t="n">
-        <v>-22297.12447970466</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>352</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5125,24 +4293,15 @@
         <v>13410.1472</v>
       </c>
       <c r="G129" t="n">
-        <v>-22297.12447970466</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>352</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5164,24 +4323,15 @@
         <v>605.4626</v>
       </c>
       <c r="G130" t="n">
-        <v>-21691.66187970466</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>352</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1.034772727272727</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5203,18 +4353,15 @@
         <v>5869.2547</v>
       </c>
       <c r="G131" t="n">
-        <v>-21691.66187970466</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5236,18 +4383,15 @@
         <v>143.4934</v>
       </c>
       <c r="G132" t="n">
-        <v>-21548.16847970466</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5269,18 +4413,15 @@
         <v>100</v>
       </c>
       <c r="G133" t="n">
-        <v>-21448.16847970466</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5302,18 +4443,15 @@
         <v>634.4592</v>
       </c>
       <c r="G134" t="n">
-        <v>-21448.16847970466</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5335,18 +4473,15 @@
         <v>846.0377</v>
       </c>
       <c r="G135" t="n">
-        <v>-22294.20617970466</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5368,18 +4503,15 @@
         <v>483.11</v>
       </c>
       <c r="G136" t="n">
-        <v>-22294.20617970466</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5401,18 +4533,15 @@
         <v>1644.6244</v>
       </c>
       <c r="G137" t="n">
-        <v>-23938.83057970466</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5434,18 +4563,15 @@
         <v>28056.0698</v>
       </c>
       <c r="G138" t="n">
-        <v>-51994.90037970466</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5467,18 +4593,15 @@
         <v>8214</v>
       </c>
       <c r="G139" t="n">
-        <v>-60208.90037970466</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5500,18 +4623,15 @@
         <v>10000.0249</v>
       </c>
       <c r="G140" t="n">
-        <v>-60208.90037970466</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5533,18 +4653,15 @@
         <v>231.5873</v>
       </c>
       <c r="G141" t="n">
-        <v>-60208.90037970466</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5566,18 +4683,15 @@
         <v>763.4924999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>-60208.90037970466</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5599,18 +4713,15 @@
         <v>2904.6862</v>
       </c>
       <c r="G143" t="n">
-        <v>-60208.90037970466</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5632,18 +4743,15 @@
         <v>205.4143</v>
       </c>
       <c r="G144" t="n">
-        <v>-60414.31467970466</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5665,18 +4773,15 @@
         <v>16381.7055</v>
       </c>
       <c r="G145" t="n">
-        <v>-76796.02017970466</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5698,18 +4803,15 @@
         <v>6550.9083</v>
       </c>
       <c r="G146" t="n">
-        <v>-76796.02017970466</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5731,18 +4833,15 @@
         <v>139.6497</v>
       </c>
       <c r="G147" t="n">
-        <v>-76656.37047970467</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5764,18 +4863,15 @@
         <v>24.0818</v>
       </c>
       <c r="G148" t="n">
-        <v>-76656.37047970467</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5797,18 +4893,15 @@
         <v>518.2195</v>
       </c>
       <c r="G149" t="n">
-        <v>-76138.15097970466</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5830,18 +4923,15 @@
         <v>13.965</v>
       </c>
       <c r="G150" t="n">
-        <v>-76138.15097970466</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5863,18 +4953,15 @@
         <v>508.3249</v>
       </c>
       <c r="G151" t="n">
-        <v>-76138.15097970466</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5896,18 +4983,15 @@
         <v>599.5411</v>
       </c>
       <c r="G152" t="n">
-        <v>-76737.69207970466</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5929,18 +5013,15 @@
         <v>442.2043</v>
       </c>
       <c r="G153" t="n">
-        <v>-77179.89637970466</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5962,18 +5043,15 @@
         <v>26921.8655</v>
       </c>
       <c r="G154" t="n">
-        <v>-50258.03087970466</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5995,18 +5073,15 @@
         <v>2709.9879</v>
       </c>
       <c r="G155" t="n">
-        <v>-50258.03087970466</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6028,18 +5103,15 @@
         <v>294.2327</v>
       </c>
       <c r="G156" t="n">
-        <v>-49963.79817970466</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6061,18 +5133,15 @@
         <v>2108.8154</v>
       </c>
       <c r="G157" t="n">
-        <v>-49963.79817970466</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6094,18 +5163,15 @@
         <v>3922.355</v>
       </c>
       <c r="G158" t="n">
-        <v>-46041.44317970466</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6127,18 +5193,15 @@
         <v>82.5989</v>
       </c>
       <c r="G159" t="n">
-        <v>-45958.84427970466</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6160,18 +5223,15 @@
         <v>3730.7182</v>
       </c>
       <c r="G160" t="n">
-        <v>-49689.56247970466</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6193,18 +5253,15 @@
         <v>690</v>
       </c>
       <c r="G161" t="n">
-        <v>-48999.56247970466</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6226,18 +5283,15 @@
         <v>310</v>
       </c>
       <c r="G162" t="n">
-        <v>-48999.56247970466</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6259,18 +5313,15 @@
         <v>4174.1956</v>
       </c>
       <c r="G163" t="n">
-        <v>-48999.56247970466</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6292,18 +5343,15 @@
         <v>1926.0328</v>
       </c>
       <c r="G164" t="n">
-        <v>-50925.59527970466</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6325,18 +5373,15 @@
         <v>9011.633599999999</v>
       </c>
       <c r="G165" t="n">
-        <v>-50925.59527970466</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6358,18 +5403,15 @@
         <v>1382.4493</v>
       </c>
       <c r="G166" t="n">
-        <v>-50925.59527970466</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6391,18 +5433,15 @@
         <v>1891.8263</v>
       </c>
       <c r="G167" t="n">
-        <v>-50925.59527970466</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6424,18 +5463,15 @@
         <v>1328.9426</v>
       </c>
       <c r="G168" t="n">
-        <v>-50925.59527970466</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6457,18 +5493,15 @@
         <v>150</v>
       </c>
       <c r="G169" t="n">
-        <v>-50775.59527970466</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6490,18 +5523,15 @@
         <v>1543.8369</v>
       </c>
       <c r="G170" t="n">
-        <v>-52319.43217970467</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6523,18 +5553,15 @@
         <v>1913.2962</v>
       </c>
       <c r="G171" t="n">
-        <v>-52319.43217970467</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6556,18 +5583,15 @@
         <v>127.4139</v>
       </c>
       <c r="G172" t="n">
-        <v>-52446.84607970466</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6589,18 +5613,15 @@
         <v>4502.225</v>
       </c>
       <c r="G173" t="n">
-        <v>-52446.84607970466</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6622,18 +5643,15 @@
         <v>158.5905</v>
       </c>
       <c r="G174" t="n">
-        <v>-52446.84607970466</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6655,18 +5673,15 @@
         <v>79.9225</v>
       </c>
       <c r="G175" t="n">
-        <v>-52526.76857970467</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6688,18 +5703,15 @@
         <v>131.3653</v>
       </c>
       <c r="G176" t="n">
-        <v>-52395.40327970467</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6721,18 +5733,15 @@
         <v>552</v>
       </c>
       <c r="G177" t="n">
-        <v>-52947.40327970467</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6754,18 +5763,15 @@
         <v>198.5051</v>
       </c>
       <c r="G178" t="n">
-        <v>-52947.40327970467</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6787,18 +5793,15 @@
         <v>4.6077</v>
       </c>
       <c r="G179" t="n">
-        <v>-52947.40327970467</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6820,18 +5823,15 @@
         <v>91.42529999999999</v>
       </c>
       <c r="G180" t="n">
-        <v>-52855.97797970466</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6853,18 +5853,15 @@
         <v>1.063</v>
       </c>
       <c r="G181" t="n">
-        <v>-52854.91497970466</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6886,18 +5883,15 @@
         <v>855.9997</v>
       </c>
       <c r="G182" t="n">
-        <v>-52854.91497970466</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6919,18 +5913,15 @@
         <v>733.1019</v>
       </c>
       <c r="G183" t="n">
-        <v>-52854.91497970466</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6952,18 +5943,15 @@
         <v>1385.8826</v>
       </c>
       <c r="G184" t="n">
-        <v>-52854.91497970466</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6985,18 +5973,15 @@
         <v>4747.348</v>
       </c>
       <c r="G185" t="n">
-        <v>-57602.26297970466</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7018,18 +6003,15 @@
         <v>119</v>
       </c>
       <c r="G186" t="n">
-        <v>-57483.26297970466</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7051,18 +6033,15 @@
         <v>159.4304</v>
       </c>
       <c r="G187" t="n">
-        <v>-57642.69337970466</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7084,18 +6063,15 @@
         <v>128.2634</v>
       </c>
       <c r="G188" t="n">
-        <v>-57770.95677970466</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7117,18 +6093,15 @@
         <v>1074.9984</v>
       </c>
       <c r="G189" t="n">
-        <v>-58845.95517970466</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7150,18 +6123,15 @@
         <v>180.9877</v>
       </c>
       <c r="G190" t="n">
-        <v>-58845.95517970466</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7183,18 +6153,15 @@
         <v>349.2256</v>
       </c>
       <c r="G191" t="n">
-        <v>-59195.18077970466</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
